--- a/Каталог КА-160.xlsx
+++ b/Каталог КА-160.xlsx
@@ -3955,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="E311" sqref="E311"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8695,10 +8695,9 @@
       <c r="A320" s="9">
         <v>23</v>
       </c>
-      <c r="B320" s="27" t="s">
+      <c r="C320" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C320" s="8"/>
       <c r="D320" s="9" t="s">
         <v>702</v>
       </c>
@@ -8755,10 +8754,9 @@
       <c r="A324" s="9">
         <v>24</v>
       </c>
-      <c r="B324" s="27" t="s">
+      <c r="C324" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C324" s="8"/>
       <c r="D324" s="9" t="s">
         <v>706</v>
       </c>

--- a/Каталог КА-160.xlsx
+++ b/Каталог КА-160.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="720" windowWidth="19440" windowHeight="10005"/>
@@ -3324,12 +3324,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
     <numFmt numFmtId="165" formatCode="[$-419]General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3665,13 +3665,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3709,7 +3714,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3743,6 +3748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3777,9 +3783,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3952,26 +3959,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="36.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5">
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>212</v>
       </c>
@@ -4000,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="25" customFormat="1" ht="37.5">
+    <row r="2" spans="1:9" s="25" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="30" t="s">
         <v>5</v>
@@ -4015,7 +4022,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>213</v>
       </c>
@@ -4033,7 +4040,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -4049,7 +4056,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -4065,7 +4072,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -4081,7 +4088,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
@@ -4097,7 +4104,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -4111,7 +4118,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -4125,7 +4132,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -4139,7 +4146,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>223</v>
       </c>
@@ -4157,7 +4164,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4167,7 +4174,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -4183,7 +4190,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -4199,7 +4206,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
@@ -4213,7 +4220,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4223,7 +4230,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>224</v>
       </c>
@@ -4241,7 +4248,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
@@ -4257,7 +4264,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
@@ -4273,7 +4280,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
@@ -4287,7 +4294,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="28" t="s">
         <v>10</v>
@@ -4301,7 +4308,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>4</v>
       </c>
@@ -4319,7 +4326,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
@@ -4335,7 +4342,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
@@ -4351,7 +4358,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
@@ -4367,7 +4374,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
@@ -4383,7 +4390,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
@@ -4399,7 +4406,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
@@ -4415,7 +4422,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
@@ -4431,7 +4438,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
@@ -4447,7 +4454,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
@@ -4463,7 +4470,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
@@ -4479,7 +4486,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
@@ -4495,7 +4502,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
@@ -4511,7 +4518,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
@@ -4527,7 +4534,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
@@ -4543,7 +4550,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" s="13" customFormat="1">
+    <row r="37" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
@@ -4559,7 +4566,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" s="13" customFormat="1">
+    <row r="38" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
@@ -4575,7 +4582,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" s="13" customFormat="1">
+    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
@@ -4591,7 +4598,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" s="13" customFormat="1">
+    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
@@ -4607,7 +4614,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" s="13" customFormat="1">
+    <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
@@ -4623,7 +4630,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" s="13" customFormat="1">
+    <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
@@ -4637,7 +4644,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" s="13" customFormat="1">
+    <row r="43" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
@@ -4651,7 +4658,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" s="13" customFormat="1">
+    <row r="44" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
@@ -4665,7 +4672,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" s="13" customFormat="1">
+    <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
@@ -4679,7 +4686,7 @@
       <c r="G45" s="10"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" s="13" customFormat="1">
+    <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
@@ -4693,7 +4700,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" s="13" customFormat="1">
+    <row r="47" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
@@ -4707,7 +4714,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" s="13" customFormat="1">
+    <row r="48" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
@@ -4723,7 +4730,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" s="13" customFormat="1">
+    <row r="49" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
@@ -4739,7 +4746,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" s="13" customFormat="1">
+    <row r="50" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
@@ -4755,7 +4762,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" s="13" customFormat="1">
+    <row r="51" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
@@ -4771,7 +4778,7 @@
       <c r="G51" s="10"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" s="13" customFormat="1">
+    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
@@ -4787,7 +4794,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" s="13" customFormat="1">
+    <row r="53" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
@@ -4803,7 +4810,7 @@
       <c r="G53" s="10"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" s="13" customFormat="1">
+    <row r="54" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
@@ -4819,7 +4826,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" s="13" customFormat="1">
+    <row r="55" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
@@ -4835,7 +4842,7 @@
       <c r="G55" s="10"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" s="13" customFormat="1">
+    <row r="56" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
@@ -4849,7 +4856,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" s="13" customFormat="1">
+    <row r="57" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
@@ -4863,7 +4870,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" s="13" customFormat="1">
+    <row r="58" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
@@ -4877,7 +4884,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" s="13" customFormat="1">
+    <row r="59" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
@@ -4891,7 +4898,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" s="13" customFormat="1">
+    <row r="60" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
@@ -4905,7 +4912,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8" s="13" customFormat="1">
+    <row r="61" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
@@ -4919,7 +4926,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8" s="13" customFormat="1">
+    <row r="62" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
@@ -4933,7 +4940,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" s="13" customFormat="1">
+    <row r="63" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8" t="s">
@@ -4947,7 +4954,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8" s="13" customFormat="1">
+    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
@@ -4961,7 +4968,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" s="13" customFormat="1">
+    <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
@@ -4975,7 +4982,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8" s="13" customFormat="1">
+    <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4985,7 +4992,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" s="13" customFormat="1">
+    <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4995,7 +5002,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" s="13" customFormat="1">
+    <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5005,7 +5012,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8" s="13" customFormat="1">
+    <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5015,7 +5022,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>5</v>
       </c>
@@ -5033,7 +5040,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8" t="s">
@@ -5049,7 +5056,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8" t="s">
@@ -5065,7 +5072,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
@@ -5081,7 +5088,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
@@ -5097,7 +5104,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="30">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8" t="s">
@@ -5113,7 +5120,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
@@ -5129,7 +5136,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
@@ -5145,7 +5152,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
@@ -5159,7 +5166,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8" t="s">
@@ -5173,7 +5180,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
@@ -5187,7 +5194,7 @@
       <c r="G80" s="10"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
@@ -5201,7 +5208,7 @@
       <c r="G81" s="10"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
@@ -5215,7 +5222,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
@@ -5229,7 +5236,7 @@
       <c r="G83" s="10"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
@@ -5243,7 +5250,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
@@ -5259,7 +5266,7 @@
       <c r="G85" s="10"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
@@ -5275,7 +5282,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
@@ -5291,7 +5298,7 @@
       <c r="G87" s="10"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
@@ -5307,7 +5314,7 @@
       <c r="G88" s="10"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5317,7 +5324,7 @@
       <c r="G89" s="10"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5327,7 +5334,7 @@
       <c r="G90" s="10"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5337,7 +5344,7 @@
       <c r="G91" s="10"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75">
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="28" t="s">
         <v>46</v>
@@ -5353,7 +5360,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" s="13" customFormat="1">
+    <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>6</v>
       </c>
@@ -5371,7 +5378,7 @@
       <c r="G93" s="10"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8" s="13" customFormat="1">
+    <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8" t="s">
@@ -5385,7 +5392,7 @@
       <c r="G94" s="10"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8" s="13" customFormat="1">
+    <row r="95" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
@@ -5399,7 +5406,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8" s="13" customFormat="1">
+    <row r="96" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
@@ -5413,7 +5420,7 @@
       <c r="G96" s="10"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8" s="13" customFormat="1">
+    <row r="97" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
@@ -5427,7 +5434,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="1:8" s="13" customFormat="1">
+    <row r="98" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
@@ -5441,7 +5448,7 @@
       <c r="G98" s="10"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="1:8" s="13" customFormat="1">
+    <row r="99" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
@@ -5457,7 +5464,7 @@
       <c r="G99" s="10"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:8" s="13" customFormat="1">
+    <row r="100" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -5467,7 +5474,7 @@
       <c r="G100" s="10"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>7</v>
       </c>
@@ -5485,7 +5492,7 @@
       <c r="G101" s="10"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="27"/>
       <c r="C102" s="8" t="s">
@@ -5499,7 +5506,7 @@
       <c r="G102" s="10"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="27"/>
       <c r="C103" s="8" t="s">
@@ -5513,7 +5520,7 @@
       <c r="G103" s="10"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="27"/>
       <c r="C104" s="8" t="s">
@@ -5527,7 +5534,7 @@
       <c r="G104" s="10"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -5537,7 +5544,7 @@
       <c r="G105" s="10"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8" ht="14.25" customHeight="1">
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>8</v>
       </c>
@@ -5555,7 +5562,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
@@ -5571,7 +5578,7 @@
       <c r="G107" s="10"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
@@ -5585,7 +5592,7 @@
       <c r="G108" s="10"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8" t="s">
@@ -5599,7 +5606,7 @@
       <c r="G109" s="10"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8" t="s">
@@ -5613,7 +5620,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -5623,7 +5630,7 @@
       <c r="G111" s="10"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>9</v>
       </c>
@@ -5641,7 +5648,7 @@
       <c r="G112" s="10"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="27"/>
       <c r="C113" s="8" t="s">
@@ -5655,7 +5662,7 @@
       <c r="G113" s="10"/>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="27"/>
       <c r="C114" s="8" t="s">
@@ -5669,7 +5676,7 @@
       <c r="G114" s="10"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="27"/>
       <c r="C115" s="8" t="s">
@@ -5685,7 +5692,7 @@
       <c r="G115" s="10"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>10</v>
       </c>
@@ -5703,7 +5710,7 @@
       <c r="G116" s="10"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="27"/>
       <c r="C117" s="8" t="s">
@@ -5719,7 +5726,7 @@
       <c r="G117" s="10"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="27"/>
       <c r="C118" s="8" t="s">
@@ -5733,7 +5740,7 @@
       <c r="G118" s="10"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>11</v>
       </c>
@@ -5751,7 +5758,7 @@
       <c r="G119" s="10"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="27"/>
       <c r="C120" s="8" t="s">
@@ -5765,7 +5772,7 @@
       <c r="G120" s="10"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8" t="s">
@@ -5781,7 +5788,7 @@
       <c r="G121" s="10"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8" t="s">
@@ -5795,7 +5802,7 @@
       <c r="G122" s="10"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5805,7 +5812,7 @@
       <c r="G123" s="10"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8" t="s">
@@ -5821,7 +5828,7 @@
       <c r="G124" s="10"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8" t="s">
@@ -5837,7 +5844,7 @@
       <c r="G125" s="10"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8" t="s">
@@ -5853,7 +5860,7 @@
       <c r="G126" s="10"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8" t="s">
@@ -5869,7 +5876,7 @@
       <c r="G127" s="10"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5879,7 +5886,7 @@
       <c r="G128" s="10"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5889,7 +5896,7 @@
       <c r="G129" s="10"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8" ht="15.75">
+    <row r="130" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="28" t="s">
         <v>53</v>
@@ -5905,7 +5912,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5915,7 +5922,7 @@
       <c r="G131" s="10"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" s="13" customFormat="1">
+    <row r="132" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5925,7 +5932,7 @@
       <c r="G132" s="10"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8" t="s">
@@ -5941,7 +5948,7 @@
       <c r="G133" s="10"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8" t="s">
@@ -5957,7 +5964,7 @@
       <c r="G134" s="10"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8" t="s">
@@ -5973,7 +5980,7 @@
       <c r="G135" s="15"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8" t="s">
@@ -5987,7 +5994,7 @@
       <c r="G136" s="17"/>
       <c r="H136" s="18"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8" t="s">
@@ -6003,7 +6010,7 @@
       <c r="G137" s="10"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8" t="s">
@@ -6019,7 +6026,7 @@
       <c r="G138" s="10"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8" t="s">
@@ -6035,7 +6042,7 @@
       <c r="G139" s="10"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8" t="s">
@@ -6051,7 +6058,7 @@
       <c r="G140" s="10"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8" t="s">
@@ -6067,7 +6074,7 @@
       <c r="G141" s="10"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8" t="s">
@@ -6081,7 +6088,7 @@
       <c r="G142" s="10"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8" t="s">
@@ -6095,7 +6102,7 @@
       <c r="G143" s="10"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8" t="s">
@@ -6109,7 +6116,7 @@
       <c r="G144" s="10"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8" t="s">
@@ -6123,7 +6130,7 @@
       <c r="G145" s="10"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -6133,7 +6140,7 @@
       <c r="G146" s="10"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -6143,7 +6150,7 @@
       <c r="G147" s="10"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -6153,7 +6160,7 @@
       <c r="G148" s="10"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="15.75">
+    <row r="149" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="28" t="s">
         <v>63</v>
@@ -6169,7 +6176,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -6179,7 +6186,7 @@
       <c r="G150" s="10"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>12</v>
       </c>
@@ -6197,7 +6204,7 @@
       <c r="G151" s="10"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8" t="s">
@@ -6213,7 +6220,7 @@
       <c r="G152" s="10"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8" t="s">
@@ -6229,7 +6236,7 @@
       <c r="G153" s="10"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8" t="s">
@@ -6245,7 +6252,7 @@
       <c r="G154" s="10"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8" t="s">
@@ -6261,7 +6268,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8" t="s">
@@ -6277,7 +6284,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8" t="s">
@@ -6293,7 +6300,7 @@
       <c r="G157" s="10"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8" t="s">
@@ -6309,7 +6316,7 @@
       <c r="G158" s="10"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8" t="s">
@@ -6325,7 +6332,7 @@
       <c r="G159" s="10"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8" t="s">
@@ -6341,7 +6348,7 @@
       <c r="G160" s="10"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8" t="s">
@@ -6357,7 +6364,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8" t="s">
@@ -6373,7 +6380,7 @@
       <c r="G162" s="10"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8" t="s">
@@ -6389,7 +6396,7 @@
       <c r="G163" s="10"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8" t="s">
@@ -6405,7 +6412,7 @@
       <c r="G164" s="10"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8" t="s">
@@ -6421,7 +6428,7 @@
       <c r="G165" s="10"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8" t="s">
@@ -6435,7 +6442,7 @@
       <c r="G166" s="10"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8" t="s">
@@ -6449,7 +6456,7 @@
       <c r="G167" s="10"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8" t="s">
@@ -6465,7 +6472,7 @@
       <c r="G168" s="10"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8" t="s">
@@ -6479,7 +6486,7 @@
       <c r="G169" s="10"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>13</v>
       </c>
@@ -6497,7 +6504,7 @@
       <c r="G170" s="10"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8" t="s">
@@ -6513,7 +6520,7 @@
       <c r="G171" s="10"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8" t="s">
@@ -6529,7 +6536,7 @@
       <c r="G172" s="10"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8" t="s">
@@ -6545,7 +6552,7 @@
       <c r="G173" s="10"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8" t="s">
@@ -6561,7 +6568,7 @@
       <c r="G174" s="10"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8" t="s">
@@ -6577,7 +6584,7 @@
       <c r="G175" s="10"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8" t="s">
@@ -6593,7 +6600,7 @@
       <c r="G176" s="10"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8" t="s">
@@ -6609,7 +6616,7 @@
       <c r="G177" s="10"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8" t="s">
@@ -6625,7 +6632,7 @@
       <c r="G178" s="10"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8" t="s">
@@ -6641,7 +6648,7 @@
       <c r="G179" s="10"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8" t="s">
@@ -6657,7 +6664,7 @@
       <c r="G180" s="10"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8" t="s">
@@ -6671,7 +6678,7 @@
       <c r="G181" s="10"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8" t="s">
@@ -6685,7 +6692,7 @@
       <c r="G182" s="10"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8" t="s">
@@ -6699,7 +6706,7 @@
       <c r="G183" s="10"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8" t="s">
@@ -6713,7 +6720,7 @@
       <c r="G184" s="10"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8" t="s">
@@ -6727,7 +6734,7 @@
       <c r="G185" s="10"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>14</v>
       </c>
@@ -6745,7 +6752,7 @@
       <c r="G186" s="10"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8" t="s">
@@ -6761,7 +6768,7 @@
       <c r="G187" s="10"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8" t="s">
@@ -6775,7 +6782,7 @@
       <c r="G188" s="10"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8" t="s">
@@ -6791,7 +6798,7 @@
       <c r="G189" s="10"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8" t="s">
@@ -6805,7 +6812,7 @@
       <c r="G190" s="10"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -6815,7 +6822,7 @@
       <c r="G191" s="10"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" ht="15.75">
+    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="28" t="s">
         <v>90</v>
@@ -6831,7 +6838,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -6841,7 +6848,7 @@
       <c r="G193" s="10"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>15</v>
       </c>
@@ -6859,7 +6866,7 @@
       <c r="G194" s="10"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>16</v>
       </c>
@@ -6877,7 +6884,7 @@
       <c r="G195" s="10"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="8"/>
       <c r="C196" s="27" t="s">
@@ -6893,7 +6900,7 @@
       <c r="G196" s="10"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
@@ -6909,7 +6916,7 @@
       <c r="G197" s="10"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
@@ -6925,7 +6932,7 @@
       <c r="G198" s="10"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8" t="s">
@@ -6941,7 +6948,7 @@
       <c r="G199" s="10"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8" t="s">
@@ -6957,7 +6964,7 @@
       <c r="G200" s="10"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8" t="s">
@@ -6971,7 +6978,7 @@
       <c r="G201" s="10"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8" t="s">
@@ -6985,7 +6992,7 @@
       <c r="G202" s="10"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -6995,7 +7002,7 @@
       <c r="G203" s="10"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="8"/>
       <c r="C204" s="27" t="s">
@@ -7011,7 +7018,7 @@
       <c r="G204" s="10"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8" t="s">
@@ -7027,7 +7034,7 @@
       <c r="G205" s="10"/>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8" t="s">
@@ -7041,7 +7048,7 @@
       <c r="G206" s="10"/>
       <c r="H206" s="8"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8" t="s">
@@ -7055,7 +7062,7 @@
       <c r="G207" s="10"/>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -7065,7 +7072,7 @@
       <c r="G208" s="10"/>
       <c r="H208" s="8"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="8"/>
       <c r="C209" s="27" t="s">
@@ -7081,7 +7088,7 @@
       <c r="G209" s="10"/>
       <c r="H209" s="8"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -7091,7 +7098,7 @@
       <c r="G210" s="10"/>
       <c r="H210" s="8"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
@@ -7105,7 +7112,7 @@
       <c r="G211" s="10"/>
       <c r="H211" s="8"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8" t="s">
@@ -7119,7 +7126,7 @@
       <c r="G212" s="10"/>
       <c r="H212" s="8"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8" t="s">
@@ -7133,7 +7140,7 @@
       <c r="G213" s="10"/>
       <c r="H213" s="8"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8" t="s">
@@ -7149,7 +7156,7 @@
       <c r="G214" s="10"/>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="8"/>
       <c r="C215" s="10" t="s">
@@ -7163,7 +7170,7 @@
       <c r="G215" s="10"/>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>17</v>
       </c>
@@ -7181,7 +7188,7 @@
       <c r="G216" s="10"/>
       <c r="H216" s="8"/>
     </row>
-    <row r="217" spans="1:8" ht="30">
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="8"/>
       <c r="C217" s="27" t="s">
@@ -7197,7 +7204,7 @@
       <c r="G217" s="10"/>
       <c r="H217" s="8"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8" t="s">
@@ -7213,7 +7220,7 @@
       <c r="G218" s="10"/>
       <c r="H218" s="8"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8" t="s">
@@ -7229,7 +7236,7 @@
       <c r="G219" s="10"/>
       <c r="H219" s="8"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8" t="s">
@@ -7245,7 +7252,7 @@
       <c r="G220" s="10"/>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8" t="s">
@@ -7261,7 +7268,7 @@
       <c r="G221" s="10"/>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8" t="s">
@@ -7277,7 +7284,7 @@
       <c r="G222" s="10"/>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8" t="s">
@@ -7293,7 +7300,7 @@
       <c r="G223" s="10"/>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8" t="s">
@@ -7309,7 +7316,7 @@
       <c r="G224" s="10"/>
       <c r="H224" s="8"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8" t="s">
@@ -7323,7 +7330,7 @@
       <c r="G225" s="10"/>
       <c r="H225" s="8"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8" t="s">
@@ -7337,7 +7344,7 @@
       <c r="G226" s="10"/>
       <c r="H226" s="8"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8" t="s">
@@ -7351,7 +7358,7 @@
       <c r="G227" s="10"/>
       <c r="H227" s="8"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -7361,7 +7368,7 @@
       <c r="G228" s="10"/>
       <c r="H228" s="8"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="8"/>
       <c r="C229" s="27" t="s">
@@ -7377,7 +7384,7 @@
       <c r="G229" s="10"/>
       <c r="H229" s="8"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
@@ -7393,7 +7400,7 @@
       <c r="G230" s="10"/>
       <c r="H230" s="8"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8" t="s">
@@ -7407,7 +7414,7 @@
       <c r="G231" s="10"/>
       <c r="H231" s="8"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8" t="s">
@@ -7421,7 +7428,7 @@
       <c r="G232" s="10"/>
       <c r="H232" s="8"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -7431,7 +7438,7 @@
       <c r="G233" s="10"/>
       <c r="H233" s="8"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="8"/>
       <c r="C234" s="27" t="s">
@@ -7447,7 +7454,7 @@
       <c r="G234" s="10"/>
       <c r="H234" s="8"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -7457,7 +7464,7 @@
       <c r="G235" s="10"/>
       <c r="H235" s="8"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8" t="s">
@@ -7471,7 +7478,7 @@
       <c r="G236" s="10"/>
       <c r="H236" s="8"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8" t="s">
@@ -7485,7 +7492,7 @@
       <c r="G237" s="10"/>
       <c r="H237" s="8"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8" t="s">
@@ -7499,7 +7506,7 @@
       <c r="G238" s="10"/>
       <c r="H238" s="8"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8" t="s">
@@ -7513,7 +7520,7 @@
       <c r="G239" s="10"/>
       <c r="H239" s="8"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -7523,7 +7530,7 @@
       <c r="G240" s="10"/>
       <c r="H240" s="8"/>
     </row>
-    <row r="241" spans="1:8" ht="15.75">
+    <row r="241" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>18</v>
       </c>
@@ -7541,7 +7548,7 @@
       <c r="G241" s="10"/>
       <c r="H241" s="8"/>
     </row>
-    <row r="242" spans="1:8" ht="15.75">
+    <row r="242" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="32"/>
       <c r="C242" s="27" t="s">
@@ -7557,7 +7564,7 @@
       <c r="G242" s="10"/>
       <c r="H242" s="8"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8" t="s">
@@ -7573,7 +7580,7 @@
       <c r="G243" s="10"/>
       <c r="H243" s="8"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8" t="s">
@@ -7589,7 +7596,7 @@
       <c r="G244" s="10"/>
       <c r="H244" s="8"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8" t="s">
@@ -7605,7 +7612,7 @@
       <c r="G245" s="10"/>
       <c r="H245" s="8"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8" t="s">
@@ -7621,7 +7628,7 @@
       <c r="G246" s="10"/>
       <c r="H246" s="8"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8" t="s">
@@ -7637,7 +7644,7 @@
       <c r="G247" s="10"/>
       <c r="H247" s="8"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8" t="s">
@@ -7653,7 +7660,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="8"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8" t="s">
@@ -7669,7 +7676,7 @@
       <c r="G249" s="10"/>
       <c r="H249" s="8"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8" t="s">
@@ -7685,7 +7692,7 @@
       <c r="G250" s="10"/>
       <c r="H250" s="8"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="8"/>
       <c r="C251" s="10" t="s">
@@ -7699,7 +7706,7 @@
       <c r="G251" s="10"/>
       <c r="H251" s="8"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="8"/>
       <c r="C252" s="10"/>
@@ -7709,7 +7716,7 @@
       <c r="G252" s="10"/>
       <c r="H252" s="8"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="8"/>
       <c r="C253" s="27" t="s">
@@ -7725,7 +7732,7 @@
       <c r="G253" s="10"/>
       <c r="H253" s="8"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8" t="s">
@@ -7741,7 +7748,7 @@
       <c r="G254" s="10"/>
       <c r="H254" s="8"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -7751,7 +7758,7 @@
       <c r="G255" s="10"/>
       <c r="H255" s="8"/>
     </row>
-    <row r="256" spans="1:8" ht="15.75">
+    <row r="256" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="9">
         <v>19</v>
       </c>
@@ -7769,7 +7776,7 @@
       <c r="G256" s="10"/>
       <c r="H256" s="8"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="8"/>
       <c r="C257" s="27" t="s">
@@ -7785,7 +7792,7 @@
       <c r="G257" s="10"/>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8" t="s">
@@ -7801,7 +7808,7 @@
       <c r="G258" s="10"/>
       <c r="H258" s="8"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8" t="s">
@@ -7817,7 +7824,7 @@
       <c r="G259" s="10"/>
       <c r="H259" s="8"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8" t="s">
@@ -7831,7 +7838,7 @@
       <c r="G260" s="10"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8" t="s">
@@ -7845,7 +7852,7 @@
       <c r="G261" s="10"/>
       <c r="H261" s="8"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8" t="s">
@@ -7859,7 +7866,7 @@
       <c r="G262" s="10"/>
       <c r="H262" s="8"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8" t="s">
@@ -7873,7 +7880,7 @@
       <c r="G263" s="10"/>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -7883,7 +7890,7 @@
       <c r="G264" s="10"/>
       <c r="H264" s="8"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8" t="s">
@@ -7897,7 +7904,7 @@
       <c r="G265" s="10"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8" t="s">
@@ -7911,7 +7918,7 @@
       <c r="G266" s="10"/>
       <c r="H266" s="8"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8" t="s">
@@ -7925,7 +7932,7 @@
       <c r="G267" s="10"/>
       <c r="H267" s="8"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="8"/>
       <c r="C268" s="10"/>
@@ -7935,7 +7942,7 @@
       <c r="G268" s="10"/>
       <c r="H268" s="8"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -7945,7 +7952,7 @@
       <c r="G269" s="10"/>
       <c r="H269" s="8"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -7955,7 +7962,7 @@
       <c r="G270" s="10"/>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -7965,7 +7972,7 @@
       <c r="G271" s="10"/>
       <c r="H271" s="8"/>
     </row>
-    <row r="272" spans="1:8" ht="15.75">
+    <row r="272" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="33" t="s">
         <v>102</v>
@@ -7981,7 +7988,7 @@
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9">
         <v>20</v>
       </c>
@@ -7999,7 +8006,7 @@
       <c r="G273" s="10"/>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8" t="s">
@@ -8015,7 +8022,7 @@
       <c r="G274" s="10"/>
       <c r="H274" s="8"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8" t="s">
@@ -8031,7 +8038,7 @@
       <c r="G275" s="10"/>
       <c r="H275" s="8"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8" t="s">
@@ -8047,7 +8054,7 @@
       <c r="G276" s="10"/>
       <c r="H276" s="8"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9">
         <v>21</v>
       </c>
@@ -8065,7 +8072,7 @@
       <c r="G277" s="10"/>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8" t="s">
@@ -8081,7 +8088,7 @@
       <c r="G278" s="10"/>
       <c r="H278" s="8"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8" t="s">
@@ -8097,7 +8104,7 @@
       <c r="G279" s="10"/>
       <c r="H279" s="8"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8" t="s">
@@ -8113,7 +8120,7 @@
       <c r="G280" s="10"/>
       <c r="H280" s="8"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8" t="s">
@@ -8129,7 +8136,7 @@
       <c r="G281" s="10"/>
       <c r="H281" s="8"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8" t="s">
@@ -8145,7 +8152,7 @@
       <c r="G282" s="10"/>
       <c r="H282" s="8"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8" t="s">
@@ -8161,7 +8168,7 @@
       <c r="G283" s="10"/>
       <c r="H283" s="8"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8" t="s">
@@ -8177,7 +8184,7 @@
       <c r="G284" s="10"/>
       <c r="H284" s="8"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8" t="s">
@@ -8191,7 +8198,7 @@
       <c r="G285" s="10"/>
       <c r="H285" s="8"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8" t="s">
@@ -8205,7 +8212,7 @@
       <c r="G286" s="10"/>
       <c r="H286" s="8"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8" t="s">
@@ -8219,7 +8226,7 @@
       <c r="G287" s="10"/>
       <c r="H287" s="8"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8" t="s">
@@ -8233,7 +8240,7 @@
       <c r="G288" s="10"/>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -8243,7 +8250,7 @@
       <c r="G289" s="10"/>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9">
         <v>22</v>
       </c>
@@ -8261,7 +8268,7 @@
       <c r="G290" s="10"/>
       <c r="H290" s="8"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8" t="s">
@@ -8277,7 +8284,7 @@
       <c r="G291" s="10"/>
       <c r="H291" s="8"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8" t="s">
@@ -8293,7 +8300,7 @@
       <c r="G292" s="10"/>
       <c r="H292" s="8"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8" t="s">
@@ -8309,7 +8316,7 @@
       <c r="G293" s="10"/>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8" t="s">
@@ -8325,7 +8332,7 @@
       <c r="G294" s="10"/>
       <c r="H294" s="8"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8" t="s">
@@ -8341,7 +8348,7 @@
       <c r="G295" s="10"/>
       <c r="H295" s="8"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8" t="s">
@@ -8357,7 +8364,7 @@
       <c r="G296" s="10"/>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8" t="s">
@@ -8373,7 +8380,7 @@
       <c r="G297" s="10"/>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8" t="s">
@@ -8389,7 +8396,7 @@
       <c r="G298" s="10"/>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8" t="s">
@@ -8403,7 +8410,7 @@
       <c r="G299" s="10"/>
       <c r="H299" s="8"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8" t="s">
@@ -8417,7 +8424,7 @@
       <c r="G300" s="10"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8" t="s">
@@ -8431,7 +8438,7 @@
       <c r="G301" s="10"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8" t="s">
@@ -8445,7 +8452,7 @@
       <c r="G302" s="10"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8" t="s">
@@ -8459,7 +8466,7 @@
       <c r="G303" s="10"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8" t="s">
@@ -8473,7 +8480,7 @@
       <c r="G304" s="10"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8" t="s">
@@ -8487,7 +8494,7 @@
       <c r="G305" s="10"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8" t="s">
@@ -8501,7 +8508,7 @@
       <c r="G306" s="10"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8" t="s">
@@ -8515,7 +8522,7 @@
       <c r="G307" s="10"/>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -8525,7 +8532,7 @@
       <c r="G308" s="10"/>
       <c r="H308" s="8"/>
     </row>
-    <row r="309" spans="1:8" ht="31.5">
+    <row r="309" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
       <c r="B309" s="33" t="s">
         <v>119</v>
@@ -8541,7 +8548,7 @@
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8" t="s">
@@ -8557,7 +8564,7 @@
       <c r="G310" s="10"/>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8" t="s">
@@ -8573,7 +8580,7 @@
       <c r="G311" s="10"/>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="9"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8" t="s">
@@ -8589,7 +8596,7 @@
       <c r="G312" s="10"/>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8" t="s">
@@ -8605,7 +8612,7 @@
       <c r="G313" s="10"/>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="9"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8" t="s">
@@ -8621,7 +8628,7 @@
       <c r="G314" s="10"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8" t="s">
@@ -8637,7 +8644,7 @@
       <c r="G315" s="10"/>
       <c r="H315" s="8"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="9"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8" t="s">
@@ -8653,7 +8660,7 @@
       <c r="G316" s="10"/>
       <c r="H316" s="8"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="9"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8" t="s">
@@ -8667,7 +8674,7 @@
       <c r="G317" s="10"/>
       <c r="H317" s="8"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="9"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8" t="s">
@@ -8681,7 +8688,7 @@
       <c r="G318" s="10"/>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="1:8" s="13" customFormat="1">
+    <row r="319" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -8691,7 +8698,7 @@
       <c r="G319" s="10"/>
       <c r="H319" s="8"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="9">
         <v>23</v>
       </c>
@@ -8708,7 +8715,7 @@
       <c r="G320" s="10"/>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="9"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8" t="s">
@@ -8724,7 +8731,7 @@
       <c r="G321" s="10"/>
       <c r="H321" s="8"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="9"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8" t="s">
@@ -8740,7 +8747,7 @@
       <c r="G322" s="10"/>
       <c r="H322" s="8"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="9"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -8750,7 +8757,7 @@
       <c r="G323" s="10"/>
       <c r="H323" s="8"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="9">
         <v>24</v>
       </c>
@@ -8767,7 +8774,7 @@
       <c r="G324" s="10"/>
       <c r="H324" s="8"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="9"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -8777,7 +8784,7 @@
       <c r="G325" s="10"/>
       <c r="H325" s="8"/>
     </row>
-    <row r="326" spans="1:8" ht="15.75">
+    <row r="326" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="33" t="s">
         <v>127</v>
@@ -8789,7 +8796,7 @@
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
     </row>
-    <row r="327" spans="1:8" ht="30">
+    <row r="327" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="9">
         <v>25</v>
       </c>
@@ -8807,7 +8814,7 @@
       <c r="G327" s="10"/>
       <c r="H327" s="8"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="9"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8" t="s">
@@ -8823,7 +8830,7 @@
       <c r="G328" s="10"/>
       <c r="H328" s="8"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="9"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8" t="s">
@@ -8839,7 +8846,7 @@
       <c r="G329" s="10"/>
       <c r="H329" s="8"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8" t="s">
@@ -8855,7 +8862,7 @@
       <c r="G330" s="10"/>
       <c r="H330" s="8"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="9"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8" t="s">
@@ -8871,7 +8878,7 @@
       <c r="G331" s="10"/>
       <c r="H331" s="8"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8" t="s">
@@ -8885,7 +8892,7 @@
       <c r="G332" s="10"/>
       <c r="H332" s="8"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="9"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8" t="s">
@@ -8899,7 +8906,7 @@
       <c r="G333" s="10"/>
       <c r="H333" s="8"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8" t="s">
@@ -8913,7 +8920,7 @@
       <c r="G334" s="10"/>
       <c r="H334" s="8"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="9"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8" t="s">
@@ -8927,7 +8934,7 @@
       <c r="G335" s="10"/>
       <c r="H335" s="8"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="9"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8" t="s">
@@ -8941,7 +8948,7 @@
       <c r="G336" s="10"/>
       <c r="H336" s="8"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="9"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8" t="s">
@@ -8955,7 +8962,7 @@
       <c r="G337" s="10"/>
       <c r="H337" s="8"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="9"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8" t="s">
@@ -8969,7 +8976,7 @@
       <c r="G338" s="10"/>
       <c r="H338" s="8"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="9"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -8979,7 +8986,7 @@
       <c r="G339" s="10"/>
       <c r="H339" s="8"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="9">
         <v>26</v>
       </c>
@@ -8997,7 +9004,7 @@
       <c r="G340" s="10"/>
       <c r="H340" s="8"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="9"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8" t="s">
@@ -9013,7 +9020,7 @@
       <c r="G341" s="10"/>
       <c r="H341" s="8"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="9"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8" t="s">
@@ -9029,7 +9036,7 @@
       <c r="G342" s="10"/>
       <c r="H342" s="8"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="9"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8" t="s">
@@ -9045,7 +9052,7 @@
       <c r="G343" s="10"/>
       <c r="H343" s="8"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="9"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8" t="s">
@@ -9061,7 +9068,7 @@
       <c r="G344" s="10"/>
       <c r="H344" s="8"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -9071,7 +9078,7 @@
       <c r="G345" s="10"/>
       <c r="H345" s="8"/>
     </row>
-    <row r="346" spans="1:8" ht="30">
+    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="9">
         <v>27</v>
       </c>
@@ -9089,7 +9096,7 @@
       <c r="G346" s="10"/>
       <c r="H346" s="8"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="9"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8" t="s">
@@ -9105,7 +9112,7 @@
       <c r="G347" s="10"/>
       <c r="H347" s="8"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="9"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8" t="s">
@@ -9121,7 +9128,7 @@
       <c r="G348" s="10"/>
       <c r="H348" s="8"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8" t="s">
@@ -9137,7 +9144,7 @@
       <c r="G349" s="10"/>
       <c r="H349" s="8"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="9"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8" t="s">
@@ -9153,7 +9160,7 @@
       <c r="G350" s="10"/>
       <c r="H350" s="8"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="9"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8" t="s">
@@ -9167,7 +9174,7 @@
       <c r="G351" s="10"/>
       <c r="H351" s="8"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="9"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8" t="s">
@@ -9181,7 +9188,7 @@
       <c r="G352" s="10"/>
       <c r="H352" s="8"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="9"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8" t="s">
@@ -9195,7 +9202,7 @@
       <c r="G353" s="10"/>
       <c r="H353" s="8"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="9"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8" t="s">
@@ -9209,7 +9216,7 @@
       <c r="G354" s="10"/>
       <c r="H354" s="8"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="9"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8" t="s">
@@ -9223,7 +9230,7 @@
       <c r="G355" s="10"/>
       <c r="H355" s="8"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="9"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8" t="s">
@@ -9237,7 +9244,7 @@
       <c r="G356" s="10"/>
       <c r="H356" s="8"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="9"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8" t="s">
@@ -9251,7 +9258,7 @@
       <c r="G357" s="10"/>
       <c r="H357" s="8"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="9"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -9261,7 +9268,7 @@
       <c r="G358" s="10"/>
       <c r="H358" s="8"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="9"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -9271,7 +9278,7 @@
       <c r="G359" s="10"/>
       <c r="H359" s="8"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="9">
         <v>28</v>
       </c>
@@ -9287,7 +9294,7 @@
       <c r="G360" s="10"/>
       <c r="H360" s="8"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="9"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8" t="s">
@@ -9303,7 +9310,7 @@
       <c r="G361" s="10"/>
       <c r="H361" s="8"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="9"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8" t="s">
@@ -9319,7 +9326,7 @@
       <c r="G362" s="10"/>
       <c r="H362" s="8"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="9"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8" t="s">
@@ -9335,7 +9342,7 @@
       <c r="G363" s="10"/>
       <c r="H363" s="8"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="9"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8" t="s">
@@ -9351,7 +9358,7 @@
       <c r="G364" s="10"/>
       <c r="H364" s="8"/>
     </row>
-    <row r="365" spans="1:8" ht="30">
+    <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
       <c r="B365" s="36" t="s">
         <v>135</v>
@@ -9367,7 +9374,7 @@
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="9">
         <v>29</v>
       </c>
@@ -9385,7 +9392,7 @@
       <c r="G366" s="10"/>
       <c r="H366" s="8"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="35">
         <v>30</v>
       </c>
@@ -9403,7 +9410,7 @@
       <c r="G367" s="10"/>
       <c r="H367" s="8"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="9"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8" t="s">
@@ -9419,7 +9426,7 @@
       <c r="G368" s="10"/>
       <c r="H368" s="8"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8" t="s">
@@ -9435,7 +9442,7 @@
       <c r="G369" s="10"/>
       <c r="H369" s="8"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="9"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8" t="s">
@@ -9451,7 +9458,7 @@
       <c r="G370" s="10"/>
       <c r="H370" s="8"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="9"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8" t="s">
@@ -9467,7 +9474,7 @@
       <c r="G371" s="10"/>
       <c r="H371" s="8"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="9"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8" t="s">
@@ -9483,7 +9490,7 @@
       <c r="G372" s="10"/>
       <c r="H372" s="8"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="9"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8" t="s">
@@ -9499,7 +9506,7 @@
       <c r="G373" s="10"/>
       <c r="H373" s="8"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8" t="s">
@@ -9515,7 +9522,7 @@
       <c r="G374" s="10"/>
       <c r="H374" s="8"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="9"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8" t="s">
@@ -9531,7 +9538,7 @@
       <c r="G375" s="10"/>
       <c r="H375" s="8"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8" t="s">
@@ -9547,7 +9554,7 @@
       <c r="G376" s="10"/>
       <c r="H376" s="8"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="9"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8" t="s">
@@ -9563,7 +9570,7 @@
       <c r="G377" s="10"/>
       <c r="H377" s="8"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="9"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8" t="s">
@@ -9579,7 +9586,7 @@
       <c r="G378" s="10"/>
       <c r="H378" s="8"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="9"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8" t="s">
@@ -9595,7 +9602,7 @@
       <c r="G379" s="10"/>
       <c r="H379" s="8"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="9"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8" t="s">
@@ -9611,7 +9618,7 @@
       <c r="G380" s="10"/>
       <c r="H380" s="8"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="9"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8" t="s">
@@ -9627,7 +9634,7 @@
       <c r="G381" s="10"/>
       <c r="H381" s="8"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="9"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8" t="s">
@@ -9643,7 +9650,7 @@
       <c r="G382" s="10"/>
       <c r="H382" s="8"/>
     </row>
-    <row r="383" spans="1:8" s="13" customFormat="1">
+    <row r="383" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8" t="s">
@@ -9657,7 +9664,7 @@
       <c r="G383" s="10"/>
       <c r="H383" s="8"/>
     </row>
-    <row r="384" spans="1:8" s="13" customFormat="1">
+    <row r="384" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8" t="s">
@@ -9671,7 +9678,7 @@
       <c r="G384" s="10"/>
       <c r="H384" s="8"/>
     </row>
-    <row r="385" spans="1:8" s="13" customFormat="1">
+    <row r="385" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8" t="s">
@@ -9685,7 +9692,7 @@
       <c r="G385" s="10"/>
       <c r="H385" s="8"/>
     </row>
-    <row r="386" spans="1:8" s="13" customFormat="1">
+    <row r="386" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -9695,7 +9702,7 @@
       <c r="G386" s="10"/>
       <c r="H386" s="8"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="35">
         <v>31</v>
       </c>
@@ -9713,7 +9720,7 @@
       <c r="G387" s="10"/>
       <c r="H387" s="8"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="35"/>
       <c r="B388" s="27"/>
       <c r="C388" s="8" t="s">
@@ -9729,7 +9736,7 @@
       <c r="G388" s="10"/>
       <c r="H388" s="8"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8" t="s">
@@ -9745,7 +9752,7 @@
       <c r="G389" s="10"/>
       <c r="H389" s="8"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="9"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8" t="s">
@@ -9761,7 +9768,7 @@
       <c r="G390" s="10"/>
       <c r="H390" s="8"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="9"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8" t="s">
@@ -9777,7 +9784,7 @@
       <c r="G391" s="10"/>
       <c r="H391" s="8"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8" t="s">
@@ -9793,7 +9800,7 @@
       <c r="G392" s="10"/>
       <c r="H392" s="8"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="9"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8" t="s">
@@ -9809,7 +9816,7 @@
       <c r="G393" s="10"/>
       <c r="H393" s="8"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="9"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8" t="s">
@@ -9825,7 +9832,7 @@
       <c r="G394" s="10"/>
       <c r="H394" s="8"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="9"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8" t="s">
@@ -9841,7 +9848,7 @@
       <c r="G395" s="10"/>
       <c r="H395" s="8"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="9"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8" t="s">
@@ -9855,7 +9862,7 @@
       <c r="G396" s="10"/>
       <c r="H396" s="8"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="9"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8" t="s">
@@ -9869,7 +9876,7 @@
       <c r="G397" s="10"/>
       <c r="H397" s="8"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8" t="s">
@@ -9883,7 +9890,7 @@
       <c r="G398" s="10"/>
       <c r="H398" s="8"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="9"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8" t="s">
@@ -9897,7 +9904,7 @@
       <c r="G399" s="10"/>
       <c r="H399" s="8"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="9"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8" t="s">
@@ -9911,7 +9918,7 @@
       <c r="G400" s="10"/>
       <c r="H400" s="8"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8" t="s">
@@ -9925,7 +9932,7 @@
       <c r="G401" s="10"/>
       <c r="H401" s="8"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="9"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -9935,7 +9942,7 @@
       <c r="G402" s="10"/>
       <c r="H402" s="8"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="35">
         <v>32</v>
       </c>
@@ -9953,7 +9960,7 @@
       <c r="G403" s="10"/>
       <c r="H403" s="8"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="9"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8" t="s">
@@ -9969,7 +9976,7 @@
       <c r="G404" s="10"/>
       <c r="H404" s="8"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="9"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8" t="s">
@@ -9985,7 +9992,7 @@
       <c r="G405" s="10"/>
       <c r="H405" s="8"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="9"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8" t="s">
@@ -10001,7 +10008,7 @@
       <c r="G406" s="10"/>
       <c r="H406" s="8"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="9"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8" t="s">
@@ -10015,7 +10022,7 @@
       <c r="G407" s="10"/>
       <c r="H407" s="8"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="9"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8" t="s">
@@ -10029,7 +10036,7 @@
       <c r="G408" s="10"/>
       <c r="H408" s="8"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="9"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8" t="s">
@@ -10043,7 +10050,7 @@
       <c r="G409" s="10"/>
       <c r="H409" s="8"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="9"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -10053,7 +10060,7 @@
       <c r="G410" s="10"/>
       <c r="H410" s="8"/>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="9"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -10063,7 +10070,7 @@
       <c r="G411" s="10"/>
       <c r="H411" s="8"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="9"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -10073,7 +10080,7 @@
       <c r="G412" s="10"/>
       <c r="H412" s="8"/>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="9"/>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -10083,7 +10090,7 @@
       <c r="G413" s="10"/>
       <c r="H413" s="8"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="35">
         <v>33</v>
       </c>
@@ -10101,7 +10108,7 @@
       <c r="G414" s="10"/>
       <c r="H414" s="8"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="35">
         <v>34</v>
       </c>
@@ -10119,7 +10126,7 @@
       <c r="G415" s="10"/>
       <c r="H415" s="8"/>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="35">
         <v>35</v>
       </c>
@@ -10137,7 +10144,7 @@
       <c r="G416" s="10"/>
       <c r="H416" s="8"/>
     </row>
-    <row r="417" spans="1:8" s="13" customFormat="1">
+    <row r="417" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -10147,7 +10154,7 @@
       <c r="G417" s="10"/>
       <c r="H417" s="8"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="35">
         <v>36</v>
       </c>
@@ -10165,7 +10172,7 @@
       <c r="G418" s="10"/>
       <c r="H418" s="8"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -10175,7 +10182,7 @@
       <c r="G419" s="10"/>
       <c r="H419" s="8"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="9"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8" t="s">
@@ -10191,7 +10198,7 @@
       <c r="G420" s="10"/>
       <c r="H420" s="8"/>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="9"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8" t="s">
@@ -10207,7 +10214,7 @@
       <c r="G421" s="10"/>
       <c r="H421" s="8"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="9"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8" t="s">
@@ -10223,7 +10230,7 @@
       <c r="G422" s="10"/>
       <c r="H422" s="8"/>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="9"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8" t="s">
@@ -10239,7 +10246,7 @@
       <c r="G423" s="10"/>
       <c r="H423" s="8"/>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="9"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8" t="s">
@@ -10255,7 +10262,7 @@
       <c r="G424" s="10"/>
       <c r="H424" s="8"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="9"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8" t="s">
@@ -10271,7 +10278,7 @@
       <c r="G425" s="10"/>
       <c r="H425" s="8"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="35">
         <v>37</v>
       </c>
@@ -10289,7 +10296,7 @@
       <c r="G426" s="10"/>
       <c r="H426" s="8"/>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="9"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8" t="s">
@@ -10305,7 +10312,7 @@
       <c r="G427" s="10"/>
       <c r="H427" s="8"/>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="9"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8" t="s">
@@ -10321,7 +10328,7 @@
       <c r="G428" s="10"/>
       <c r="H428" s="8"/>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="9"/>
       <c r="B429" s="8"/>
       <c r="C429" s="8" t="s">
@@ -10337,7 +10344,7 @@
       <c r="G429" s="10"/>
       <c r="H429" s="8"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8" t="s">
@@ -10353,7 +10360,7 @@
       <c r="G430" s="10"/>
       <c r="H430" s="8"/>
     </row>
-    <row r="431" spans="1:8" ht="15.75">
+    <row r="431" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="7"/>
       <c r="B431" s="33" t="s">
         <v>179</v>
@@ -10369,7 +10376,7 @@
       <c r="G431" s="6"/>
       <c r="H431" s="6"/>
     </row>
-    <row r="432" spans="1:8" s="13" customFormat="1">
+    <row r="432" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="35">
         <v>38</v>
       </c>
@@ -10387,7 +10394,7 @@
       <c r="G432" s="10"/>
       <c r="H432" s="8"/>
     </row>
-    <row r="433" spans="1:8" s="13" customFormat="1">
+    <row r="433" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8" t="s">
@@ -10401,7 +10408,7 @@
       <c r="G433" s="10"/>
       <c r="H433" s="8"/>
     </row>
-    <row r="434" spans="1:8" s="13" customFormat="1">
+    <row r="434" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8" t="s">
@@ -10415,7 +10422,7 @@
       <c r="G434" s="10"/>
       <c r="H434" s="8"/>
     </row>
-    <row r="435" spans="1:8" s="13" customFormat="1">
+    <row r="435" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8" t="s">
@@ -10429,7 +10436,7 @@
       <c r="G435" s="10"/>
       <c r="H435" s="8"/>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8" t="s">
@@ -10443,7 +10450,7 @@
       <c r="G436" s="10"/>
       <c r="H436" s="8"/>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8" t="s">
@@ -10457,7 +10464,7 @@
       <c r="G437" s="10"/>
       <c r="H437" s="8"/>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8" t="s">
@@ -10471,7 +10478,7 @@
       <c r="G438" s="10"/>
       <c r="H438" s="8"/>
     </row>
-    <row r="439" spans="1:8" s="13" customFormat="1">
+    <row r="439" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="9"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8" t="s">
@@ -10485,7 +10492,7 @@
       <c r="G439" s="10"/>
       <c r="H439" s="8"/>
     </row>
-    <row r="440" spans="1:8" s="13" customFormat="1">
+    <row r="440" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="35">
         <v>39</v>
       </c>
@@ -10503,7 +10510,7 @@
       <c r="G440" s="10"/>
       <c r="H440" s="8"/>
     </row>
-    <row r="441" spans="1:8" s="13" customFormat="1">
+    <row r="441" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="35">
         <v>40</v>
       </c>
@@ -10521,7 +10528,7 @@
       <c r="G441" s="10"/>
       <c r="H441" s="8"/>
     </row>
-    <row r="442" spans="1:8" s="13" customFormat="1">
+    <row r="442" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="8"/>
       <c r="C442" s="27" t="s">
@@ -10537,7 +10544,7 @@
       <c r="G442" s="10"/>
       <c r="H442" s="8"/>
     </row>
-    <row r="443" spans="1:8" s="13" customFormat="1">
+    <row r="443" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8" t="s">
@@ -10551,7 +10558,7 @@
       <c r="G443" s="10"/>
       <c r="H443" s="8"/>
     </row>
-    <row r="444" spans="1:8" s="13" customFormat="1">
+    <row r="444" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="9"/>
       <c r="B444" s="8"/>
       <c r="C444" s="8" t="s">
@@ -10565,7 +10572,7 @@
       <c r="G444" s="10"/>
       <c r="H444" s="8"/>
     </row>
-    <row r="445" spans="1:8" s="13" customFormat="1">
+    <row r="445" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8" t="s">
@@ -10579,7 +10586,7 @@
       <c r="G445" s="10"/>
       <c r="H445" s="8"/>
     </row>
-    <row r="446" spans="1:8" s="13" customFormat="1">
+    <row r="446" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="9"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8" t="s">
@@ -10593,7 +10600,7 @@
       <c r="G446" s="10"/>
       <c r="H446" s="8"/>
     </row>
-    <row r="447" spans="1:8" s="13" customFormat="1">
+    <row r="447" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8" t="s">
@@ -10607,7 +10614,7 @@
       <c r="G447" s="10"/>
       <c r="H447" s="8"/>
     </row>
-    <row r="448" spans="1:8" s="13" customFormat="1">
+    <row r="448" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8" t="s">
@@ -10621,7 +10628,7 @@
       <c r="G448" s="10"/>
       <c r="H448" s="8"/>
     </row>
-    <row r="449" spans="1:8" s="13" customFormat="1">
+    <row r="449" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -10631,7 +10638,7 @@
       <c r="G449" s="10"/>
       <c r="H449" s="8"/>
     </row>
-    <row r="450" spans="1:8" s="13" customFormat="1">
+    <row r="450" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="9"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8" t="s">
@@ -10645,7 +10652,7 @@
       <c r="G450" s="10"/>
       <c r="H450" s="8"/>
     </row>
-    <row r="451" spans="1:8" s="13" customFormat="1">
+    <row r="451" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="9"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8" t="s">
@@ -10659,7 +10666,7 @@
       <c r="G451" s="10"/>
       <c r="H451" s="8"/>
     </row>
-    <row r="452" spans="1:8" s="13" customFormat="1">
+    <row r="452" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8" t="s">
@@ -10673,7 +10680,7 @@
       <c r="G452" s="10"/>
       <c r="H452" s="8"/>
     </row>
-    <row r="453" spans="1:8" s="13" customFormat="1">
+    <row r="453" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -10683,7 +10690,7 @@
       <c r="G453" s="10"/>
       <c r="H453" s="8"/>
     </row>
-    <row r="454" spans="1:8" s="13" customFormat="1">
+    <row r="454" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="8"/>
       <c r="C454" s="27" t="s">
@@ -10699,7 +10706,7 @@
       <c r="G454" s="10"/>
       <c r="H454" s="8"/>
     </row>
-    <row r="455" spans="1:8" s="13" customFormat="1">
+    <row r="455" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -10709,7 +10716,7 @@
       <c r="G455" s="10"/>
       <c r="H455" s="8"/>
     </row>
-    <row r="456" spans="1:8" s="13" customFormat="1">
+    <row r="456" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="9"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8" t="s">
@@ -10725,7 +10732,7 @@
       <c r="G456" s="10"/>
       <c r="H456" s="8"/>
     </row>
-    <row r="457" spans="1:8" s="13" customFormat="1">
+    <row r="457" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="9"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8" t="s">
@@ -10741,7 +10748,7 @@
       <c r="G457" s="10"/>
       <c r="H457" s="8"/>
     </row>
-    <row r="458" spans="1:8" s="13" customFormat="1">
+    <row r="458" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9"/>
       <c r="B458" s="8"/>
       <c r="C458" s="8" t="s">
@@ -10757,7 +10764,7 @@
       <c r="G458" s="10"/>
       <c r="H458" s="8"/>
     </row>
-    <row r="459" spans="1:8" s="13" customFormat="1">
+    <row r="459" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -10767,7 +10774,7 @@
       <c r="G459" s="10"/>
       <c r="H459" s="9"/>
     </row>
-    <row r="460" spans="1:8" s="13" customFormat="1">
+    <row r="460" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="35">
         <v>41</v>
       </c>
@@ -10785,7 +10792,7 @@
       <c r="G460" s="12"/>
       <c r="H460" s="9"/>
     </row>
-    <row r="461" spans="1:8" s="13" customFormat="1">
+    <row r="461" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="9"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8" t="s">
@@ -10799,7 +10806,7 @@
       <c r="G461" s="12"/>
       <c r="H461" s="9"/>
     </row>
-    <row r="462" spans="1:8" s="13" customFormat="1">
+    <row r="462" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="8"/>
       <c r="C462" s="8" t="s">
@@ -10813,7 +10820,7 @@
       <c r="G462" s="12"/>
       <c r="H462" s="9"/>
     </row>
-    <row r="463" spans="1:8" s="13" customFormat="1">
+    <row r="463" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -10823,7 +10830,7 @@
       <c r="G463" s="10"/>
       <c r="H463" s="8"/>
     </row>
-    <row r="464" spans="1:8" s="13" customFormat="1">
+    <row r="464" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="9"/>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -10833,7 +10840,7 @@
       <c r="G464" s="12"/>
       <c r="H464" s="8"/>
     </row>
-    <row r="465" spans="1:8" s="13" customFormat="1">
+    <row r="465" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="9"/>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -10843,7 +10850,7 @@
       <c r="G465" s="10"/>
       <c r="H465" s="8"/>
     </row>
-    <row r="466" spans="1:8" s="13" customFormat="1">
+    <row r="466" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -10853,7 +10860,7 @@
       <c r="G466" s="10"/>
       <c r="H466" s="8"/>
     </row>
-    <row r="467" spans="1:8" ht="30">
+    <row r="467" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="9"/>
       <c r="B467" s="36" t="s">
         <v>192</v>
@@ -10865,7 +10872,7 @@
       <c r="G467" s="6"/>
       <c r="H467" s="8"/>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="35">
         <v>42</v>
       </c>
@@ -10883,7 +10890,7 @@
       <c r="G468" s="10"/>
       <c r="H468" s="8"/>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="35">
         <v>43</v>
       </c>
@@ -10901,7 +10908,7 @@
       <c r="G469" s="10"/>
       <c r="H469" s="8"/>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="9"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8" t="s">
@@ -10915,7 +10922,7 @@
       <c r="G470" s="10"/>
       <c r="H470" s="8"/>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="35">
         <v>44</v>
       </c>
@@ -10933,7 +10940,7 @@
       <c r="G471" s="10"/>
       <c r="H471" s="8"/>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="35">
         <v>45</v>
       </c>
@@ -10951,7 +10958,7 @@
       <c r="G472" s="10"/>
       <c r="H472" s="8"/>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="35">
         <v>46</v>
       </c>
@@ -10969,7 +10976,7 @@
       <c r="G473" s="10"/>
       <c r="H473" s="8"/>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="35">
         <v>47</v>
       </c>
@@ -10987,7 +10994,7 @@
       <c r="G474" s="10"/>
       <c r="H474" s="8"/>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="35">
         <v>48</v>
       </c>
@@ -11005,7 +11012,7 @@
       <c r="G475" s="10"/>
       <c r="H475" s="8"/>
     </row>
-    <row r="476" spans="1:8" ht="14.25" customHeight="1">
+    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="35">
         <v>49</v>
       </c>
@@ -11023,7 +11030,7 @@
       <c r="G476" s="10"/>
       <c r="H476" s="8"/>
     </row>
-    <row r="477" spans="1:8" ht="13.5" customHeight="1">
+    <row r="477" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="35">
         <v>50</v>
       </c>
@@ -11041,7 +11048,7 @@
       <c r="G477" s="10"/>
       <c r="H477" s="8"/>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="35">
         <v>51</v>
       </c>
@@ -11059,7 +11066,7 @@
       <c r="G478" s="10"/>
       <c r="H478" s="8"/>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="35">
         <v>52</v>
       </c>
@@ -11077,7 +11084,7 @@
       <c r="G479" s="10"/>
       <c r="H479" s="8"/>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="35">
         <v>53</v>
       </c>
@@ -11095,7 +11102,7 @@
       <c r="G480" s="10"/>
       <c r="H480" s="8"/>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="35">
         <v>54</v>
       </c>
@@ -11113,7 +11120,7 @@
       <c r="G481" s="10"/>
       <c r="H481" s="8"/>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="35"/>
       <c r="B482" s="27"/>
       <c r="C482" s="8" t="s">
@@ -11129,7 +11136,7 @@
       <c r="G482" s="10"/>
       <c r="H482" s="8"/>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="9"/>
       <c r="B483" s="27"/>
       <c r="C483" s="8" t="s">
@@ -11145,7 +11152,7 @@
       <c r="G483" s="10"/>
       <c r="H483" s="8"/>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="9"/>
       <c r="B484" s="27"/>
       <c r="C484" s="8" t="s">
@@ -11161,7 +11168,7 @@
       <c r="G484" s="10"/>
       <c r="H484" s="8"/>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="9"/>
       <c r="B485" s="27"/>
       <c r="C485" s="8" t="s">
@@ -11177,7 +11184,7 @@
       <c r="G485" s="10"/>
       <c r="H485" s="8"/>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="9"/>
       <c r="B486" s="27"/>
       <c r="C486" s="8" t="s">
@@ -11193,7 +11200,7 @@
       <c r="G486" s="10"/>
       <c r="H486" s="8"/>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="9"/>
       <c r="B487" s="27"/>
       <c r="C487" s="8" t="s">
@@ -11207,7 +11214,7 @@
       <c r="G487" s="10"/>
       <c r="H487" s="8"/>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="9"/>
       <c r="B488" s="27"/>
       <c r="C488" s="8"/>
@@ -11217,7 +11224,7 @@
       <c r="G488" s="10"/>
       <c r="H488" s="8"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="35">
         <v>55</v>
       </c>
@@ -11235,7 +11242,7 @@
       <c r="G489" s="10"/>
       <c r="H489" s="8"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="9"/>
       <c r="B490" s="27"/>
       <c r="C490" s="8" t="s">
@@ -11251,7 +11258,7 @@
       <c r="G490" s="10"/>
       <c r="H490" s="8"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="9"/>
       <c r="B491" s="27"/>
       <c r="C491" s="8" t="s">
@@ -11267,7 +11274,7 @@
       <c r="G491" s="10"/>
       <c r="H491" s="8"/>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="9"/>
       <c r="B492" s="27"/>
       <c r="C492" s="8" t="s">
@@ -11283,7 +11290,7 @@
       <c r="G492" s="10"/>
       <c r="H492" s="8"/>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="9"/>
       <c r="B493" s="27"/>
       <c r="C493" s="8" t="s">
@@ -11299,7 +11306,7 @@
       <c r="G493" s="10"/>
       <c r="H493" s="8"/>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="9"/>
       <c r="B494" s="27"/>
       <c r="C494" s="8" t="s">
@@ -11313,7 +11320,7 @@
       <c r="G494" s="10"/>
       <c r="H494" s="8"/>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="9"/>
       <c r="B495" s="27"/>
       <c r="C495" s="8" t="s">
@@ -11327,7 +11334,7 @@
       <c r="G495" s="10"/>
       <c r="H495" s="8"/>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="9"/>
       <c r="B496" s="27"/>
       <c r="C496" s="8" t="s">
@@ -11341,7 +11348,7 @@
       <c r="G496" s="10"/>
       <c r="H496" s="8"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="9"/>
       <c r="B497" s="27"/>
       <c r="C497" s="8" t="s">
@@ -11355,7 +11362,7 @@
       <c r="G497" s="10"/>
       <c r="H497" s="8"/>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="9"/>
       <c r="B498" s="27"/>
       <c r="C498" s="8" t="s">
@@ -11369,7 +11376,7 @@
       <c r="G498" s="10"/>
       <c r="H498" s="8"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="35">
         <v>56</v>
       </c>
@@ -11387,7 +11394,7 @@
       <c r="G499" s="10"/>
       <c r="H499" s="8"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="35">
         <v>57</v>
       </c>
@@ -11405,7 +11412,7 @@
       <c r="G500" s="10"/>
       <c r="H500" s="8"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="35">
         <v>58</v>
       </c>
@@ -11423,7 +11430,7 @@
       <c r="G501" s="10"/>
       <c r="H501" s="8"/>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="35"/>
       <c r="B502" s="8"/>
       <c r="C502" s="8" t="s">
@@ -11437,7 +11444,7 @@
       <c r="G502" s="10"/>
       <c r="H502" s="8"/>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="9"/>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -11447,7 +11454,7 @@
       <c r="G503" s="10"/>
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="9"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -11457,7 +11464,7 @@
       <c r="G504" s="10"/>
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="1:8" ht="30">
+    <row r="505" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="9"/>
       <c r="B505" s="36" t="s">
         <v>950</v>
@@ -11473,7 +11480,7 @@
       <c r="G505" s="22"/>
       <c r="H505" s="8"/>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="35">
         <v>59</v>
       </c>
@@ -11491,7 +11498,7 @@
       <c r="G506" s="10"/>
       <c r="H506" s="8"/>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="9"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8" t="s">
@@ -11507,7 +11514,7 @@
       <c r="G507" s="10"/>
       <c r="H507" s="8"/>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="9"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8" t="s">
@@ -11521,7 +11528,7 @@
       <c r="G508" s="10"/>
       <c r="H508" s="8"/>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="9"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8" t="s">
@@ -11535,7 +11542,7 @@
       <c r="G509" s="10"/>
       <c r="H509" s="8"/>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="9"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -11545,7 +11552,7 @@
       <c r="G510" s="10"/>
       <c r="H510" s="8"/>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="35">
         <v>60</v>
       </c>
@@ -11563,7 +11570,7 @@
       <c r="G511" s="22"/>
       <c r="H511" s="8"/>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="9"/>
       <c r="B512" s="42"/>
       <c r="C512" s="8" t="s">
@@ -11579,7 +11586,7 @@
       <c r="G512" s="22"/>
       <c r="H512" s="8"/>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="9"/>
       <c r="B513" s="42"/>
       <c r="C513" s="8" t="s">
@@ -11595,7 +11602,7 @@
       <c r="G513" s="22"/>
       <c r="H513" s="8"/>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="9"/>
       <c r="B514" s="42"/>
       <c r="C514" s="8" t="s">
@@ -11611,7 +11618,7 @@
       <c r="G514" s="22"/>
       <c r="H514" s="8"/>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="9"/>
       <c r="B515" s="42"/>
       <c r="C515" s="8" t="s">
@@ -11625,7 +11632,7 @@
       <c r="G515" s="22"/>
       <c r="H515" s="8"/>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="9"/>
       <c r="B516" s="42"/>
       <c r="C516" s="8" t="s">
@@ -11639,7 +11646,7 @@
       <c r="G516" s="22"/>
       <c r="H516" s="8"/>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="9"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8" t="s">
@@ -11653,7 +11660,7 @@
       <c r="G517" s="10"/>
       <c r="H517" s="8"/>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="9"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8" t="s">
@@ -11667,7 +11674,7 @@
       <c r="G518" s="10"/>
       <c r="H518" s="8"/>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="9"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -11677,7 +11684,7 @@
       <c r="G519" s="10"/>
       <c r="H519" s="8"/>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="9"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8" t="s">
@@ -11693,7 +11700,7 @@
       <c r="G520" s="10"/>
       <c r="H520" s="8"/>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="9"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8" t="s">
@@ -11707,7 +11714,7 @@
       <c r="G521" s="10"/>
       <c r="H521" s="8"/>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="35">
         <v>61</v>
       </c>
@@ -11725,7 +11732,7 @@
       <c r="G522" s="10"/>
       <c r="H522" s="8"/>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="9"/>
       <c r="B523" s="8"/>
       <c r="C523" s="22" t="s">
@@ -11741,7 +11748,7 @@
       <c r="G523" s="10"/>
       <c r="H523" s="8"/>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="9"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8" t="s">
@@ -11757,7 +11764,7 @@
       <c r="G524" s="10"/>
       <c r="H524" s="8"/>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="9"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8" t="s">
@@ -11773,7 +11780,7 @@
       <c r="G525" s="10"/>
       <c r="H525" s="8"/>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="9"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8" t="s">
@@ -11789,7 +11796,7 @@
       <c r="G526" s="10"/>
       <c r="H526" s="8"/>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="9"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8" t="s">
@@ -11805,7 +11812,7 @@
       <c r="G527" s="10"/>
       <c r="H527" s="8"/>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="9"/>
       <c r="B528" s="22"/>
       <c r="C528" s="22" t="s">
@@ -11821,7 +11828,7 @@
       <c r="G528" s="22"/>
       <c r="H528" s="8"/>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="9"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8" t="s">
@@ -11835,7 +11842,7 @@
       <c r="G529" s="10"/>
       <c r="H529" s="8"/>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="9"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8" t="s">
@@ -11849,7 +11856,7 @@
       <c r="G530" s="10"/>
       <c r="H530" s="8"/>
     </row>
-    <row r="531" spans="1:8" s="13" customFormat="1">
+    <row r="531" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="9"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8" t="s">
@@ -11863,7 +11870,7 @@
       <c r="G531" s="10"/>
       <c r="H531" s="8"/>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="9"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8" t="s">
@@ -11877,7 +11884,7 @@
       <c r="G532" s="10"/>
       <c r="H532" s="8"/>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="9"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8" t="s">
@@ -11891,7 +11898,7 @@
       <c r="G533" s="10"/>
       <c r="H533" s="8"/>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="9"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8" t="s">
@@ -11905,7 +11912,7 @@
       <c r="G534" s="10"/>
       <c r="H534" s="8"/>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="9"/>
       <c r="B535" s="8"/>
       <c r="C535" s="22" t="s">
@@ -11919,7 +11926,7 @@
       <c r="G535" s="10"/>
       <c r="H535" s="8"/>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="9"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8" t="s">
@@ -11933,7 +11940,7 @@
       <c r="G536" s="10"/>
       <c r="H536" s="8"/>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="9"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8" t="s">
@@ -11947,7 +11954,7 @@
       <c r="G537" s="10"/>
       <c r="H537" s="8"/>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="9"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8" t="s">
@@ -11961,7 +11968,7 @@
       <c r="G538" s="10"/>
       <c r="H538" s="8"/>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="9"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8" t="s">
@@ -11975,7 +11982,7 @@
       <c r="G539" s="10"/>
       <c r="H539" s="8"/>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="9"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8" t="s">
@@ -11989,7 +11996,7 @@
       <c r="G540" s="10"/>
       <c r="H540" s="8"/>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="35">
         <v>62</v>
       </c>
@@ -12007,7 +12014,7 @@
       <c r="G541" s="10"/>
       <c r="H541" s="8"/>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="9"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8" t="s">
@@ -12023,7 +12030,7 @@
       <c r="G542" s="10"/>
       <c r="H542" s="8"/>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="9"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8" t="s">
@@ -12039,7 +12046,7 @@
       <c r="G543" s="10"/>
       <c r="H543" s="8"/>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="9"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8" t="s">
@@ -12055,7 +12062,7 @@
       <c r="G544" s="10"/>
       <c r="H544" s="44"/>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="23"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8" t="s">
@@ -12069,7 +12076,7 @@
       <c r="G545" s="10"/>
       <c r="H545" s="22"/>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="43"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8" t="s">
@@ -12083,7 +12090,7 @@
       <c r="G546" s="10"/>
       <c r="H546" s="44"/>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="43"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8" t="s">
@@ -12097,7 +12104,7 @@
       <c r="G547" s="10"/>
       <c r="H547" s="44"/>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="43"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8" t="s">
@@ -12111,7 +12118,7 @@
       <c r="G548" s="10"/>
       <c r="H548" s="44"/>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="23"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -12121,7 +12128,7 @@
       <c r="G549" s="10"/>
       <c r="H549" s="22"/>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="9"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -12131,7 +12138,7 @@
       <c r="G550" s="10"/>
       <c r="H550" s="8"/>
     </row>
-    <row r="551" spans="1:8" ht="30">
+    <row r="551" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="36" t="s">
         <v>206</v>
@@ -12143,7 +12150,7 @@
       <c r="G551" s="6"/>
       <c r="H551" s="6"/>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="9"/>
       <c r="B552" s="8"/>
       <c r="C552" s="27" t="s">
@@ -12159,7 +12166,7 @@
       <c r="G552" s="10"/>
       <c r="H552" s="8"/>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="9"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8" t="s">
@@ -12173,7 +12180,7 @@
       <c r="G553" s="10"/>
       <c r="H553" s="8"/>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="9"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -12183,7 +12190,7 @@
       <c r="G554" s="10"/>
       <c r="H554" s="8"/>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="9"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -12193,7 +12200,7 @@
       <c r="G555" s="10"/>
       <c r="H555" s="8"/>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="9"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -12203,7 +12210,7 @@
       <c r="G556" s="10"/>
       <c r="H556" s="8"/>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="9"/>
       <c r="B557" s="8"/>
       <c r="C557" s="27" t="s">
@@ -12219,7 +12226,7 @@
       <c r="G557" s="10"/>
       <c r="H557" s="8"/>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="9"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8" t="s">
@@ -12233,7 +12240,7 @@
       <c r="G558" s="10"/>
       <c r="H558" s="8"/>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="9"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8" t="s">
@@ -12247,7 +12254,7 @@
       <c r="G559" s="10"/>
       <c r="H559" s="8"/>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="9"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8" t="s">
@@ -12261,7 +12268,7 @@
       <c r="G560" s="10"/>
       <c r="H560" s="8"/>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="9"/>
       <c r="B561" s="8"/>
       <c r="C561" s="8" t="s">
@@ -12275,7 +12282,7 @@
       <c r="G561" s="10"/>
       <c r="H561" s="8"/>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="9"/>
       <c r="B562" s="8"/>
       <c r="C562" s="22"/>
@@ -12285,7 +12292,7 @@
       <c r="G562" s="10"/>
       <c r="H562" s="8"/>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="9"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8" t="s">
@@ -12299,7 +12306,7 @@
       <c r="G563" s="10"/>
       <c r="H563" s="8"/>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="9"/>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -12309,7 +12316,7 @@
       <c r="G564" s="10"/>
       <c r="H564" s="8"/>
     </row>
-    <row r="565" spans="1:8" ht="30">
+    <row r="565" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="9"/>
       <c r="B565" s="8"/>
       <c r="C565" s="27" t="s">
@@ -12325,7 +12332,7 @@
       <c r="G565" s="10"/>
       <c r="H565" s="8"/>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="9"/>
       <c r="B566" s="22"/>
       <c r="C566" s="8" t="s">
@@ -12339,7 +12346,7 @@
       <c r="G566" s="22"/>
       <c r="H566" s="8"/>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="9"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8" t="s">
@@ -12353,7 +12360,7 @@
       <c r="G567" s="10"/>
       <c r="H567" s="8"/>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="9"/>
       <c r="B568" s="8"/>
       <c r="C568" s="8" t="s">
@@ -12367,7 +12374,7 @@
       <c r="G568" s="10"/>
       <c r="H568" s="8"/>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="9"/>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -12377,7 +12384,7 @@
       <c r="G569" s="10"/>
       <c r="H569" s="8"/>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="9"/>
       <c r="B570" s="8"/>
       <c r="C570" s="27" t="s">
@@ -12393,7 +12400,7 @@
       <c r="G570" s="10"/>
       <c r="H570" s="8"/>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="9"/>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -12403,7 +12410,7 @@
       <c r="G571" s="10"/>
       <c r="H571" s="8"/>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="9"/>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -12413,7 +12420,7 @@
       <c r="G572" s="10"/>
       <c r="H572" s="8"/>
     </row>
-    <row r="573" spans="1:8" s="13" customFormat="1">
+    <row r="573" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9"/>
       <c r="B573" s="8"/>
       <c r="C573" s="22"/>
@@ -12423,7 +12430,7 @@
       <c r="G573" s="10"/>
       <c r="H573" s="8"/>
     </row>
-    <row r="574" spans="1:8" s="13" customFormat="1">
+    <row r="574" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="9"/>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -12433,7 +12440,7 @@
       <c r="G574" s="10"/>
       <c r="H574" s="8"/>
     </row>
-    <row r="575" spans="1:8" s="13" customFormat="1">
+    <row r="575" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A575" s="9"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -12443,7 +12450,7 @@
       <c r="G575" s="10"/>
       <c r="H575" s="8"/>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="23"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -12453,7 +12460,7 @@
       <c r="G576" s="10"/>
       <c r="H576" s="22"/>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="9"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -12463,7 +12470,7 @@
       <c r="G577" s="10"/>
       <c r="H577" s="8"/>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="9"/>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -12473,7 +12480,7 @@
       <c r="G578" s="10"/>
       <c r="H578" s="8"/>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="9"/>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -12483,7 +12490,7 @@
       <c r="G579" s="10"/>
       <c r="H579" s="8"/>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="9"/>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -12493,7 +12500,7 @@
       <c r="G580" s="10"/>
       <c r="H580" s="8"/>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="9"/>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -12503,7 +12510,7 @@
       <c r="G581" s="10"/>
       <c r="H581" s="8"/>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="9"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -12513,7 +12520,7 @@
       <c r="G582" s="10"/>
       <c r="H582" s="8"/>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="23"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -12523,7 +12530,7 @@
       <c r="G583" s="10"/>
       <c r="H583" s="22"/>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="9"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -12533,7 +12540,7 @@
       <c r="G584" s="10"/>
       <c r="H584" s="8"/>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="9"/>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -12543,7 +12550,7 @@
       <c r="G585" s="10"/>
       <c r="H585" s="8"/>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="9"/>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -12553,7 +12560,7 @@
       <c r="G586" s="10"/>
       <c r="H586" s="8"/>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="9"/>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -12563,7 +12570,7 @@
       <c r="G587" s="10"/>
       <c r="H587" s="8"/>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="9"/>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -12573,7 +12580,7 @@
       <c r="G588" s="10"/>
       <c r="H588" s="8"/>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="9"/>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -12583,7 +12590,7 @@
       <c r="G589" s="10"/>
       <c r="H589" s="8"/>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="9"/>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -12593,7 +12600,7 @@
       <c r="G590" s="10"/>
       <c r="H590" s="8"/>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="9"/>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -12603,7 +12610,7 @@
       <c r="G591" s="10"/>
       <c r="H591" s="8"/>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="9"/>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -12613,7 +12620,7 @@
       <c r="G592" s="10"/>
       <c r="H592" s="8"/>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="9"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -12623,7 +12630,7 @@
       <c r="G593" s="10"/>
       <c r="H593" s="8"/>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="23"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -12633,7 +12640,7 @@
       <c r="G594" s="10"/>
       <c r="H594" s="22"/>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="9"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -12643,7 +12650,7 @@
       <c r="G595" s="12"/>
       <c r="H595" s="8"/>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="9"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -12653,7 +12660,7 @@
       <c r="G596" s="12"/>
       <c r="H596" s="8"/>
     </row>
-    <row r="597" spans="1:8" s="13" customFormat="1">
+    <row r="597" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="9"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -12663,7 +12670,7 @@
       <c r="G597" s="12"/>
       <c r="H597" s="8"/>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="9"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -12673,7 +12680,7 @@
       <c r="G598" s="12"/>
       <c r="H598" s="8"/>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="9"/>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -12683,7 +12690,7 @@
       <c r="G599" s="12"/>
       <c r="H599" s="8"/>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="9"/>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -12693,7 +12700,7 @@
       <c r="G600" s="12"/>
       <c r="H600" s="10"/>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="9"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -12703,7 +12710,7 @@
       <c r="G601" s="12"/>
       <c r="H601" s="8"/>
     </row>
-    <row r="602" spans="1:8" s="13" customFormat="1">
+    <row r="602" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="9"/>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -12713,7 +12720,7 @@
       <c r="G602" s="12"/>
       <c r="H602" s="8"/>
     </row>
-    <row r="603" spans="1:8" s="13" customFormat="1">
+    <row r="603" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="9"/>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -12723,7 +12730,7 @@
       <c r="G603" s="12"/>
       <c r="H603" s="8"/>
     </row>
-    <row r="604" spans="1:8" s="13" customFormat="1">
+    <row r="604" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="9"/>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -12733,7 +12740,7 @@
       <c r="G604" s="10"/>
       <c r="H604" s="8"/>
     </row>
-    <row r="605" spans="1:8" s="13" customFormat="1">
+    <row r="605" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="9"/>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -12743,7 +12750,7 @@
       <c r="G605" s="10"/>
       <c r="H605" s="8"/>
     </row>
-    <row r="606" spans="1:8" s="13" customFormat="1">
+    <row r="606" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="9"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -12753,7 +12760,7 @@
       <c r="G606" s="10"/>
       <c r="H606" s="8"/>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="9"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -12763,7 +12770,7 @@
       <c r="G607" s="12"/>
       <c r="H607" s="8"/>
     </row>
-    <row r="608" spans="1:8" s="13" customFormat="1">
+    <row r="608" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="9"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -12773,7 +12780,7 @@
       <c r="G608" s="10"/>
       <c r="H608" s="8"/>
     </row>
-    <row r="609" spans="1:8" s="13" customFormat="1">
+    <row r="609" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A609" s="9"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -12783,7 +12790,7 @@
       <c r="G609" s="10"/>
       <c r="H609" s="8"/>
     </row>
-    <row r="610" spans="1:8" s="13" customFormat="1">
+    <row r="610" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A610" s="9"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -12793,7 +12800,7 @@
       <c r="G610" s="10"/>
       <c r="H610" s="8"/>
     </row>
-    <row r="611" spans="1:8" s="13" customFormat="1">
+    <row r="611" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="9"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -12803,7 +12810,7 @@
       <c r="G611" s="10"/>
       <c r="H611" s="8"/>
     </row>
-    <row r="612" spans="1:8" s="13" customFormat="1">
+    <row r="612" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="9"/>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -12813,7 +12820,7 @@
       <c r="G612" s="10"/>
       <c r="H612" s="8"/>
     </row>
-    <row r="613" spans="1:8" s="13" customFormat="1">
+    <row r="613" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="9"/>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -12823,7 +12830,7 @@
       <c r="G613" s="10"/>
       <c r="H613" s="8"/>
     </row>
-    <row r="614" spans="1:8" s="13" customFormat="1">
+    <row r="614" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="9"/>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -12833,7 +12840,7 @@
       <c r="G614" s="10"/>
       <c r="H614" s="8"/>
     </row>
-    <row r="615" spans="1:8" s="13" customFormat="1">
+    <row r="615" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="9"/>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -12843,7 +12850,7 @@
       <c r="G615" s="10"/>
       <c r="H615" s="8"/>
     </row>
-    <row r="616" spans="1:8" s="13" customFormat="1">
+    <row r="616" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="9"/>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -12853,7 +12860,7 @@
       <c r="G616" s="10"/>
       <c r="H616" s="8"/>
     </row>
-    <row r="617" spans="1:8" s="13" customFormat="1">
+    <row r="617" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="9"/>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -12863,7 +12870,7 @@
       <c r="G617" s="10"/>
       <c r="H617" s="8"/>
     </row>
-    <row r="618" spans="1:8" s="13" customFormat="1">
+    <row r="618" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="9"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -12873,7 +12880,7 @@
       <c r="G618" s="10"/>
       <c r="H618" s="8"/>
     </row>
-    <row r="619" spans="1:8" s="13" customFormat="1">
+    <row r="619" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="9"/>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -12883,7 +12890,7 @@
       <c r="G619" s="10"/>
       <c r="H619" s="8"/>
     </row>
-    <row r="620" spans="1:8" s="13" customFormat="1">
+    <row r="620" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="9"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -12893,7 +12900,7 @@
       <c r="G620" s="10"/>
       <c r="H620" s="8"/>
     </row>
-    <row r="621" spans="1:8" s="13" customFormat="1">
+    <row r="621" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="9"/>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -12903,7 +12910,7 @@
       <c r="G621" s="10"/>
       <c r="H621" s="8"/>
     </row>
-    <row r="622" spans="1:8" s="13" customFormat="1">
+    <row r="622" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -12913,7 +12920,7 @@
       <c r="G622" s="10"/>
       <c r="H622" s="9"/>
     </row>
-    <row r="623" spans="1:8" s="13" customFormat="1">
+    <row r="623" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="9"/>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -12923,7 +12930,7 @@
       <c r="G623" s="10"/>
       <c r="H623" s="9"/>
     </row>
-    <row r="624" spans="1:8" s="13" customFormat="1">
+    <row r="624" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="9"/>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -12933,7 +12940,7 @@
       <c r="G624" s="8"/>
       <c r="H624" s="9"/>
     </row>
-    <row r="625" spans="1:8" s="13" customFormat="1">
+    <row r="625" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="9"/>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -12943,7 +12950,7 @@
       <c r="G625" s="8"/>
       <c r="H625" s="9"/>
     </row>
-    <row r="626" spans="1:8" s="13" customFormat="1">
+    <row r="626" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="9"/>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -12953,7 +12960,7 @@
       <c r="G626" s="8"/>
       <c r="H626" s="9"/>
     </row>
-    <row r="627" spans="1:8" s="13" customFormat="1">
+    <row r="627" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="9"/>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -12963,7 +12970,7 @@
       <c r="G627" s="8"/>
       <c r="H627" s="9"/>
     </row>
-    <row r="628" spans="1:8" s="13" customFormat="1">
+    <row r="628" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="9"/>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -12973,7 +12980,7 @@
       <c r="G628" s="8"/>
       <c r="H628" s="9"/>
     </row>
-    <row r="629" spans="1:8" s="13" customFormat="1">
+    <row r="629" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A629" s="9"/>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -12983,7 +12990,7 @@
       <c r="G629" s="8"/>
       <c r="H629" s="9"/>
     </row>
-    <row r="630" spans="1:8" s="13" customFormat="1">
+    <row r="630" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="9"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -12993,7 +13000,7 @@
       <c r="G630" s="8"/>
       <c r="H630" s="9"/>
     </row>
-    <row r="631" spans="1:8" s="13" customFormat="1">
+    <row r="631" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="9"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -13003,7 +13010,7 @@
       <c r="G631" s="8"/>
       <c r="H631" s="9"/>
     </row>
-    <row r="632" spans="1:8" s="13" customFormat="1">
+    <row r="632" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="9"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -13013,7 +13020,7 @@
       <c r="G632" s="8"/>
       <c r="H632" s="8"/>
     </row>
-    <row r="633" spans="1:8" s="13" customFormat="1">
+    <row r="633" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="9"/>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -13023,7 +13030,7 @@
       <c r="G633" s="8"/>
       <c r="H633" s="8"/>
     </row>
-    <row r="634" spans="1:8" s="13" customFormat="1">
+    <row r="634" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="9"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -13033,7 +13040,7 @@
       <c r="G634" s="8"/>
       <c r="H634" s="8"/>
     </row>
-    <row r="635" spans="1:8" s="13" customFormat="1">
+    <row r="635" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A635" s="9"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -13043,7 +13050,7 @@
       <c r="G635" s="8"/>
       <c r="H635" s="8"/>
     </row>
-    <row r="636" spans="1:8" s="13" customFormat="1">
+    <row r="636" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A636" s="9"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -13053,7 +13060,7 @@
       <c r="G636" s="8"/>
       <c r="H636" s="8"/>
     </row>
-    <row r="637" spans="1:8" s="13" customFormat="1">
+    <row r="637" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="9"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -13063,7 +13070,7 @@
       <c r="G637" s="8"/>
       <c r="H637" s="8"/>
     </row>
-    <row r="638" spans="1:8" s="13" customFormat="1">
+    <row r="638" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="9"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -13073,7 +13080,7 @@
       <c r="G638" s="8"/>
       <c r="H638" s="8"/>
     </row>
-    <row r="639" spans="1:8" s="13" customFormat="1">
+    <row r="639" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="9"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -13083,7 +13090,7 @@
       <c r="G639" s="8"/>
       <c r="H639" s="8"/>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="9"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -13093,7 +13100,7 @@
       <c r="G640" s="8"/>
       <c r="H640" s="9"/>
     </row>
-    <row r="641" spans="1:9">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="9"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -13103,7 +13110,7 @@
       <c r="G641" s="8"/>
       <c r="H641" s="8"/>
     </row>
-    <row r="642" spans="1:9">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="9"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -13113,7 +13120,7 @@
       <c r="G642" s="8"/>
       <c r="H642" s="8"/>
     </row>
-    <row r="643" spans="1:9" s="13" customFormat="1">
+    <row r="643" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="9"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -13123,7 +13130,7 @@
       <c r="G643" s="8"/>
       <c r="H643" s="8"/>
     </row>
-    <row r="644" spans="1:9">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="9"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -13134,7 +13141,7 @@
       <c r="H644" s="8"/>
       <c r="I644" s="20"/>
     </row>
-    <row r="645" spans="1:9">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="9"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -13144,7 +13151,7 @@
       <c r="G645" s="8"/>
       <c r="H645" s="8"/>
     </row>
-    <row r="646" spans="1:9">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" s="9"/>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
@@ -13154,7 +13161,7 @@
       <c r="G646" s="8"/>
       <c r="H646" s="8"/>
     </row>
-    <row r="647" spans="1:9">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" s="9"/>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -13164,7 +13171,7 @@
       <c r="G647" s="8"/>
       <c r="H647" s="8"/>
     </row>
-    <row r="648" spans="1:9">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" s="9"/>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -13174,7 +13181,7 @@
       <c r="G648" s="8"/>
       <c r="H648" s="8"/>
     </row>
-    <row r="649" spans="1:9">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" s="9"/>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -13184,7 +13191,7 @@
       <c r="G649" s="8"/>
       <c r="H649" s="8"/>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650" s="9"/>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -13194,7 +13201,7 @@
       <c r="G650" s="8"/>
       <c r="H650" s="8"/>
     </row>
-    <row r="651" spans="1:9">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" s="9"/>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -13204,7 +13211,7 @@
       <c r="G651" s="8"/>
       <c r="H651" s="8"/>
     </row>
-    <row r="652" spans="1:9">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" s="9"/>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -13214,7 +13221,7 @@
       <c r="G652" s="8"/>
       <c r="H652" s="8"/>
     </row>
-    <row r="653" spans="1:9">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" s="9"/>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -13224,7 +13231,7 @@
       <c r="G653" s="8"/>
       <c r="H653" s="8"/>
     </row>
-    <row r="654" spans="1:9">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" s="9"/>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -13234,7 +13241,7 @@
       <c r="G654" s="8"/>
       <c r="H654" s="8"/>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="9"/>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -13244,7 +13251,7 @@
       <c r="G655" s="8"/>
       <c r="H655" s="8"/>
     </row>
-    <row r="656" spans="1:9">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" s="9"/>
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
@@ -13254,7 +13261,7 @@
       <c r="G656" s="8"/>
       <c r="H656" s="8"/>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="9"/>
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
@@ -13264,7 +13271,7 @@
       <c r="G657" s="8"/>
       <c r="H657" s="8"/>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="9"/>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -13274,7 +13281,7 @@
       <c r="G658" s="8"/>
       <c r="H658" s="8"/>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="9"/>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -13284,7 +13291,7 @@
       <c r="G659" s="8"/>
       <c r="H659" s="8"/>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="9"/>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -13294,7 +13301,7 @@
       <c r="G660" s="8"/>
       <c r="H660" s="8"/>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="9"/>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -13304,7 +13311,7 @@
       <c r="G661" s="8"/>
       <c r="H661" s="8"/>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="9"/>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -13314,7 +13321,7 @@
       <c r="G662" s="8"/>
       <c r="H662" s="8"/>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="9"/>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -13324,7 +13331,7 @@
       <c r="G663" s="8"/>
       <c r="H663" s="8"/>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="9"/>
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
@@ -13334,7 +13341,7 @@
       <c r="G664" s="8"/>
       <c r="H664" s="8"/>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="9"/>
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
@@ -13344,7 +13351,7 @@
       <c r="G665" s="8"/>
       <c r="H665" s="8"/>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="9"/>
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
@@ -13354,7 +13361,7 @@
       <c r="G666" s="8"/>
       <c r="H666" s="8"/>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="9"/>
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
@@ -13364,7 +13371,7 @@
       <c r="G667" s="8"/>
       <c r="H667" s="8"/>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="9"/>
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
@@ -13374,7 +13381,7 @@
       <c r="G668" s="8"/>
       <c r="H668" s="8"/>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="9"/>
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
@@ -13384,7 +13391,7 @@
       <c r="G669" s="8"/>
       <c r="H669" s="8"/>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="9"/>
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
@@ -13394,7 +13401,7 @@
       <c r="G670" s="8"/>
       <c r="H670" s="8"/>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="9"/>
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
@@ -13404,7 +13411,7 @@
       <c r="G671" s="8"/>
       <c r="H671" s="8"/>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="9"/>
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
@@ -13414,7 +13421,7 @@
       <c r="G672" s="8"/>
       <c r="H672" s="8"/>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="9"/>
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
@@ -13424,7 +13431,7 @@
       <c r="G673" s="8"/>
       <c r="H673" s="8"/>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="9"/>
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
@@ -13434,7 +13441,7 @@
       <c r="G674" s="8"/>
       <c r="H674" s="8"/>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="9"/>
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
@@ -13444,7 +13451,7 @@
       <c r="G675" s="8"/>
       <c r="H675" s="8"/>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="9"/>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
@@ -13454,7 +13461,7 @@
       <c r="G676" s="8"/>
       <c r="H676" s="8"/>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="9"/>
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
@@ -13464,7 +13471,7 @@
       <c r="G677" s="8"/>
       <c r="H677" s="8"/>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="9"/>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
@@ -13474,7 +13481,7 @@
       <c r="G678" s="8"/>
       <c r="H678" s="8"/>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="9"/>
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
@@ -13484,7 +13491,7 @@
       <c r="G679" s="8"/>
       <c r="H679" s="8"/>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="9"/>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -13494,7 +13501,7 @@
       <c r="G680" s="8"/>
       <c r="H680" s="8"/>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="9"/>
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
@@ -13504,7 +13511,7 @@
       <c r="G681" s="8"/>
       <c r="H681" s="8"/>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="9"/>
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
@@ -13514,7 +13521,7 @@
       <c r="G682" s="8"/>
       <c r="H682" s="8"/>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="9"/>
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
@@ -13524,7 +13531,7 @@
       <c r="G683" s="8"/>
       <c r="H683" s="8"/>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="9"/>
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
@@ -13534,7 +13541,7 @@
       <c r="G684" s="8"/>
       <c r="H684" s="8"/>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="9"/>
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
@@ -13544,7 +13551,7 @@
       <c r="G685" s="8"/>
       <c r="H685" s="8"/>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="9"/>
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
@@ -13554,7 +13561,7 @@
       <c r="G686" s="8"/>
       <c r="H686" s="8"/>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="9"/>
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
@@ -13564,7 +13571,7 @@
       <c r="G687" s="8"/>
       <c r="H687" s="8"/>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="9"/>
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
@@ -13574,7 +13581,7 @@
       <c r="G688" s="8"/>
       <c r="H688" s="8"/>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="9"/>
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
@@ -13584,7 +13591,7 @@
       <c r="G689" s="8"/>
       <c r="H689" s="8"/>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="9"/>
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
@@ -13594,7 +13601,7 @@
       <c r="G690" s="8"/>
       <c r="H690" s="8"/>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="9"/>
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
@@ -13604,7 +13611,7 @@
       <c r="G691" s="8"/>
       <c r="H691" s="8"/>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="9"/>
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
@@ -13614,7 +13621,7 @@
       <c r="G692" s="8"/>
       <c r="H692" s="8"/>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="9"/>
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
@@ -13624,7 +13631,7 @@
       <c r="G693" s="8"/>
       <c r="H693" s="8"/>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="9"/>
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
@@ -13634,7 +13641,7 @@
       <c r="G694" s="8"/>
       <c r="H694" s="8"/>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="9"/>
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
@@ -13644,7 +13651,7 @@
       <c r="G695" s="8"/>
       <c r="H695" s="8"/>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="9"/>
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
@@ -13654,136 +13661,136 @@
       <c r="G696" s="8"/>
       <c r="H696" s="8"/>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="9"/>
       <c r="C697" s="8"/>
       <c r="D697" s="9"/>
       <c r="E697" s="9"/>
       <c r="H697" s="8"/>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="9"/>
       <c r="C698" s="8"/>
       <c r="D698" s="9"/>
       <c r="E698" s="9"/>
       <c r="H698" s="8"/>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="9"/>
       <c r="C699" s="8"/>
       <c r="D699" s="9"/>
       <c r="E699" s="9"/>
       <c r="H699" s="8"/>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="9"/>
       <c r="C700" s="8"/>
       <c r="D700" s="9"/>
       <c r="E700" s="9"/>
       <c r="H700" s="8"/>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="9"/>
       <c r="C701" s="8"/>
       <c r="D701" s="9"/>
       <c r="E701" s="9"/>
       <c r="H701" s="8"/>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="9"/>
       <c r="C702" s="8"/>
       <c r="D702" s="9"/>
       <c r="E702" s="9"/>
       <c r="H702" s="8"/>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="9"/>
       <c r="C703" s="8"/>
       <c r="D703" s="9"/>
       <c r="E703" s="9"/>
       <c r="H703" s="8"/>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="9"/>
       <c r="H704" s="8"/>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="9"/>
       <c r="H705" s="8"/>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="9"/>
       <c r="H706" s="8"/>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="9"/>
       <c r="H707" s="8"/>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="9"/>
       <c r="H708" s="8"/>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="9"/>
       <c r="H709" s="8"/>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="9"/>
       <c r="H710" s="8"/>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="9"/>
       <c r="H711" s="8"/>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="9"/>
       <c r="H712" s="8"/>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="9"/>
       <c r="H713" s="8"/>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="9"/>
       <c r="H714" s="8"/>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="9"/>
       <c r="H715" s="8"/>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="9"/>
       <c r="H716" s="8"/>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="9"/>
       <c r="H717" s="8"/>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="9"/>
       <c r="H718" s="8"/>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="9"/>
       <c r="H719" s="8"/>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="9"/>
       <c r="H720" s="8"/>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="9"/>
       <c r="H721" s="8"/>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="9"/>
       <c r="H722" s="8"/>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="9"/>
       <c r="H723" s="8"/>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="9"/>
       <c r="H724" s="8"/>
     </row>
@@ -13795,12 +13802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13809,12 +13816,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Каталог КА-160.xlsx
+++ b/Каталог КА-160.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1077">
   <si>
     <t>Номер констр.документации</t>
   </si>
@@ -2436,12 +2436,6 @@
     <t>4.14.6.9</t>
   </si>
   <si>
-    <t>04АБЗ-014.06.00.011</t>
-  </si>
-  <si>
-    <t>4.14.6.11</t>
-  </si>
-  <si>
     <t>04АБЗ-014.06.00.012</t>
   </si>
   <si>
@@ -2487,9 +2481,6 @@
     <t>4.14.8.6</t>
   </si>
   <si>
-    <t>Кольцо-12шт.</t>
-  </si>
-  <si>
     <t>4.14.8.7</t>
   </si>
   <si>
@@ -3319,6 +3310,9 @@
   </si>
   <si>
     <t>Звёздочка-1 шт.</t>
+  </si>
+  <si>
+    <t>4.14.2.29</t>
   </si>
 </sst>
 </file>
@@ -3960,18 +3954,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I724"/>
+  <dimension ref="A1:I723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392:E393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="36.28515625" style="1" customWidth="1"/>
@@ -5354,7 +5348,7 @@
         <v>391</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5906,7 +5900,7 @@
         <v>54</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -6170,7 +6164,7 @@
         <v>64</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -6832,7 +6826,7 @@
         <v>91</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -7372,7 +7366,7 @@
       <c r="A229" s="9"/>
       <c r="B229" s="8"/>
       <c r="C229" s="27" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>539</v>
@@ -7388,13 +7382,13 @@
       <c r="A230" s="9"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="F230" s="8"/>
       <c r="G230" s="10"/>
@@ -7408,7 +7402,7 @@
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="F231" s="8"/>
       <c r="G231" s="10"/>
@@ -7422,7 +7416,7 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F232" s="8"/>
       <c r="G232" s="10"/>
@@ -7982,7 +7976,7 @@
         <v>103</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -8016,7 +8010,7 @@
         <v>106</v>
       </c>
       <c r="E274" s="26" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="10"/>
@@ -8032,7 +8026,7 @@
         <v>108</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="10"/>
@@ -8048,7 +8042,7 @@
         <v>110</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="10"/>
@@ -8063,10 +8057,10 @@
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="9" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="F277" s="8"/>
       <c r="G277" s="10"/>
@@ -8668,7 +8662,7 @@
       </c>
       <c r="D317" s="9"/>
       <c r="E317" s="26" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F317" s="8"/>
       <c r="G317" s="10"/>
@@ -8808,7 +8802,7 @@
         <v>708</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F327" s="8"/>
       <c r="G327" s="10"/>
@@ -9368,7 +9362,7 @@
         <v>766</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -9658,7 +9652,7 @@
       </c>
       <c r="D383" s="9"/>
       <c r="E383" s="9" t="s">
-        <v>741</v>
+        <v>1076</v>
       </c>
       <c r="F383" s="8"/>
       <c r="G383" s="10"/>
@@ -9746,7 +9740,7 @@
         <v>773</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F389" s="8"/>
       <c r="G389" s="10"/>
@@ -9820,7 +9814,7 @@
       <c r="A394" s="9"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8" t="s">
-        <v>781</v>
+        <v>83</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>784</v>
@@ -9836,13 +9830,11 @@
       <c r="A395" s="9"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D395" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D395" s="9"/>
+      <c r="E395" s="9" t="s">
         <v>786</v>
-      </c>
-      <c r="E395" s="9" t="s">
-        <v>787</v>
       </c>
       <c r="F395" s="8"/>
       <c r="G395" s="10"/>
@@ -9856,7 +9848,7 @@
       </c>
       <c r="D396" s="9"/>
       <c r="E396" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="10"/>
@@ -9866,11 +9858,11 @@
       <c r="A397" s="9"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8" t="s">
-        <v>507</v>
+        <v>790</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="10"/>
@@ -9880,11 +9872,11 @@
       <c r="A398" s="9"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8" t="s">
-        <v>792</v>
+        <v>83</v>
       </c>
       <c r="D398" s="9"/>
       <c r="E398" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="10"/>
@@ -9894,7 +9886,7 @@
       <c r="A399" s="9"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="D399" s="9"/>
       <c r="E399" s="9" t="s">
@@ -9908,7 +9900,7 @@
       <c r="A400" s="9"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8" t="s">
-        <v>340</v>
+        <v>792</v>
       </c>
       <c r="D400" s="9"/>
       <c r="E400" s="9" t="s">
@@ -9921,40 +9913,42 @@
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="9"/>
       <c r="B401" s="8"/>
-      <c r="C401" s="8" t="s">
-        <v>794</v>
-      </c>
+      <c r="C401" s="8"/>
       <c r="D401" s="9"/>
-      <c r="E401" s="9" t="s">
-        <v>795</v>
-      </c>
+      <c r="E401" s="9"/>
       <c r="F401" s="8"/>
       <c r="G401" s="10"/>
       <c r="H401" s="8"/>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402" s="9"/>
-      <c r="B402" s="8"/>
+      <c r="A402" s="35">
+        <v>32</v>
+      </c>
+      <c r="B402" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="C402" s="8"/>
-      <c r="D402" s="9"/>
-      <c r="E402" s="9"/>
+      <c r="D402" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="E402" s="9" t="s">
+        <v>794</v>
+      </c>
       <c r="F402" s="8"/>
       <c r="G402" s="10"/>
       <c r="H402" s="8"/>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="35">
-        <v>32</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C403" s="8"/>
-      <c r="D403" s="35" t="s">
-        <v>804</v>
+      <c r="A403" s="9"/>
+      <c r="B403" s="8"/>
+      <c r="C403" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="E403" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="10"/>
@@ -9964,13 +9958,13 @@
       <c r="A404" s="9"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E404" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F404" s="8"/>
       <c r="G404" s="10"/>
@@ -9980,13 +9974,13 @@
       <c r="A405" s="9"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E405" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F405" s="8"/>
       <c r="G405" s="10"/>
@@ -9996,13 +9990,11 @@
       <c r="A406" s="9"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>168</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="D406" s="9"/>
       <c r="E406" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="10"/>
@@ -10016,7 +10008,7 @@
       </c>
       <c r="D407" s="9"/>
       <c r="E407" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F407" s="8"/>
       <c r="G407" s="10"/>
@@ -10026,11 +10018,11 @@
       <c r="A408" s="9"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8" t="s">
-        <v>801</v>
+        <v>501</v>
       </c>
       <c r="D408" s="9"/>
       <c r="E408" s="9" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="10"/>
@@ -10039,13 +10031,9 @@
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="9"/>
       <c r="B409" s="8"/>
-      <c r="C409" s="8" t="s">
-        <v>501</v>
-      </c>
+      <c r="C409" s="8"/>
       <c r="D409" s="9"/>
-      <c r="E409" s="9" t="s">
-        <v>803</v>
-      </c>
+      <c r="E409" s="9"/>
       <c r="F409" s="8"/>
       <c r="G409" s="10"/>
       <c r="H409" s="8"/>
@@ -10081,28 +10069,36 @@
       <c r="H412" s="8"/>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413" s="9"/>
-      <c r="B413" s="8"/>
+      <c r="A413" s="35">
+        <v>33</v>
+      </c>
+      <c r="B413" s="27" t="s">
+        <v>803</v>
+      </c>
       <c r="C413" s="8"/>
-      <c r="D413" s="9"/>
-      <c r="E413" s="9"/>
+      <c r="D413" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="E413" s="9" t="s">
+        <v>810</v>
+      </c>
       <c r="F413" s="8"/>
       <c r="G413" s="10"/>
       <c r="H413" s="8"/>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B414" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C414" s="8"/>
       <c r="D414" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="E414" s="9" t="s">
         <v>805</v>
-      </c>
-      <c r="E414" s="9" t="s">
-        <v>813</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="10"/>
@@ -10110,14 +10106,14 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B415" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C415" s="8"/>
       <c r="D415" s="35" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E415" s="9" t="s">
         <v>808</v>
@@ -10126,47 +10122,44 @@
       <c r="G415" s="10"/>
       <c r="H415" s="8"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416" s="35">
-        <v>35</v>
-      </c>
-      <c r="B416" s="27" t="s">
-        <v>807</v>
-      </c>
+    <row r="416" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="9"/>
+      <c r="B416" s="8"/>
       <c r="C416" s="8"/>
-      <c r="D416" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="E416" s="9" t="s">
-        <v>811</v>
-      </c>
+      <c r="D416" s="9"/>
+      <c r="E416" s="9"/>
       <c r="F416" s="8"/>
       <c r="G416" s="10"/>
       <c r="H416" s="8"/>
     </row>
-    <row r="417" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="9"/>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="9"/>
-      <c r="E417" s="9"/>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" s="35">
+        <v>36</v>
+      </c>
+      <c r="B417" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="D417" s="35" t="s">
+        <v>814</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>817</v>
+      </c>
       <c r="F417" s="8"/>
       <c r="G417" s="10"/>
       <c r="H417" s="8"/>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418" s="35">
-        <v>36</v>
-      </c>
-      <c r="B418" s="27"/>
-      <c r="C418" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="D418" s="35" t="s">
-        <v>817</v>
+      <c r="A418" s="9"/>
+      <c r="B418" s="8"/>
+      <c r="C418" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="10"/>
@@ -10175,9 +10168,15 @@
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="9"/>
       <c r="B419" s="8"/>
-      <c r="C419" s="8"/>
-      <c r="D419" s="9"/>
-      <c r="E419" s="9"/>
+      <c r="C419" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E419" s="9" t="s">
+        <v>823</v>
+      </c>
       <c r="F419" s="8"/>
       <c r="G419" s="10"/>
       <c r="H419" s="8"/>
@@ -10189,10 +10188,10 @@
         <v>169</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E420" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F420" s="8"/>
       <c r="G420" s="10"/>
@@ -10205,10 +10204,10 @@
         <v>169</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E421" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F421" s="8"/>
       <c r="G421" s="10"/>
@@ -10221,10 +10220,10 @@
         <v>169</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E422" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F422" s="8"/>
       <c r="G422" s="10"/>
@@ -10234,13 +10233,13 @@
       <c r="A423" s="9"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="D423" s="9" t="s">
-        <v>173</v>
+        <v>601</v>
       </c>
       <c r="E423" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F423" s="8"/>
       <c r="G423" s="10"/>
@@ -10249,48 +10248,38 @@
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="9"/>
       <c r="B424" s="8"/>
-      <c r="C424" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D424" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E424" s="9" t="s">
-        <v>829</v>
-      </c>
       <c r="F424" s="8"/>
       <c r="G424" s="10"/>
       <c r="H424" s="8"/>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425" s="9"/>
-      <c r="B425" s="8"/>
-      <c r="C425" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D425" s="9" t="s">
-        <v>601</v>
+      <c r="A425" s="35">
+        <v>37</v>
+      </c>
+      <c r="B425" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="D425" s="35" t="s">
+        <v>815</v>
       </c>
       <c r="E425" s="9" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="10"/>
       <c r="H425" s="8"/>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426" s="35">
-        <v>37</v>
-      </c>
-      <c r="B426" s="27"/>
-      <c r="C426" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="D426" s="35" t="s">
+      <c r="A426" s="9"/>
+      <c r="B426" s="8"/>
+      <c r="C426" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E426" s="9" t="s">
         <v>818</v>
-      </c>
-      <c r="E426" s="9" t="s">
-        <v>819</v>
       </c>
       <c r="F426" s="8"/>
       <c r="G426" s="10"/>
@@ -10303,10 +10292,10 @@
         <v>169</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E427" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F427" s="8"/>
       <c r="G427" s="10"/>
@@ -10319,10 +10308,10 @@
         <v>169</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E428" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="10"/>
@@ -10335,60 +10324,58 @@
         <v>169</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E429" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="10"/>
       <c r="H429" s="8"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430" s="9"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D430" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E430" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="F430" s="8"/>
-      <c r="G430" s="10"/>
-      <c r="H430" s="8"/>
-    </row>
-    <row r="431" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="7"/>
-      <c r="B431" s="33" t="s">
+    <row r="430" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A430" s="7"/>
+      <c r="B430" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C431" s="6"/>
-      <c r="D431" s="34" t="s">
+      <c r="C430" s="6"/>
+      <c r="D430" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E431" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F431" s="6"/>
-      <c r="G431" s="6"/>
-      <c r="H431" s="6"/>
+      <c r="E430" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
+    </row>
+    <row r="431" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="35">
+        <v>38</v>
+      </c>
+      <c r="B431" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C431" s="8"/>
+      <c r="D431" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="E431" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="F431" s="8"/>
+      <c r="G431" s="10"/>
+      <c r="H431" s="8"/>
     </row>
     <row r="432" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="35">
-        <v>38</v>
-      </c>
-      <c r="B432" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C432" s="8"/>
-      <c r="D432" s="35" t="s">
-        <v>831</v>
-      </c>
+      <c r="A432" s="9"/>
+      <c r="B432" s="8"/>
+      <c r="C432" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D432" s="9"/>
       <c r="E432" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F432" s="8"/>
       <c r="G432" s="10"/>
@@ -10398,11 +10385,11 @@
       <c r="A433" s="9"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8" t="s">
-        <v>338</v>
+        <v>495</v>
       </c>
       <c r="D433" s="9"/>
       <c r="E433" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F433" s="8"/>
       <c r="G433" s="10"/>
@@ -10412,27 +10399,27 @@
       <c r="A434" s="9"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8" t="s">
-        <v>495</v>
+        <v>442</v>
       </c>
       <c r="D434" s="9"/>
       <c r="E434" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F434" s="8"/>
       <c r="G434" s="10"/>
       <c r="H434" s="8"/>
     </row>
-    <row r="435" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D435" s="9"/>
       <c r="E435" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="F435" s="8"/>
+        <v>833</v>
+      </c>
+      <c r="F435" s="14"/>
       <c r="G435" s="10"/>
       <c r="H435" s="8"/>
     </row>
@@ -10440,13 +10427,13 @@
       <c r="A436" s="9"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D436" s="9"/>
       <c r="E436" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="F436" s="14"/>
+        <v>834</v>
+      </c>
+      <c r="F436" s="8"/>
       <c r="G436" s="10"/>
       <c r="H436" s="8"/>
     </row>
@@ -10454,39 +10441,43 @@
       <c r="A437" s="9"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8" t="s">
-        <v>444</v>
+        <v>725</v>
       </c>
       <c r="D437" s="9"/>
       <c r="E437" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F437" s="8"/>
       <c r="G437" s="10"/>
       <c r="H437" s="8"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8" t="s">
-        <v>725</v>
+        <v>431</v>
       </c>
       <c r="D438" s="9"/>
       <c r="E438" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F438" s="8"/>
       <c r="G438" s="10"/>
       <c r="H438" s="8"/>
     </row>
     <row r="439" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="9"/>
-      <c r="B439" s="8"/>
-      <c r="C439" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D439" s="9"/>
+      <c r="A439" s="35">
+        <v>39</v>
+      </c>
+      <c r="B439" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C439" s="8"/>
+      <c r="D439" s="27" t="s">
+        <v>837</v>
+      </c>
       <c r="E439" s="9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F439" s="8"/>
       <c r="G439" s="10"/>
@@ -10494,32 +10485,30 @@
     </row>
     <row r="440" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="35">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="C440" s="8"/>
-      <c r="D440" s="27" t="s">
+      <c r="D440" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="E440" s="9" t="s">
         <v>840</v>
-      </c>
-      <c r="E440" s="9" t="s">
-        <v>841</v>
       </c>
       <c r="F440" s="8"/>
       <c r="G440" s="10"/>
       <c r="H440" s="8"/>
     </row>
     <row r="441" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="35">
-        <v>40</v>
-      </c>
-      <c r="B441" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C441" s="8"/>
+      <c r="A441" s="9"/>
+      <c r="B441" s="8"/>
+      <c r="C441" s="27" t="s">
+        <v>842</v>
+      </c>
       <c r="D441" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E441" s="9" t="s">
         <v>843</v>
@@ -10531,14 +10520,12 @@
     <row r="442" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="9"/>
       <c r="B442" s="8"/>
-      <c r="C442" s="27" t="s">
-        <v>845</v>
-      </c>
-      <c r="D442" s="35" t="s">
+      <c r="C442" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D442" s="9"/>
+      <c r="E442" s="9" t="s">
         <v>844</v>
-      </c>
-      <c r="E442" s="9" t="s">
-        <v>846</v>
       </c>
       <c r="F442" s="8"/>
       <c r="G442" s="10"/>
@@ -10548,11 +10535,11 @@
       <c r="A443" s="9"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8" t="s">
-        <v>495</v>
+        <v>338</v>
       </c>
       <c r="D443" s="9"/>
       <c r="E443" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F443" s="8"/>
       <c r="G443" s="10"/>
@@ -10566,7 +10553,7 @@
       </c>
       <c r="D444" s="9"/>
       <c r="E444" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F444" s="8"/>
       <c r="G444" s="10"/>
@@ -10576,11 +10563,11 @@
       <c r="A445" s="9"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8" t="s">
-        <v>338</v>
+        <v>495</v>
       </c>
       <c r="D445" s="9"/>
       <c r="E445" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F445" s="8"/>
       <c r="G445" s="10"/>
@@ -10590,11 +10577,11 @@
       <c r="A446" s="9"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="D446" s="9"/>
       <c r="E446" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F446" s="8"/>
       <c r="G446" s="10"/>
@@ -10604,11 +10591,11 @@
       <c r="A447" s="9"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8" t="s">
-        <v>431</v>
+        <v>849</v>
       </c>
       <c r="D447" s="9"/>
       <c r="E447" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F447" s="8"/>
       <c r="G447" s="10"/>
@@ -10617,13 +10604,9 @@
     <row r="448" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="9"/>
       <c r="B448" s="8"/>
-      <c r="C448" s="8" t="s">
-        <v>852</v>
-      </c>
+      <c r="C448" s="8"/>
       <c r="D448" s="9"/>
-      <c r="E448" s="9" t="s">
-        <v>853</v>
-      </c>
+      <c r="E448" s="9"/>
       <c r="F448" s="8"/>
       <c r="G448" s="10"/>
       <c r="H448" s="8"/>
@@ -10631,9 +10614,13 @@
     <row r="449" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="9"/>
       <c r="B449" s="8"/>
-      <c r="C449" s="8"/>
+      <c r="C449" s="8" t="s">
+        <v>851</v>
+      </c>
       <c r="D449" s="9"/>
-      <c r="E449" s="9"/>
+      <c r="E449" s="9" t="s">
+        <v>852</v>
+      </c>
       <c r="F449" s="8"/>
       <c r="G449" s="10"/>
       <c r="H449" s="8"/>
@@ -10642,11 +10629,11 @@
       <c r="A450" s="9"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D450" s="9"/>
       <c r="E450" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F450" s="8"/>
       <c r="G450" s="10"/>
@@ -10656,11 +10643,11 @@
       <c r="A451" s="9"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D451" s="9"/>
       <c r="E451" s="9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F451" s="8"/>
       <c r="G451" s="10"/>
@@ -10669,13 +10656,9 @@
     <row r="452" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9"/>
       <c r="B452" s="8"/>
-      <c r="C452" s="8" t="s">
-        <v>858</v>
-      </c>
+      <c r="C452" s="8"/>
       <c r="D452" s="9"/>
-      <c r="E452" s="9" t="s">
-        <v>859</v>
-      </c>
+      <c r="E452" s="9"/>
       <c r="F452" s="8"/>
       <c r="G452" s="10"/>
       <c r="H452" s="8"/>
@@ -10683,9 +10666,15 @@
     <row r="453" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="9"/>
       <c r="B453" s="8"/>
-      <c r="C453" s="8"/>
-      <c r="D453" s="9"/>
-      <c r="E453" s="9"/>
+      <c r="C453" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D453" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E453" s="9" t="s">
+        <v>857</v>
+      </c>
       <c r="F453" s="8"/>
       <c r="G453" s="10"/>
       <c r="H453" s="8"/>
@@ -10693,15 +10682,9 @@
     <row r="454" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="9"/>
       <c r="B454" s="8"/>
-      <c r="C454" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D454" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E454" s="9" t="s">
-        <v>860</v>
-      </c>
+      <c r="C454" s="8"/>
+      <c r="D454" s="9"/>
+      <c r="E454" s="9"/>
       <c r="F454" s="8"/>
       <c r="G454" s="10"/>
       <c r="H454" s="8"/>
@@ -10709,9 +10692,15 @@
     <row r="455" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="9"/>
       <c r="B455" s="8"/>
-      <c r="C455" s="8"/>
-      <c r="D455" s="9"/>
-      <c r="E455" s="9"/>
+      <c r="C455" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D455" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E455" s="9" t="s">
+        <v>858</v>
+      </c>
       <c r="F455" s="8"/>
       <c r="G455" s="10"/>
       <c r="H455" s="8"/>
@@ -10720,13 +10709,13 @@
       <c r="A456" s="9"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E456" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F456" s="8"/>
       <c r="G456" s="10"/>
@@ -10736,13 +10725,13 @@
       <c r="A457" s="9"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E457" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F457" s="8"/>
       <c r="G457" s="10"/>
@@ -10751,42 +10740,40 @@
     <row r="458" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="9"/>
       <c r="B458" s="8"/>
-      <c r="C458" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D458" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E458" s="9" t="s">
-        <v>863</v>
-      </c>
+      <c r="C458" s="8"/>
+      <c r="D458" s="9"/>
+      <c r="E458" s="9"/>
       <c r="F458" s="8"/>
       <c r="G458" s="10"/>
-      <c r="H458" s="8"/>
+      <c r="H458" s="9"/>
     </row>
     <row r="459" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="9"/>
-      <c r="B459" s="8"/>
+      <c r="A459" s="35">
+        <v>41</v>
+      </c>
+      <c r="B459" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="C459" s="8"/>
-      <c r="D459" s="9"/>
-      <c r="E459" s="9"/>
+      <c r="D459" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="E459" s="9" t="s">
+        <v>862</v>
+      </c>
       <c r="F459" s="8"/>
-      <c r="G459" s="10"/>
+      <c r="G459" s="12"/>
       <c r="H459" s="9"/>
     </row>
     <row r="460" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="35">
-        <v>41</v>
-      </c>
-      <c r="B460" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C460" s="8"/>
-      <c r="D460" s="35" t="s">
+      <c r="A460" s="9"/>
+      <c r="B460" s="8"/>
+      <c r="C460" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D460" s="9"/>
+      <c r="E460" s="9" t="s">
         <v>864</v>
-      </c>
-      <c r="E460" s="9" t="s">
-        <v>865</v>
       </c>
       <c r="F460" s="8"/>
       <c r="G460" s="12"/>
@@ -10796,11 +10783,11 @@
       <c r="A461" s="9"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8" t="s">
-        <v>866</v>
+        <v>338</v>
       </c>
       <c r="D461" s="9"/>
       <c r="E461" s="9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F461" s="8"/>
       <c r="G461" s="12"/>
@@ -10809,16 +10796,12 @@
     <row r="462" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="9"/>
       <c r="B462" s="8"/>
-      <c r="C462" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="C462" s="8"/>
       <c r="D462" s="9"/>
-      <c r="E462" s="9" t="s">
-        <v>868</v>
-      </c>
+      <c r="E462" s="9"/>
       <c r="F462" s="8"/>
-      <c r="G462" s="12"/>
-      <c r="H462" s="9"/>
+      <c r="G462" s="10"/>
+      <c r="H462" s="8"/>
     </row>
     <row r="463" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="9"/>
@@ -10827,7 +10810,7 @@
       <c r="D463" s="9"/>
       <c r="E463" s="9"/>
       <c r="F463" s="8"/>
-      <c r="G463" s="10"/>
+      <c r="G463" s="12"/>
       <c r="H463" s="8"/>
     </row>
     <row r="464" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -10837,7 +10820,7 @@
       <c r="D464" s="9"/>
       <c r="E464" s="9"/>
       <c r="F464" s="8"/>
-      <c r="G464" s="12"/>
+      <c r="G464" s="10"/>
       <c r="H464" s="8"/>
     </row>
     <row r="465" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -10850,34 +10833,42 @@
       <c r="G465" s="10"/>
       <c r="H465" s="8"/>
     </row>
-    <row r="466" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="9"/>
-      <c r="B466" s="8"/>
-      <c r="C466" s="8"/>
-      <c r="D466" s="9"/>
-      <c r="E466" s="9"/>
-      <c r="F466" s="8"/>
-      <c r="G466" s="10"/>
+      <c r="B466" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C466" s="38"/>
+      <c r="D466" s="39"/>
+      <c r="E466" s="39"/>
+      <c r="F466" s="6"/>
+      <c r="G466" s="6"/>
       <c r="H466" s="8"/>
     </row>
-    <row r="467" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A467" s="9"/>
-      <c r="B467" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C467" s="38"/>
-      <c r="D467" s="39"/>
-      <c r="E467" s="39"/>
-      <c r="F467" s="6"/>
-      <c r="G467" s="6"/>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" s="35">
+        <v>42</v>
+      </c>
+      <c r="B467" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C467" s="8"/>
+      <c r="D467" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="E467" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="F467" s="8"/>
+      <c r="G467" s="10"/>
       <c r="H467" s="8"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>193</v>
+        <v>868</v>
       </c>
       <c r="C468" s="8"/>
       <c r="D468" s="35" t="s">
@@ -10886,35 +10877,35 @@
       <c r="E468" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="F468" s="8"/>
+      <c r="F468" s="14"/>
       <c r="G468" s="10"/>
       <c r="H468" s="8"/>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A469" s="35">
-        <v>43</v>
-      </c>
-      <c r="B469" s="27" t="s">
+      <c r="A469" s="9"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="C469" s="8"/>
-      <c r="D469" s="35" t="s">
+      <c r="D469" s="9"/>
+      <c r="E469" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="E469" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="F469" s="14"/>
+      <c r="F469" s="8"/>
       <c r="G469" s="10"/>
       <c r="H469" s="8"/>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470" s="9"/>
-      <c r="B470" s="8"/>
-      <c r="C470" s="8" t="s">
+      <c r="A470" s="35">
+        <v>44</v>
+      </c>
+      <c r="B470" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="C470" s="8"/>
+      <c r="D470" s="35" t="s">
         <v>874</v>
       </c>
-      <c r="D470" s="9"/>
       <c r="E470" s="9" t="s">
         <v>875</v>
       </c>
@@ -10924,17 +10915,17 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>876</v>
+        <v>194</v>
       </c>
       <c r="C471" s="8"/>
       <c r="D471" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="E471" s="9" t="s">
         <v>877</v>
-      </c>
-      <c r="E471" s="9" t="s">
-        <v>878</v>
       </c>
       <c r="F471" s="8"/>
       <c r="G471" s="10"/>
@@ -10942,10 +10933,10 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="35">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B472" s="27" t="s">
-        <v>194</v>
+        <v>878</v>
       </c>
       <c r="C472" s="8"/>
       <c r="D472" s="35" t="s">
@@ -10960,17 +10951,17 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="35">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B473" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C473" s="22"/>
+      <c r="D473" s="40" t="s">
         <v>881</v>
       </c>
-      <c r="C473" s="8"/>
-      <c r="D473" s="35" t="s">
+      <c r="E473" s="23" t="s">
         <v>882</v>
-      </c>
-      <c r="E473" s="9" t="s">
-        <v>883</v>
       </c>
       <c r="F473" s="8"/>
       <c r="G473" s="10"/>
@@ -10978,28 +10969,28 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="35">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B474" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C474" s="22"/>
-      <c r="D474" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C474" s="8"/>
+      <c r="D474" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="E474" s="9" t="s">
         <v>884</v>
-      </c>
-      <c r="E474" s="23" t="s">
-        <v>885</v>
       </c>
       <c r="F474" s="8"/>
       <c r="G474" s="10"/>
       <c r="H474" s="8"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="35">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B475" s="27" t="s">
-        <v>196</v>
+        <v>885</v>
       </c>
       <c r="C475" s="8"/>
       <c r="D475" s="35" t="s">
@@ -11012,50 +11003,50 @@
       <c r="G475" s="10"/>
       <c r="H475" s="8"/>
     </row>
-    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="35">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B476" s="27" t="s">
         <v>888</v>
       </c>
       <c r="C476" s="8"/>
       <c r="D476" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="E476" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="E476" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="F476" s="8"/>
+      <c r="F476" s="19"/>
       <c r="G476" s="10"/>
       <c r="H476" s="8"/>
     </row>
-    <row r="477" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="35">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="C477" s="8"/>
       <c r="D477" s="35" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E477" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="F477" s="19"/>
+        <v>891</v>
+      </c>
+      <c r="F477" s="8"/>
       <c r="G477" s="10"/>
       <c r="H477" s="8"/>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="35">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>881</v>
-      </c>
-      <c r="C478" s="8"/>
+        <v>892</v>
+      </c>
+      <c r="C478" s="27"/>
       <c r="D478" s="35" t="s">
         <v>893</v>
       </c>
@@ -11068,17 +11059,17 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="35">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B479" s="27" t="s">
-        <v>895</v>
+        <v>197</v>
       </c>
       <c r="C479" s="27"/>
       <c r="D479" s="35" t="s">
+        <v>895</v>
+      </c>
+      <c r="E479" s="9" t="s">
         <v>896</v>
-      </c>
-      <c r="E479" s="9" t="s">
-        <v>897</v>
       </c>
       <c r="F479" s="8"/>
       <c r="G479" s="10"/>
@@ -11086,10 +11077,10 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B480" s="27" t="s">
-        <v>197</v>
+        <v>897</v>
       </c>
       <c r="C480" s="27"/>
       <c r="D480" s="35" t="s">
@@ -11103,25 +11094,23 @@
       <c r="H480" s="8"/>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481" s="35">
-        <v>54</v>
-      </c>
-      <c r="B481" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="C481" s="27"/>
-      <c r="D481" s="35" t="s">
-        <v>901</v>
+      <c r="A481" s="35"/>
+      <c r="B481" s="27"/>
+      <c r="C481" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D481" s="9" t="s">
+        <v>911</v>
       </c>
       <c r="E481" s="9" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="F481" s="8"/>
       <c r="G481" s="10"/>
       <c r="H481" s="8"/>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" s="35"/>
+      <c r="A482" s="9"/>
       <c r="B482" s="27"/>
       <c r="C482" s="8" t="s">
         <v>913</v>
@@ -11175,10 +11164,10 @@
         <v>922</v>
       </c>
       <c r="D485" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="E485" s="9" t="s">
         <v>923</v>
-      </c>
-      <c r="E485" s="9" t="s">
-        <v>924</v>
       </c>
       <c r="F485" s="8"/>
       <c r="G485" s="10"/>
@@ -11190,9 +11179,7 @@
       <c r="C486" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="D486" s="9" t="s">
-        <v>927</v>
-      </c>
+      <c r="D486" s="9"/>
       <c r="E486" s="9" t="s">
         <v>926</v>
       </c>
@@ -11203,40 +11190,42 @@
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="9"/>
       <c r="B487" s="27"/>
-      <c r="C487" s="8" t="s">
-        <v>928</v>
-      </c>
+      <c r="C487" s="8"/>
       <c r="D487" s="9"/>
-      <c r="E487" s="9" t="s">
-        <v>929</v>
-      </c>
+      <c r="E487" s="9"/>
       <c r="F487" s="8"/>
       <c r="G487" s="10"/>
       <c r="H487" s="8"/>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488" s="9"/>
-      <c r="B488" s="27"/>
-      <c r="C488" s="8"/>
-      <c r="D488" s="9"/>
-      <c r="E488" s="9"/>
+      <c r="A488" s="35">
+        <v>55</v>
+      </c>
+      <c r="B488" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="C488" s="9"/>
+      <c r="D488" s="35" t="s">
+        <v>911</v>
+      </c>
+      <c r="E488" s="9" t="s">
+        <v>912</v>
+      </c>
       <c r="F488" s="8"/>
       <c r="G488" s="10"/>
       <c r="H488" s="8"/>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A489" s="35">
-        <v>55</v>
-      </c>
-      <c r="B489" s="27" t="s">
-        <v>913</v>
-      </c>
-      <c r="C489" s="9"/>
-      <c r="D489" s="35" t="s">
-        <v>914</v>
+      <c r="A489" s="9"/>
+      <c r="B489" s="27"/>
+      <c r="C489" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D489" s="9" t="s">
+        <v>928</v>
       </c>
       <c r="E489" s="9" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="F489" s="8"/>
       <c r="G489" s="10"/>
@@ -11246,13 +11235,13 @@
       <c r="A490" s="9"/>
       <c r="B490" s="27"/>
       <c r="C490" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D490" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="D490" s="9" t="s">
-        <v>931</v>
-      </c>
       <c r="E490" s="9" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F490" s="8"/>
       <c r="G490" s="10"/>
@@ -11262,13 +11251,13 @@
       <c r="A491" s="9"/>
       <c r="B491" s="27"/>
       <c r="C491" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E491" s="9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F491" s="8"/>
       <c r="G491" s="10"/>
@@ -11278,13 +11267,13 @@
       <c r="A492" s="9"/>
       <c r="B492" s="27"/>
       <c r="C492" s="8" t="s">
-        <v>934</v>
+        <v>199</v>
       </c>
       <c r="D492" s="9" t="s">
         <v>935</v>
       </c>
       <c r="E492" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F492" s="8"/>
       <c r="G492" s="10"/>
@@ -11294,13 +11283,11 @@
       <c r="A493" s="9"/>
       <c r="B493" s="27"/>
       <c r="C493" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D493" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="D493" s="9"/>
+      <c r="E493" s="9" t="s">
         <v>938</v>
-      </c>
-      <c r="E493" s="9" t="s">
-        <v>939</v>
       </c>
       <c r="F493" s="8"/>
       <c r="G493" s="10"/>
@@ -11310,11 +11297,11 @@
       <c r="A494" s="9"/>
       <c r="B494" s="27"/>
       <c r="C494" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D494" s="9"/>
       <c r="E494" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F494" s="8"/>
       <c r="G494" s="10"/>
@@ -11324,11 +11311,11 @@
       <c r="A495" s="9"/>
       <c r="B495" s="27"/>
       <c r="C495" s="8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D495" s="9"/>
       <c r="E495" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F495" s="8"/>
       <c r="G495" s="10"/>
@@ -11338,11 +11325,11 @@
       <c r="A496" s="9"/>
       <c r="B496" s="27"/>
       <c r="C496" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D496" s="9"/>
       <c r="E496" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F496" s="8"/>
       <c r="G496" s="10"/>
@@ -11352,25 +11339,29 @@
       <c r="A497" s="9"/>
       <c r="B497" s="27"/>
       <c r="C497" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D497" s="9"/>
       <c r="E497" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F497" s="8"/>
       <c r="G497" s="10"/>
       <c r="H497" s="8"/>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="9"/>
-      <c r="B498" s="27"/>
-      <c r="C498" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="D498" s="9"/>
+      <c r="A498" s="35">
+        <v>56</v>
+      </c>
+      <c r="B498" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="C498" s="27"/>
+      <c r="D498" s="35" t="s">
+        <v>901</v>
+      </c>
       <c r="E498" s="9" t="s">
-        <v>949</v>
+        <v>902</v>
       </c>
       <c r="F498" s="8"/>
       <c r="G498" s="10"/>
@@ -11378,7 +11369,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="35">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B499" s="27" t="s">
         <v>903</v>
@@ -11396,7 +11387,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="35">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B500" s="27" t="s">
         <v>906</v>
@@ -11413,33 +11404,25 @@
       <c r="H500" s="8"/>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="35">
-        <v>58</v>
-      </c>
-      <c r="B501" s="27" t="s">
+      <c r="A501" s="35"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D501" s="9"/>
+      <c r="E501" s="9" t="s">
         <v>909</v>
-      </c>
-      <c r="C501" s="27"/>
-      <c r="D501" s="35" t="s">
-        <v>910</v>
-      </c>
-      <c r="E501" s="9" t="s">
-        <v>911</v>
       </c>
       <c r="F501" s="8"/>
       <c r="G501" s="10"/>
       <c r="H501" s="8"/>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="35"/>
+      <c r="A502" s="9"/>
       <c r="B502" s="8"/>
-      <c r="C502" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="C502" s="8"/>
       <c r="D502" s="9"/>
-      <c r="E502" s="9" t="s">
-        <v>912</v>
-      </c>
+      <c r="E502" s="9"/>
       <c r="F502" s="8"/>
       <c r="G502" s="10"/>
       <c r="H502" s="8"/>
@@ -11454,45 +11437,51 @@
       <c r="G503" s="10"/>
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="9"/>
-      <c r="B504" s="8"/>
-      <c r="C504" s="8"/>
-      <c r="D504" s="9"/>
-      <c r="E504" s="9"/>
-      <c r="F504" s="8"/>
-      <c r="G504" s="10"/>
+      <c r="B504" s="36" t="s">
+        <v>947</v>
+      </c>
+      <c r="C504" s="38"/>
+      <c r="D504" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="E504" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="F504" s="22"/>
+      <c r="G504" s="22"/>
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A505" s="9"/>
-      <c r="B505" s="36" t="s">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" s="35">
+        <v>59</v>
+      </c>
+      <c r="B505" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C505" s="8"/>
+      <c r="D505" s="35" t="s">
+        <v>949</v>
+      </c>
+      <c r="E505" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F505" s="8"/>
+      <c r="G505" s="10"/>
+      <c r="H505" s="8"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" s="9"/>
+      <c r="B506" s="8"/>
+      <c r="C506" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D506" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="C505" s="38"/>
-      <c r="D505" s="38" t="s">
-        <v>951</v>
-      </c>
-      <c r="E505" s="39" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F505" s="22"/>
-      <c r="G505" s="22"/>
-      <c r="H505" s="8"/>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506" s="35">
-        <v>59</v>
-      </c>
-      <c r="B506" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C506" s="8"/>
-      <c r="D506" s="35" t="s">
-        <v>952</v>
-      </c>
       <c r="E506" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F506" s="8"/>
       <c r="G506" s="10"/>
@@ -11502,13 +11491,11 @@
       <c r="A507" s="9"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D507" s="9" t="s">
-        <v>953</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="D507" s="9"/>
       <c r="E507" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F507" s="8"/>
       <c r="G507" s="10"/>
@@ -11518,11 +11505,11 @@
       <c r="A508" s="9"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D508" s="9"/>
       <c r="E508" s="9" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F508" s="8"/>
       <c r="G508" s="10"/>
@@ -11531,40 +11518,42 @@
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="9"/>
       <c r="B509" s="8"/>
-      <c r="C509" s="8" t="s">
-        <v>955</v>
-      </c>
+      <c r="C509" s="8"/>
       <c r="D509" s="9"/>
-      <c r="E509" s="9" t="s">
-        <v>1008</v>
-      </c>
+      <c r="E509" s="9"/>
       <c r="F509" s="8"/>
       <c r="G509" s="10"/>
       <c r="H509" s="8"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="9"/>
-      <c r="B510" s="8"/>
+      <c r="A510" s="35">
+        <v>60</v>
+      </c>
+      <c r="B510" s="42" t="s">
+        <v>955</v>
+      </c>
       <c r="C510" s="8"/>
-      <c r="D510" s="9"/>
-      <c r="E510" s="9"/>
-      <c r="F510" s="8"/>
-      <c r="G510" s="10"/>
+      <c r="D510" s="35" t="s">
+        <v>953</v>
+      </c>
+      <c r="E510" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F510" s="22"/>
+      <c r="G510" s="22"/>
       <c r="H510" s="8"/>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" s="35">
-        <v>60</v>
-      </c>
-      <c r="B511" s="42" t="s">
-        <v>958</v>
-      </c>
-      <c r="C511" s="8"/>
-      <c r="D511" s="35" t="s">
+      <c r="A511" s="9"/>
+      <c r="B511" s="42"/>
+      <c r="C511" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="D511" s="9" t="s">
         <v>956</v>
       </c>
       <c r="E511" s="9" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F511" s="22"/>
       <c r="G511" s="22"/>
@@ -11574,13 +11563,13 @@
       <c r="A512" s="9"/>
       <c r="B512" s="42"/>
       <c r="C512" s="8" t="s">
-        <v>957</v>
+        <v>202</v>
       </c>
       <c r="D512" s="9" t="s">
         <v>959</v>
       </c>
       <c r="E512" s="9" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F512" s="22"/>
       <c r="G512" s="22"/>
@@ -11593,10 +11582,10 @@
         <v>202</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E513" s="9" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F513" s="22"/>
       <c r="G513" s="22"/>
@@ -11606,13 +11595,11 @@
       <c r="A514" s="9"/>
       <c r="B514" s="42"/>
       <c r="C514" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D514" s="9" t="s">
-        <v>963</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D514" s="9"/>
       <c r="E514" s="9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F514" s="22"/>
       <c r="G514" s="22"/>
@@ -11622,11 +11609,11 @@
       <c r="A515" s="9"/>
       <c r="B515" s="42"/>
       <c r="C515" s="8" t="s">
-        <v>442</v>
+        <v>855</v>
       </c>
       <c r="D515" s="9"/>
       <c r="E515" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F515" s="22"/>
       <c r="G515" s="22"/>
@@ -11634,27 +11621,27 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="9"/>
-      <c r="B516" s="42"/>
+      <c r="B516" s="8"/>
       <c r="C516" s="8" t="s">
-        <v>858</v>
+        <v>961</v>
       </c>
       <c r="D516" s="9"/>
       <c r="E516" s="9" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F516" s="22"/>
-      <c r="G516" s="22"/>
+        <v>1012</v>
+      </c>
+      <c r="F516" s="8"/>
+      <c r="G516" s="10"/>
       <c r="H516" s="8"/>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="9"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D517" s="9"/>
       <c r="E517" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F517" s="8"/>
       <c r="G517" s="10"/>
@@ -11663,13 +11650,9 @@
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="9"/>
       <c r="B518" s="8"/>
-      <c r="C518" s="8" t="s">
-        <v>965</v>
-      </c>
+      <c r="C518" s="8"/>
       <c r="D518" s="9"/>
-      <c r="E518" s="9" t="s">
-        <v>1016</v>
-      </c>
+      <c r="E518" s="9"/>
       <c r="F518" s="8"/>
       <c r="G518" s="10"/>
       <c r="H518" s="8"/>
@@ -11677,9 +11660,15 @@
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="9"/>
       <c r="B519" s="8"/>
-      <c r="C519" s="8"/>
-      <c r="D519" s="9"/>
-      <c r="E519" s="9"/>
+      <c r="C519" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D519" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="E519" s="9" t="s">
+        <v>1014</v>
+      </c>
       <c r="F519" s="8"/>
       <c r="G519" s="10"/>
       <c r="H519" s="8"/>
@@ -11688,45 +11677,45 @@
       <c r="A520" s="9"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="D520" s="9" t="s">
-        <v>961</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="D520" s="9"/>
       <c r="E520" s="9" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F520" s="8"/>
       <c r="G520" s="10"/>
       <c r="H520" s="8"/>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A521" s="9"/>
-      <c r="B521" s="8"/>
-      <c r="C521" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="D521" s="9"/>
+      <c r="A521" s="35">
+        <v>61</v>
+      </c>
+      <c r="B521" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C521" s="8"/>
+      <c r="D521" s="35" t="s">
+        <v>964</v>
+      </c>
       <c r="E521" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F521" s="8"/>
       <c r="G521" s="10"/>
       <c r="H521" s="8"/>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A522" s="35">
-        <v>61</v>
-      </c>
-      <c r="B522" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C522" s="8"/>
-      <c r="D522" s="35" t="s">
-        <v>967</v>
-      </c>
-      <c r="E522" s="9" t="s">
-        <v>1019</v>
+      <c r="A522" s="9"/>
+      <c r="B522" s="8"/>
+      <c r="C522" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="D522" s="23" t="s">
+        <v>966</v>
+      </c>
+      <c r="E522" s="23" t="s">
+        <v>1017</v>
       </c>
       <c r="F522" s="8"/>
       <c r="G522" s="10"/>
@@ -11735,14 +11724,14 @@
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="9"/>
       <c r="B523" s="8"/>
-      <c r="C523" s="22" t="s">
-        <v>968</v>
-      </c>
-      <c r="D523" s="23" t="s">
-        <v>969</v>
-      </c>
-      <c r="E523" s="23" t="s">
-        <v>1020</v>
+      <c r="C523" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D523" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="E523" s="9" t="s">
+        <v>1018</v>
       </c>
       <c r="F523" s="8"/>
       <c r="G523" s="10"/>
@@ -11752,13 +11741,13 @@
       <c r="A524" s="9"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8" t="s">
-        <v>204</v>
+        <v>970</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E524" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F524" s="8"/>
       <c r="G524" s="10"/>
@@ -11768,13 +11757,13 @@
       <c r="A525" s="9"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="E525" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F525" s="8"/>
       <c r="G525" s="10"/>
@@ -11784,13 +11773,13 @@
       <c r="A526" s="9"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="E526" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F526" s="8"/>
       <c r="G526" s="10"/>
@@ -11798,34 +11787,32 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="9"/>
-      <c r="B527" s="8"/>
-      <c r="C527" s="8" t="s">
-        <v>974</v>
+      <c r="B527" s="22"/>
+      <c r="C527" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="D527" s="9" t="s">
         <v>972</v>
       </c>
       <c r="E527" s="9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F527" s="8"/>
-      <c r="G527" s="10"/>
+        <v>1022</v>
+      </c>
+      <c r="F527" s="22"/>
+      <c r="G527" s="22"/>
       <c r="H527" s="8"/>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="9"/>
-      <c r="B528" s="22"/>
-      <c r="C528" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D528" s="9" t="s">
-        <v>975</v>
-      </c>
+      <c r="B528" s="8"/>
+      <c r="C528" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="D528" s="9"/>
       <c r="E528" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F528" s="22"/>
-      <c r="G528" s="22"/>
+        <v>1023</v>
+      </c>
+      <c r="F528" s="8"/>
+      <c r="G528" s="10"/>
       <c r="H528" s="8"/>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -11836,35 +11823,35 @@
       </c>
       <c r="D529" s="9"/>
       <c r="E529" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F529" s="8"/>
       <c r="G529" s="10"/>
       <c r="H529" s="8"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="9"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D530" s="9"/>
       <c r="E530" s="9" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F530" s="8"/>
       <c r="G530" s="10"/>
       <c r="H530" s="8"/>
     </row>
-    <row r="531" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="9"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D531" s="9"/>
       <c r="E531" s="9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F531" s="8"/>
       <c r="G531" s="10"/>
@@ -11874,11 +11861,11 @@
       <c r="A532" s="9"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D532" s="9"/>
       <c r="E532" s="9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F532" s="8"/>
       <c r="G532" s="10"/>
@@ -11888,11 +11875,11 @@
       <c r="A533" s="9"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D533" s="9"/>
       <c r="E533" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F533" s="8"/>
       <c r="G533" s="10"/>
@@ -11901,12 +11888,12 @@
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="9"/>
       <c r="B534" s="8"/>
-      <c r="C534" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="D534" s="9"/>
+      <c r="C534" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="D534" s="23"/>
       <c r="E534" s="9" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F534" s="8"/>
       <c r="G534" s="10"/>
@@ -11915,12 +11902,12 @@
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="9"/>
       <c r="B535" s="8"/>
-      <c r="C535" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="D535" s="23"/>
+      <c r="C535" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="D535" s="9"/>
       <c r="E535" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F535" s="8"/>
       <c r="G535" s="10"/>
@@ -11930,11 +11917,11 @@
       <c r="A536" s="9"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8" t="s">
-        <v>984</v>
+        <v>690</v>
       </c>
       <c r="D536" s="9"/>
       <c r="E536" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F536" s="8"/>
       <c r="G536" s="10"/>
@@ -11944,11 +11931,11 @@
       <c r="A537" s="9"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8" t="s">
-        <v>690</v>
+        <v>982</v>
       </c>
       <c r="D537" s="9"/>
       <c r="E537" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F537" s="8"/>
       <c r="G537" s="10"/>
@@ -11958,11 +11945,11 @@
       <c r="A538" s="9"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D538" s="9"/>
       <c r="E538" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F538" s="8"/>
       <c r="G538" s="10"/>
@@ -11972,43 +11959,45 @@
       <c r="A539" s="9"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D539" s="9"/>
       <c r="E539" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F539" s="8"/>
       <c r="G539" s="10"/>
       <c r="H539" s="8"/>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A540" s="9"/>
-      <c r="B540" s="8"/>
-      <c r="C540" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="D540" s="9"/>
+      <c r="A540" s="35">
+        <v>62</v>
+      </c>
+      <c r="B540" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="C540" s="8"/>
+      <c r="D540" s="35" t="s">
+        <v>986</v>
+      </c>
       <c r="E540" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F540" s="8"/>
       <c r="G540" s="10"/>
       <c r="H540" s="8"/>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A541" s="35">
-        <v>62</v>
-      </c>
-      <c r="B541" s="27" t="s">
+      <c r="A541" s="9"/>
+      <c r="B541" s="8"/>
+      <c r="C541" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="D541" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="C541" s="8"/>
-      <c r="D541" s="35" t="s">
-        <v>989</v>
-      </c>
       <c r="E541" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F541" s="8"/>
       <c r="G541" s="10"/>
@@ -12018,13 +12007,13 @@
       <c r="A542" s="9"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8" t="s">
-        <v>990</v>
+        <v>202</v>
       </c>
       <c r="D542" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E542" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F542" s="8"/>
       <c r="G542" s="10"/>
@@ -12037,54 +12026,52 @@
         <v>202</v>
       </c>
       <c r="D543" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E543" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F543" s="8"/>
       <c r="G543" s="10"/>
-      <c r="H543" s="8"/>
+      <c r="H543" s="44"/>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A544" s="9"/>
+      <c r="A544" s="23"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D544" s="9" t="s">
-        <v>993</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D544" s="9"/>
       <c r="E544" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F544" s="8"/>
       <c r="G544" s="10"/>
-      <c r="H544" s="44"/>
+      <c r="H544" s="22"/>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A545" s="23"/>
+      <c r="A545" s="43"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D545" s="9"/>
       <c r="E545" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F545" s="8"/>
       <c r="G545" s="10"/>
-      <c r="H545" s="22"/>
+      <c r="H545" s="44"/>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="43"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8" t="s">
-        <v>442</v>
+        <v>974</v>
       </c>
       <c r="D546" s="9"/>
       <c r="E546" s="9" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F546" s="8"/>
       <c r="G546" s="10"/>
@@ -12094,73 +12081,73 @@
       <c r="A547" s="43"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="D547" s="9"/>
       <c r="E547" s="9" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F547" s="8"/>
       <c r="G547" s="10"/>
       <c r="H547" s="44"/>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A548" s="43"/>
+      <c r="A548" s="23"/>
       <c r="B548" s="8"/>
-      <c r="C548" s="8" t="s">
-        <v>994</v>
-      </c>
+      <c r="C548" s="8"/>
       <c r="D548" s="9"/>
-      <c r="E548" s="9" t="s">
-        <v>1044</v>
-      </c>
+      <c r="E548" s="9"/>
       <c r="F548" s="8"/>
       <c r="G548" s="10"/>
-      <c r="H548" s="44"/>
+      <c r="H548" s="22"/>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A549" s="23"/>
+      <c r="A549" s="9"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
       <c r="D549" s="9"/>
       <c r="E549" s="9"/>
       <c r="F549" s="8"/>
       <c r="G549" s="10"/>
-      <c r="H549" s="22"/>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A550" s="9"/>
-      <c r="B550" s="8"/>
-      <c r="C550" s="8"/>
-      <c r="D550" s="9"/>
-      <c r="E550" s="9"/>
-      <c r="F550" s="8"/>
-      <c r="G550" s="10"/>
-      <c r="H550" s="8"/>
-    </row>
-    <row r="551" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A551" s="23"/>
-      <c r="B551" s="36" t="s">
+      <c r="H549" s="8"/>
+    </row>
+    <row r="550" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A550" s="23"/>
+      <c r="B550" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C551" s="6"/>
-      <c r="D551" s="7"/>
-      <c r="E551" s="7"/>
-      <c r="F551" s="6"/>
-      <c r="G551" s="6"/>
-      <c r="H551" s="6"/>
+      <c r="C550" s="6"/>
+      <c r="D550" s="7"/>
+      <c r="E550" s="7"/>
+      <c r="F550" s="6"/>
+      <c r="G550" s="6"/>
+      <c r="H550" s="6"/>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="9"/>
+      <c r="B551" s="8"/>
+      <c r="C551" s="27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D551" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E551" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F551" s="8"/>
+      <c r="G551" s="10"/>
+      <c r="H551" s="8"/>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="9"/>
       <c r="B552" s="8"/>
-      <c r="C552" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D552" s="9" t="s">
-        <v>1046</v>
-      </c>
+      <c r="C552" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="D552" s="9"/>
       <c r="E552" s="9" t="s">
-        <v>1004</v>
+        <v>1044</v>
       </c>
       <c r="F552" s="8"/>
       <c r="G552" s="10"/>
@@ -12169,13 +12156,9 @@
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="9"/>
       <c r="B553" s="8"/>
-      <c r="C553" s="8" t="s">
-        <v>858</v>
-      </c>
+      <c r="C553" s="8"/>
       <c r="D553" s="9"/>
-      <c r="E553" s="9" t="s">
-        <v>1047</v>
-      </c>
+      <c r="E553" s="9"/>
       <c r="F553" s="8"/>
       <c r="G553" s="10"/>
       <c r="H553" s="8"/>
@@ -12203,9 +12186,15 @@
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="9"/>
       <c r="B556" s="8"/>
-      <c r="C556" s="8"/>
-      <c r="D556" s="9"/>
-      <c r="E556" s="9"/>
+      <c r="C556" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D556" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E556" s="9" t="s">
+        <v>1042</v>
+      </c>
       <c r="F556" s="8"/>
       <c r="G556" s="10"/>
       <c r="H556" s="8"/>
@@ -12213,14 +12202,12 @@
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="9"/>
       <c r="B557" s="8"/>
-      <c r="C557" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="D557" s="9" t="s">
-        <v>1048</v>
-      </c>
+      <c r="C557" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D557" s="9"/>
       <c r="E557" s="9" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F557" s="8"/>
       <c r="G557" s="10"/>
@@ -12230,11 +12217,11 @@
       <c r="A558" s="9"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8" t="s">
-        <v>338</v>
+        <v>442</v>
       </c>
       <c r="D558" s="9"/>
       <c r="E558" s="9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F558" s="8"/>
       <c r="G558" s="10"/>
@@ -12244,11 +12231,11 @@
       <c r="A559" s="9"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="D559" s="9"/>
       <c r="E559" s="9" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F559" s="8"/>
       <c r="G559" s="10"/>
@@ -12258,11 +12245,11 @@
       <c r="A560" s="9"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="D560" s="9"/>
       <c r="E560" s="9" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F560" s="8"/>
       <c r="G560" s="10"/>
@@ -12271,13 +12258,9 @@
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="9"/>
       <c r="B561" s="8"/>
-      <c r="C561" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D561" s="9"/>
-      <c r="E561" s="9" t="s">
-        <v>1052</v>
-      </c>
+      <c r="C561" s="22"/>
+      <c r="D561" s="23"/>
+      <c r="E561" s="23"/>
       <c r="F561" s="8"/>
       <c r="G561" s="10"/>
       <c r="H561" s="8"/>
@@ -12285,9 +12268,13 @@
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="9"/>
       <c r="B562" s="8"/>
-      <c r="C562" s="22"/>
-      <c r="D562" s="23"/>
-      <c r="E562" s="23"/>
+      <c r="C562" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D562" s="9"/>
+      <c r="E562" s="9" t="s">
+        <v>1051</v>
+      </c>
       <c r="F562" s="8"/>
       <c r="G562" s="10"/>
       <c r="H562" s="8"/>
@@ -12295,66 +12282,66 @@
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="9"/>
       <c r="B563" s="8"/>
-      <c r="C563" s="8" t="s">
-        <v>1053</v>
-      </c>
+      <c r="C563" s="8"/>
       <c r="D563" s="9"/>
-      <c r="E563" s="9" t="s">
-        <v>1054</v>
-      </c>
+      <c r="E563" s="9"/>
       <c r="F563" s="8"/>
       <c r="G563" s="10"/>
       <c r="H563" s="8"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="9"/>
       <c r="B564" s="8"/>
-      <c r="C564" s="8"/>
-      <c r="D564" s="9"/>
-      <c r="E564" s="9"/>
+      <c r="C564" s="27" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D564" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E564" s="9" t="s">
+        <v>1054</v>
+      </c>
       <c r="F564" s="8"/>
       <c r="G564" s="10"/>
       <c r="H564" s="8"/>
     </row>
-    <row r="565" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="9"/>
-      <c r="B565" s="8"/>
-      <c r="C565" s="27" t="s">
+      <c r="B565" s="22"/>
+      <c r="C565" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="D565" s="9" t="s">
+      <c r="D565" s="9"/>
+      <c r="E565" s="9" t="s">
         <v>1056</v>
       </c>
-      <c r="E565" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F565" s="8"/>
-      <c r="G565" s="10"/>
+      <c r="F565" s="22"/>
+      <c r="G565" s="22"/>
       <c r="H565" s="8"/>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="9"/>
-      <c r="B566" s="22"/>
+      <c r="B566" s="8"/>
       <c r="C566" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D566" s="9"/>
       <c r="E566" s="9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F566" s="22"/>
-      <c r="G566" s="22"/>
+        <v>1058</v>
+      </c>
+      <c r="F566" s="8"/>
+      <c r="G566" s="10"/>
       <c r="H566" s="8"/>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="9"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D567" s="9"/>
       <c r="E567" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F567" s="8"/>
       <c r="G567" s="10"/>
@@ -12363,13 +12350,9 @@
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="9"/>
       <c r="B568" s="8"/>
-      <c r="C568" s="8" t="s">
-        <v>1062</v>
-      </c>
+      <c r="C568" s="8"/>
       <c r="D568" s="9"/>
-      <c r="E568" s="9" t="s">
-        <v>1063</v>
-      </c>
+      <c r="E568" s="9"/>
       <c r="F568" s="8"/>
       <c r="G568" s="10"/>
       <c r="H568" s="8"/>
@@ -12377,9 +12360,15 @@
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="9"/>
       <c r="B569" s="8"/>
-      <c r="C569" s="8"/>
-      <c r="D569" s="9"/>
-      <c r="E569" s="9"/>
+      <c r="C569" s="27" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D569" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E569" s="9" t="s">
+        <v>1063</v>
+      </c>
       <c r="F569" s="8"/>
       <c r="G569" s="10"/>
       <c r="H569" s="8"/>
@@ -12387,15 +12376,9 @@
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="9"/>
       <c r="B570" s="8"/>
-      <c r="C570" s="27" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D570" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E570" s="9" t="s">
-        <v>1066</v>
-      </c>
+      <c r="C570" s="8"/>
+      <c r="D570" s="9"/>
+      <c r="E570" s="9"/>
       <c r="F570" s="8"/>
       <c r="G570" s="10"/>
       <c r="H570" s="8"/>
@@ -12410,12 +12393,12 @@
       <c r="G571" s="10"/>
       <c r="H571" s="8"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="9"/>
       <c r="B572" s="8"/>
-      <c r="C572" s="8"/>
-      <c r="D572" s="9"/>
-      <c r="E572" s="9"/>
+      <c r="C572" s="22"/>
+      <c r="D572" s="23"/>
+      <c r="E572" s="23"/>
       <c r="F572" s="8"/>
       <c r="G572" s="10"/>
       <c r="H572" s="8"/>
@@ -12423,9 +12406,9 @@
     <row r="573" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="9"/>
       <c r="B573" s="8"/>
-      <c r="C573" s="22"/>
-      <c r="D573" s="23"/>
-      <c r="E573" s="23"/>
+      <c r="C573" s="8"/>
+      <c r="D573" s="9"/>
+      <c r="E573" s="9"/>
       <c r="F573" s="8"/>
       <c r="G573" s="10"/>
       <c r="H573" s="8"/>
@@ -12440,25 +12423,25 @@
       <c r="G574" s="10"/>
       <c r="H574" s="8"/>
     </row>
-    <row r="575" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="9"/>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="23"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
       <c r="D575" s="9"/>
       <c r="E575" s="9"/>
       <c r="F575" s="8"/>
       <c r="G575" s="10"/>
-      <c r="H575" s="8"/>
+      <c r="H575" s="22"/>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A576" s="23"/>
+      <c r="A576" s="9"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
       <c r="D576" s="9"/>
       <c r="E576" s="9"/>
       <c r="F576" s="8"/>
       <c r="G576" s="10"/>
-      <c r="H576" s="22"/>
+      <c r="H576" s="8"/>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="9"/>
@@ -12511,24 +12494,24 @@
       <c r="H581" s="8"/>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A582" s="9"/>
+      <c r="A582" s="23"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
       <c r="D582" s="9"/>
       <c r="E582" s="9"/>
       <c r="F582" s="8"/>
       <c r="G582" s="10"/>
-      <c r="H582" s="8"/>
+      <c r="H582" s="22"/>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A583" s="23"/>
+      <c r="A583" s="9"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
       <c r="D583" s="9"/>
       <c r="E583" s="9"/>
       <c r="F583" s="8"/>
       <c r="G583" s="10"/>
-      <c r="H583" s="22"/>
+      <c r="H583" s="8"/>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="9"/>
@@ -12621,24 +12604,24 @@
       <c r="H592" s="8"/>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A593" s="9"/>
+      <c r="A593" s="23"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
       <c r="D593" s="9"/>
       <c r="E593" s="9"/>
       <c r="F593" s="8"/>
       <c r="G593" s="10"/>
-      <c r="H593" s="8"/>
+      <c r="H593" s="22"/>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A594" s="23"/>
+      <c r="A594" s="9"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
       <c r="D594" s="9"/>
       <c r="E594" s="9"/>
       <c r="F594" s="8"/>
-      <c r="G594" s="10"/>
-      <c r="H594" s="22"/>
+      <c r="G594" s="12"/>
+      <c r="H594" s="8"/>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="9"/>
@@ -12650,7 +12633,7 @@
       <c r="G595" s="12"/>
       <c r="H595" s="8"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="9"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -12660,7 +12643,7 @@
       <c r="G596" s="12"/>
       <c r="H596" s="8"/>
     </row>
-    <row r="597" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="9"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -12688,7 +12671,7 @@
       <c r="E599" s="9"/>
       <c r="F599" s="8"/>
       <c r="G599" s="12"/>
-      <c r="H599" s="8"/>
+      <c r="H599" s="10"/>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="9"/>
@@ -12698,9 +12681,9 @@
       <c r="E600" s="9"/>
       <c r="F600" s="8"/>
       <c r="G600" s="12"/>
-      <c r="H600" s="10"/>
-    </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H600" s="8"/>
+    </row>
+    <row r="601" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="9"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -12727,7 +12710,7 @@
       <c r="D603" s="9"/>
       <c r="E603" s="9"/>
       <c r="F603" s="8"/>
-      <c r="G603" s="12"/>
+      <c r="G603" s="10"/>
       <c r="H603" s="8"/>
     </row>
     <row r="604" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12750,24 +12733,24 @@
       <c r="G605" s="10"/>
       <c r="H605" s="8"/>
     </row>
-    <row r="606" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="9"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
       <c r="D606" s="9"/>
       <c r="E606" s="9"/>
       <c r="F606" s="8"/>
-      <c r="G606" s="10"/>
+      <c r="G606" s="12"/>
       <c r="H606" s="8"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="9"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
       <c r="D607" s="9"/>
       <c r="E607" s="9"/>
       <c r="F607" s="8"/>
-      <c r="G607" s="12"/>
+      <c r="G607" s="10"/>
       <c r="H607" s="8"/>
     </row>
     <row r="608" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -12908,7 +12891,7 @@
       <c r="E621" s="9"/>
       <c r="F621" s="8"/>
       <c r="G621" s="10"/>
-      <c r="H621" s="8"/>
+      <c r="H621" s="9"/>
     </row>
     <row r="622" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="9"/>
@@ -12927,7 +12910,7 @@
       <c r="D623" s="9"/>
       <c r="E623" s="9"/>
       <c r="F623" s="8"/>
-      <c r="G623" s="10"/>
+      <c r="G623" s="8"/>
       <c r="H623" s="9"/>
     </row>
     <row r="624" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -13008,7 +12991,7 @@
       <c r="E631" s="9"/>
       <c r="F631" s="8"/>
       <c r="G631" s="8"/>
-      <c r="H631" s="9"/>
+      <c r="H631" s="8"/>
     </row>
     <row r="632" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="9"/>
@@ -13080,7 +13063,7 @@
       <c r="G638" s="8"/>
       <c r="H638" s="8"/>
     </row>
-    <row r="639" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="9"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -13088,7 +13071,7 @@
       <c r="E639" s="9"/>
       <c r="F639" s="8"/>
       <c r="G639" s="8"/>
-      <c r="H639" s="8"/>
+      <c r="H639" s="9"/>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="9"/>
@@ -13098,7 +13081,7 @@
       <c r="E640" s="9"/>
       <c r="F640" s="8"/>
       <c r="G640" s="8"/>
-      <c r="H640" s="9"/>
+      <c r="H640" s="8"/>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="9"/>
@@ -13110,7 +13093,7 @@
       <c r="G641" s="8"/>
       <c r="H641" s="8"/>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="9"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -13120,7 +13103,7 @@
       <c r="G642" s="8"/>
       <c r="H642" s="8"/>
     </row>
-    <row r="643" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="9"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -13129,6 +13112,7 @@
       <c r="F643" s="8"/>
       <c r="G643" s="8"/>
       <c r="H643" s="8"/>
+      <c r="I643" s="20"/>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="9"/>
@@ -13139,7 +13123,6 @@
       <c r="F644" s="8"/>
       <c r="G644" s="8"/>
       <c r="H644" s="8"/>
-      <c r="I644" s="20"/>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="9"/>
@@ -13653,12 +13636,9 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="9"/>
-      <c r="B696" s="8"/>
       <c r="C696" s="8"/>
       <c r="D696" s="9"/>
       <c r="E696" s="9"/>
-      <c r="F696" s="8"/>
-      <c r="G696" s="8"/>
       <c r="H696" s="8"/>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
@@ -13705,9 +13685,6 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="9"/>
-      <c r="C703" s="8"/>
-      <c r="D703" s="9"/>
-      <c r="E703" s="9"/>
       <c r="H703" s="8"/>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
@@ -13789,10 +13766,6 @@
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="9"/>
       <c r="H723" s="8"/>
-    </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A724" s="9"/>
-      <c r="H724" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Каталог КА-160.xlsx
+++ b/Каталог КА-160.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1073">
   <si>
     <t>Номер констр.документации</t>
   </si>
@@ -2904,9 +2904,6 @@
     <t xml:space="preserve">Склад битума </t>
   </si>
   <si>
-    <t>06-100СБ-000.00.00.000-М(американский насос)</t>
-  </si>
-  <si>
     <t>06РБВ-001.00.00.000СБ</t>
   </si>
   <si>
@@ -2931,12 +2928,6 @@
     <t>06100СБ-003.05.00.00.000СБ</t>
   </si>
   <si>
-    <t>Шаровый кран-1шт.</t>
-  </si>
-  <si>
-    <t>06100СБ-003.07.00.000-ДСБ</t>
-  </si>
-  <si>
     <t>NM-001-00-00-001-01</t>
   </si>
   <si>
@@ -3102,9 +3093,6 @@
     <t>6.100.3.5.19</t>
   </si>
   <si>
-    <t>6.100.3.7.Д</t>
-  </si>
-  <si>
     <t>6.100.3.7.8.Д</t>
   </si>
   <si>
@@ -3310,6 +3298,9 @@
   </si>
   <si>
     <t>Лента транспортёрная -1 шт.</t>
+  </si>
+  <si>
+    <t>06-100СБ-000.00.00.000-М</t>
   </si>
 </sst>
 </file>
@@ -3946,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B471" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+    <sheetView tabSelected="1" topLeftCell="B513" workbookViewId="0">
+      <selection activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5338,7 +5329,7 @@
         <v>389</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5890,7 +5881,7 @@
         <v>54</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -6154,7 +6145,7 @@
         <v>64</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -6816,7 +6807,7 @@
         <v>91</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -7356,7 +7347,7 @@
       <c r="A229" s="9"/>
       <c r="B229" s="8"/>
       <c r="C229" s="27" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>537</v>
@@ -7372,13 +7363,13 @@
       <c r="A230" s="9"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F230" s="8"/>
       <c r="G230" s="10"/>
@@ -7392,7 +7383,7 @@
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F231" s="8"/>
       <c r="G231" s="10"/>
@@ -7406,7 +7397,7 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="F232" s="8"/>
       <c r="G232" s="10"/>
@@ -7966,7 +7957,7 @@
         <v>103</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -8000,7 +7991,7 @@
         <v>106</v>
       </c>
       <c r="E274" s="26" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="10"/>
@@ -8016,7 +8007,7 @@
         <v>108</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="10"/>
@@ -8032,7 +8023,7 @@
         <v>110</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="10"/>
@@ -8047,10 +8038,10 @@
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="9" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F277" s="8"/>
       <c r="G277" s="10"/>
@@ -8652,7 +8643,7 @@
       </c>
       <c r="D317" s="9"/>
       <c r="E317" s="26" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F317" s="8"/>
       <c r="G317" s="10"/>
@@ -9352,7 +9343,7 @@
         <v>764</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -9642,7 +9633,7 @@
       </c>
       <c r="D383" s="9"/>
       <c r="E383" s="9" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F383" s="8"/>
       <c r="G383" s="10"/>
@@ -10333,7 +10324,7 @@
         <v>180</v>
       </c>
       <c r="E430" s="7" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
@@ -10826,7 +10817,7 @@
     <row r="466" spans="1:8" ht="30">
       <c r="A466" s="9"/>
       <c r="B466" s="36" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C466" s="38"/>
       <c r="D466" s="39"/>
@@ -10962,14 +10953,14 @@
         <v>48</v>
       </c>
       <c r="B474" s="27" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C474" s="8"/>
       <c r="D474" s="35" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E474" s="9" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F474" s="8"/>
       <c r="G474" s="10"/>
@@ -11119,7 +11110,7 @@
       <c r="A483" s="9"/>
       <c r="B483" s="27"/>
       <c r="C483" s="8" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D483" s="9" t="s">
         <v>909</v>
@@ -11225,7 +11216,7 @@
       <c r="A490" s="9"/>
       <c r="B490" s="27"/>
       <c r="C490" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D490" s="9" t="s">
         <v>922</v>
@@ -11378,7 +11369,7 @@
     <row r="500" spans="1:8">
       <c r="A500" s="35"/>
       <c r="B500" s="27" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="C500" s="27"/>
       <c r="D500" s="35"/>
@@ -11419,17 +11410,17 @@
       <c r="G503" s="10"/>
       <c r="H503" s="8"/>
     </row>
-    <row r="504" spans="1:8" ht="30">
+    <row r="504" spans="1:8">
       <c r="A504" s="9"/>
       <c r="B504" s="36" t="s">
         <v>939</v>
       </c>
       <c r="C504" s="38"/>
       <c r="D504" s="38" t="s">
-        <v>940</v>
+        <v>1072</v>
       </c>
       <c r="E504" s="39" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F504" s="22"/>
       <c r="G504" s="22"/>
@@ -11444,10 +11435,10 @@
       </c>
       <c r="C505" s="8"/>
       <c r="D505" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E505" s="9" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F505" s="8"/>
       <c r="G505" s="10"/>
@@ -11460,10 +11451,10 @@
         <v>199</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E506" s="9" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F506" s="8"/>
       <c r="G506" s="10"/>
@@ -11473,11 +11464,11 @@
       <c r="A507" s="9"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D507" s="9"/>
       <c r="E507" s="9" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F507" s="8"/>
       <c r="G507" s="10"/>
@@ -11487,11 +11478,11 @@
       <c r="A508" s="9"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D508" s="9"/>
       <c r="E508" s="9" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F508" s="8"/>
       <c r="G508" s="10"/>
@@ -11512,14 +11503,14 @@
         <v>60</v>
       </c>
       <c r="B510" s="42" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C510" s="8"/>
       <c r="D510" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E510" s="9" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F510" s="22"/>
       <c r="G510" s="22"/>
@@ -11529,13 +11520,13 @@
       <c r="A511" s="9"/>
       <c r="B511" s="42"/>
       <c r="C511" s="8" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D511" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E511" s="9" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F511" s="22"/>
       <c r="G511" s="22"/>
@@ -11548,10 +11539,10 @@
         <v>200</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E512" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F512" s="22"/>
       <c r="G512" s="22"/>
@@ -11564,10 +11555,10 @@
         <v>200</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E513" s="9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F513" s="22"/>
       <c r="G513" s="22"/>
@@ -11581,7 +11572,7 @@
       </c>
       <c r="D514" s="9"/>
       <c r="E514" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F514" s="22"/>
       <c r="G514" s="22"/>
@@ -11595,7 +11586,7 @@
       </c>
       <c r="D515" s="9"/>
       <c r="E515" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F515" s="22"/>
       <c r="G515" s="22"/>
@@ -11605,11 +11596,11 @@
       <c r="A516" s="9"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D516" s="9"/>
       <c r="E516" s="9" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F516" s="8"/>
       <c r="G516" s="10"/>
@@ -11619,11 +11610,11 @@
       <c r="A517" s="9"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D517" s="9"/>
       <c r="E517" s="9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F517" s="8"/>
       <c r="G517" s="10"/>
@@ -11642,15 +11633,9 @@
     <row r="519" spans="1:8">
       <c r="A519" s="9"/>
       <c r="B519" s="8"/>
-      <c r="C519" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="D519" s="9" t="s">
-        <v>950</v>
-      </c>
-      <c r="E519" s="9" t="s">
-        <v>1006</v>
-      </c>
+      <c r="C519" s="8"/>
+      <c r="D519" s="9"/>
+      <c r="E519" s="9"/>
       <c r="F519" s="8"/>
       <c r="G519" s="10"/>
       <c r="H519" s="8"/>
@@ -11659,11 +11644,11 @@
       <c r="A520" s="9"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D520" s="9"/>
       <c r="E520" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="F520" s="8"/>
       <c r="G520" s="10"/>
@@ -11678,10 +11663,10 @@
       </c>
       <c r="C521" s="8"/>
       <c r="D521" s="35" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E521" s="9" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F521" s="8"/>
       <c r="G521" s="10"/>
@@ -11691,13 +11676,13 @@
       <c r="A522" s="9"/>
       <c r="B522" s="8"/>
       <c r="C522" s="22" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D522" s="23" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E522" s="23" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="F522" s="8"/>
       <c r="G522" s="10"/>
@@ -11710,10 +11695,10 @@
         <v>202</v>
       </c>
       <c r="D523" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E523" s="9" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F523" s="8"/>
       <c r="G523" s="10"/>
@@ -11723,13 +11708,13 @@
       <c r="A524" s="9"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E524" s="9" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F524" s="8"/>
       <c r="G524" s="10"/>
@@ -11739,13 +11724,13 @@
       <c r="A525" s="9"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E525" s="9" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F525" s="8"/>
       <c r="G525" s="10"/>
@@ -11755,13 +11740,13 @@
       <c r="A526" s="9"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E526" s="9" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F526" s="8"/>
       <c r="G526" s="10"/>
@@ -11774,10 +11759,10 @@
         <v>203</v>
       </c>
       <c r="D527" s="9" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E527" s="9" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F527" s="22"/>
       <c r="G527" s="22"/>
@@ -11787,11 +11772,11 @@
       <c r="A528" s="9"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D528" s="9"/>
       <c r="E528" s="9" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F528" s="8"/>
       <c r="G528" s="10"/>
@@ -11801,11 +11786,11 @@
       <c r="A529" s="9"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D529" s="9"/>
       <c r="E529" s="9" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="F529" s="8"/>
       <c r="G529" s="10"/>
@@ -11815,11 +11800,11 @@
       <c r="A530" s="9"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D530" s="9"/>
       <c r="E530" s="9" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F530" s="8"/>
       <c r="G530" s="10"/>
@@ -11829,11 +11814,11 @@
       <c r="A531" s="9"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D531" s="9"/>
       <c r="E531" s="9" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F531" s="8"/>
       <c r="G531" s="10"/>
@@ -11843,11 +11828,11 @@
       <c r="A532" s="9"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D532" s="9"/>
       <c r="E532" s="9" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F532" s="8"/>
       <c r="G532" s="10"/>
@@ -11857,11 +11842,11 @@
       <c r="A533" s="9"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D533" s="9"/>
       <c r="E533" s="9" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F533" s="8"/>
       <c r="G533" s="10"/>
@@ -11870,13 +11855,9 @@
     <row r="534" spans="1:8">
       <c r="A534" s="9"/>
       <c r="B534" s="8"/>
-      <c r="C534" s="22" t="s">
-        <v>847</v>
-      </c>
+      <c r="C534" s="22"/>
       <c r="D534" s="23"/>
-      <c r="E534" s="9" t="s">
-        <v>1020</v>
-      </c>
+      <c r="E534" s="9"/>
       <c r="F534" s="8"/>
       <c r="G534" s="10"/>
       <c r="H534" s="8"/>
@@ -11885,11 +11866,11 @@
       <c r="A535" s="9"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D535" s="9"/>
       <c r="E535" s="9" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F535" s="8"/>
       <c r="G535" s="10"/>
@@ -11903,7 +11884,7 @@
       </c>
       <c r="D536" s="9"/>
       <c r="E536" s="9" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F536" s="8"/>
       <c r="G536" s="10"/>
@@ -11913,11 +11894,11 @@
       <c r="A537" s="9"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D537" s="9"/>
       <c r="E537" s="9" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F537" s="8"/>
       <c r="G537" s="10"/>
@@ -11927,11 +11908,11 @@
       <c r="A538" s="9"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D538" s="9"/>
       <c r="E538" s="9" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F538" s="8"/>
       <c r="G538" s="10"/>
@@ -11941,11 +11922,11 @@
       <c r="A539" s="9"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D539" s="9"/>
       <c r="E539" s="9" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F539" s="8"/>
       <c r="G539" s="10"/>
@@ -11956,14 +11937,14 @@
         <v>62</v>
       </c>
       <c r="B540" s="27" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C540" s="8"/>
       <c r="D540" s="35" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E540" s="9" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F540" s="8"/>
       <c r="G540" s="10"/>
@@ -11973,13 +11954,13 @@
       <c r="A541" s="9"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D541" s="9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E541" s="9" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F541" s="8"/>
       <c r="G541" s="10"/>
@@ -11992,10 +11973,10 @@
         <v>200</v>
       </c>
       <c r="D542" s="9" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E542" s="9" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F542" s="8"/>
       <c r="G542" s="10"/>
@@ -12008,10 +11989,10 @@
         <v>200</v>
       </c>
       <c r="D543" s="9" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E543" s="9" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F543" s="8"/>
       <c r="G543" s="10"/>
@@ -12025,7 +12006,7 @@
       </c>
       <c r="D544" s="9"/>
       <c r="E544" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F544" s="8"/>
       <c r="G544" s="10"/>
@@ -12039,7 +12020,7 @@
       </c>
       <c r="D545" s="9"/>
       <c r="E545" s="9" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F545" s="8"/>
       <c r="G545" s="10"/>
@@ -12049,11 +12030,11 @@
       <c r="A546" s="43"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D546" s="9"/>
       <c r="E546" s="9" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F546" s="8"/>
       <c r="G546" s="10"/>
@@ -12063,11 +12044,11 @@
       <c r="A547" s="43"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D547" s="9"/>
       <c r="E547" s="9" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F547" s="8"/>
       <c r="G547" s="10"/>
@@ -12109,13 +12090,13 @@
       <c r="A551" s="9"/>
       <c r="B551" s="8"/>
       <c r="C551" s="27" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D551" s="9" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E551" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F551" s="8"/>
       <c r="G551" s="10"/>
@@ -12129,7 +12110,7 @@
       </c>
       <c r="D552" s="9"/>
       <c r="E552" s="9" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F552" s="8"/>
       <c r="G552" s="10"/>
@@ -12172,10 +12153,10 @@
         <v>205</v>
       </c>
       <c r="D556" s="9" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E556" s="9" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F556" s="8"/>
       <c r="G556" s="10"/>
@@ -12189,7 +12170,7 @@
       </c>
       <c r="D557" s="9"/>
       <c r="E557" s="9" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F557" s="8"/>
       <c r="G557" s="10"/>
@@ -12203,7 +12184,7 @@
       </c>
       <c r="D558" s="9"/>
       <c r="E558" s="9" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F558" s="8"/>
       <c r="G558" s="10"/>
@@ -12217,7 +12198,7 @@
       </c>
       <c r="D559" s="9"/>
       <c r="E559" s="9" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F559" s="8"/>
       <c r="G559" s="10"/>
@@ -12231,7 +12212,7 @@
       </c>
       <c r="D560" s="9"/>
       <c r="E560" s="9" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F560" s="8"/>
       <c r="G560" s="10"/>
@@ -12251,11 +12232,11 @@
       <c r="A562" s="9"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D562" s="9"/>
       <c r="E562" s="9" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F562" s="8"/>
       <c r="G562" s="10"/>
@@ -12275,13 +12256,13 @@
       <c r="A564" s="9"/>
       <c r="B564" s="8"/>
       <c r="C564" s="27" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D564" s="9" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E564" s="9" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="F564" s="8"/>
       <c r="G564" s="10"/>
@@ -12291,11 +12272,11 @@
       <c r="A565" s="9"/>
       <c r="B565" s="22"/>
       <c r="C565" s="8" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D565" s="9"/>
       <c r="E565" s="9" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F565" s="22"/>
       <c r="G565" s="22"/>
@@ -12305,11 +12286,11 @@
       <c r="A566" s="9"/>
       <c r="B566" s="8"/>
       <c r="C566" s="8" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D566" s="9"/>
       <c r="E566" s="9" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F566" s="8"/>
       <c r="G566" s="10"/>
@@ -12319,11 +12300,11 @@
       <c r="A567" s="9"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D567" s="9"/>
       <c r="E567" s="9" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F567" s="8"/>
       <c r="G567" s="10"/>
@@ -12343,13 +12324,13 @@
       <c r="A569" s="9"/>
       <c r="B569" s="8"/>
       <c r="C569" s="27" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D569" s="9" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E569" s="9" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F569" s="8"/>
       <c r="G569" s="10"/>

--- a/Каталог КА-160.xlsx
+++ b/Каталог КА-160.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="720" windowWidth="19440" windowHeight="10005"/>
+    <workbookView xWindow="240" yWindow="960" windowWidth="19440" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1080">
   <si>
     <t>Номер констр.документации</t>
   </si>
@@ -660,6 +660,9 @@
     <t>Заслонка</t>
   </si>
   <si>
+    <t>Система предварительного дозирования(дозаторы,тр-р)</t>
+  </si>
+  <si>
     <t>Транспортер сборный</t>
   </si>
   <si>
@@ -669,6 +672,9 @@
     <t>Опора роликов направляющих-3шт.</t>
   </si>
   <si>
+    <t>Штатив-6шт.</t>
+  </si>
+  <si>
     <t>Ролик-12шт.</t>
   </si>
   <si>
@@ -753,9 +759,6 @@
     <t>3.</t>
   </si>
   <si>
-    <t>4.23.</t>
-  </si>
-  <si>
     <t>Кронштейн</t>
   </si>
   <si>
@@ -792,9 +795,6 @@
     <t>6.90.1.51</t>
   </si>
   <si>
-    <t>04АБЗ-023.00.00.000СБ</t>
-  </si>
-  <si>
     <t>05АБЗ-023.04.00.000СБ</t>
   </si>
   <si>
@@ -2430,6 +2430,12 @@
     <t>4.14.6.9</t>
   </si>
   <si>
+    <t>04АБЗ-014.06.00.011</t>
+  </si>
+  <si>
+    <t>4.14.6.11</t>
+  </si>
+  <si>
     <t>04АБЗ-014.06.00.012</t>
   </si>
   <si>
@@ -2727,6 +2733,12 @@
     <t>2.46.6.</t>
   </si>
   <si>
+    <t>02АБЗ-046.07.00.000СБ</t>
+  </si>
+  <si>
+    <t>2.46.7.</t>
+  </si>
+  <si>
     <t>Ролик направляющий-16шт.</t>
   </si>
   <si>
@@ -2904,6 +2916,9 @@
     <t xml:space="preserve">Склад битума </t>
   </si>
   <si>
+    <t>06-100СБ-000.00.00.000-М(американский насос)</t>
+  </si>
+  <si>
     <t>06РБВ-001.00.00.000СБ</t>
   </si>
   <si>
@@ -3240,6 +3255,15 @@
     <t>6.247.</t>
   </si>
   <si>
+    <t>Колесо приводное-1шт.</t>
+  </si>
+  <si>
+    <t>06АБЗ-080.02.06.00-01СБ</t>
+  </si>
+  <si>
+    <t>6.80.2.6.Л</t>
+  </si>
+  <si>
     <t>Сектор приводной-2шт.</t>
   </si>
   <si>
@@ -3273,34 +3297,31 @@
     <t>8.10.83.</t>
   </si>
   <si>
-    <t>Звёздочка-1 шт.</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>4.14.2.29</t>
   </si>
   <si>
-    <t>Ролик прижимной</t>
-  </si>
-  <si>
-    <t>02АБЗ-046.024.00.000СБ</t>
-  </si>
-  <si>
-    <t>2.46.24.</t>
-  </si>
-  <si>
     <t>Шторка-10шт.</t>
   </si>
   <si>
-    <t>Барабан вдущий-5шт.</t>
-  </si>
-  <si>
-    <t>Устройство предварительного дозирования</t>
-  </si>
-  <si>
-    <t>Лента транспортёрная -1 шт.</t>
-  </si>
-  <si>
-    <t>06-100СБ-000.00.00.000-М</t>
+    <t>Барабан ведущий-5шт.</t>
+  </si>
+  <si>
+    <t>Питатель виатопа</t>
+  </si>
+  <si>
+    <t>04АБЗ-013.00.00.000-МСБ</t>
+  </si>
+  <si>
+    <t>4.13М</t>
+  </si>
+  <si>
+    <t>4.3.2.32</t>
+  </si>
+  <si>
+    <t>Заслонка -2шт.</t>
   </si>
 </sst>
 </file>
@@ -3935,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I723"/>
+  <dimension ref="A1:I725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B513" workbookViewId="0">
-      <selection activeCell="C539" sqref="C539"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="D572" sqref="D572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3955,19 +3976,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.5">
       <c r="A1" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -3999,17 +4020,17 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>211</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>209</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
@@ -4022,10 +4043,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10"/>
@@ -4038,10 +4059,10 @@
         <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="10"/>
@@ -4051,13 +4072,13 @@
       <c r="A6" s="41"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="10"/>
@@ -4067,13 +4088,13 @@
       <c r="A7" s="41"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="10"/>
@@ -4083,11 +4104,11 @@
       <c r="A8" s="41"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
@@ -4097,11 +4118,11 @@
       <c r="A9" s="41"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
@@ -4123,7 +4144,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>7</v>
@@ -4133,7 +4154,7 @@
         <v>386</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
@@ -4156,10 +4177,10 @@
         <v>62</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="10"/>
@@ -4169,13 +4190,13 @@
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>548</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="10"/>
@@ -4185,11 +4206,11 @@
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
@@ -4207,18 +4228,14 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="8"/>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
@@ -4233,7 +4250,7 @@
         <v>237</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="10"/>
@@ -4251,7 +4268,9 @@
       <c r="E19" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
     </row>
@@ -4877,7 +4896,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
@@ -4891,7 +4910,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
@@ -5329,7 +5348,7 @@
         <v>389</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -5881,7 +5900,7 @@
         <v>54</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -6145,7 +6164,7 @@
         <v>64</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -6807,7 +6826,7 @@
         <v>91</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -7077,7 +7096,7 @@
       <c r="A211" s="9"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9" t="s">
@@ -7347,13 +7366,13 @@
       <c r="A229" s="9"/>
       <c r="B229" s="8"/>
       <c r="C229" s="27" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>537</v>
+        <v>1058</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>538</v>
+        <v>1059</v>
       </c>
       <c r="F229" s="8"/>
       <c r="G229" s="10"/>
@@ -7363,13 +7382,13 @@
       <c r="A230" s="9"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="F230" s="8"/>
       <c r="G230" s="10"/>
@@ -7383,7 +7402,7 @@
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="F231" s="8"/>
       <c r="G231" s="10"/>
@@ -7397,7 +7416,7 @@
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="F232" s="8"/>
       <c r="G232" s="10"/>
@@ -7957,7 +7976,7 @@
         <v>103</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -7991,7 +8010,7 @@
         <v>106</v>
       </c>
       <c r="E274" s="26" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="F274" s="8"/>
       <c r="G274" s="10"/>
@@ -8007,7 +8026,7 @@
         <v>108</v>
       </c>
       <c r="E275" s="26" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="F275" s="8"/>
       <c r="G275" s="10"/>
@@ -8023,7 +8042,7 @@
         <v>110</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="F276" s="8"/>
       <c r="G276" s="10"/>
@@ -8038,10 +8057,10 @@
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="9" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="F277" s="8"/>
       <c r="G277" s="10"/>
@@ -8643,7 +8662,7 @@
       </c>
       <c r="D317" s="9"/>
       <c r="E317" s="26" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="F317" s="8"/>
       <c r="G317" s="10"/>
@@ -8677,9 +8696,10 @@
       <c r="A320" s="9">
         <v>23</v>
       </c>
-      <c r="C320" s="27" t="s">
+      <c r="B320" s="27" t="s">
         <v>125</v>
       </c>
+      <c r="C320" s="8"/>
       <c r="D320" s="9" t="s">
         <v>700</v>
       </c>
@@ -8736,9 +8756,10 @@
       <c r="A324" s="9">
         <v>24</v>
       </c>
-      <c r="C324" s="27" t="s">
+      <c r="B324" s="27" t="s">
         <v>126</v>
       </c>
+      <c r="C324" s="8"/>
       <c r="D324" s="9" t="s">
         <v>704</v>
       </c>
@@ -8783,7 +8804,7 @@
         <v>706</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F327" s="8"/>
       <c r="G327" s="10"/>
@@ -9343,7 +9364,7 @@
         <v>764</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -9633,7 +9654,7 @@
       </c>
       <c r="D383" s="9"/>
       <c r="E383" s="9" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="F383" s="8"/>
       <c r="G383" s="10"/>
@@ -9721,7 +9742,7 @@
         <v>771</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F389" s="8"/>
       <c r="G389" s="10"/>
@@ -9795,7 +9816,7 @@
       <c r="A394" s="9"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8" t="s">
-        <v>83</v>
+        <v>779</v>
       </c>
       <c r="D394" s="9" t="s">
         <v>782</v>
@@ -9811,11 +9832,13 @@
       <c r="A395" s="9"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="D395" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>784</v>
+      </c>
       <c r="E395" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F395" s="8"/>
       <c r="G395" s="10"/>
@@ -9829,7 +9852,7 @@
       </c>
       <c r="D396" s="9"/>
       <c r="E396" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="10"/>
@@ -9839,11 +9862,11 @@
       <c r="A397" s="9"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8" t="s">
-        <v>788</v>
+        <v>505</v>
       </c>
       <c r="D397" s="9"/>
       <c r="E397" s="9" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="10"/>
@@ -9853,11 +9876,11 @@
       <c r="A398" s="9"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8" t="s">
-        <v>83</v>
+        <v>790</v>
       </c>
       <c r="D398" s="9"/>
       <c r="E398" s="9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="10"/>
@@ -9867,7 +9890,7 @@
       <c r="A399" s="9"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8" t="s">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="D399" s="9"/>
       <c r="E399" s="9" t="s">
@@ -9881,7 +9904,7 @@
       <c r="A400" s="9"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8" t="s">
-        <v>790</v>
+        <v>338</v>
       </c>
       <c r="D400" s="9"/>
       <c r="E400" s="9" t="s">
@@ -9894,42 +9917,40 @@
     <row r="401" spans="1:8">
       <c r="A401" s="9"/>
       <c r="B401" s="8"/>
-      <c r="C401" s="8"/>
+      <c r="C401" s="8" t="s">
+        <v>792</v>
+      </c>
       <c r="D401" s="9"/>
-      <c r="E401" s="9"/>
+      <c r="E401" s="9" t="s">
+        <v>793</v>
+      </c>
       <c r="F401" s="8"/>
       <c r="G401" s="10"/>
       <c r="H401" s="8"/>
     </row>
     <row r="402" spans="1:8">
-      <c r="A402" s="35">
-        <v>32</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>162</v>
-      </c>
+      <c r="A402" s="9"/>
+      <c r="B402" s="8"/>
       <c r="C402" s="8"/>
-      <c r="D402" s="35" t="s">
-        <v>799</v>
-      </c>
-      <c r="E402" s="9" t="s">
-        <v>792</v>
-      </c>
+      <c r="D402" s="9"/>
+      <c r="E402" s="9"/>
       <c r="F402" s="8"/>
       <c r="G402" s="10"/>
       <c r="H402" s="8"/>
     </row>
     <row r="403" spans="1:8">
-      <c r="A403" s="9"/>
-      <c r="B403" s="8"/>
-      <c r="C403" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D403" s="9" t="s">
-        <v>164</v>
+      <c r="A403" s="35">
+        <v>32</v>
+      </c>
+      <c r="B403" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C403" s="8"/>
+      <c r="D403" s="35" t="s">
+        <v>801</v>
       </c>
       <c r="E403" s="9" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F403" s="8"/>
       <c r="G403" s="10"/>
@@ -9939,13 +9960,13 @@
       <c r="A404" s="9"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E404" s="9" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F404" s="8"/>
       <c r="G404" s="10"/>
@@ -9955,13 +9976,13 @@
       <c r="A405" s="9"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E405" s="9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F405" s="8"/>
       <c r="G405" s="10"/>
@@ -9971,11 +9992,13 @@
       <c r="A406" s="9"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D406" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="E406" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="10"/>
@@ -9989,7 +10012,7 @@
       </c>
       <c r="D407" s="9"/>
       <c r="E407" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F407" s="8"/>
       <c r="G407" s="10"/>
@@ -9999,11 +10022,11 @@
       <c r="A408" s="9"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D408" s="9"/>
       <c r="E408" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="10"/>
@@ -10012,9 +10035,13 @@
     <row r="409" spans="1:8">
       <c r="A409" s="9"/>
       <c r="B409" s="8"/>
-      <c r="C409" s="8"/>
+      <c r="C409" s="8" t="s">
+        <v>499</v>
+      </c>
       <c r="D409" s="9"/>
-      <c r="E409" s="9"/>
+      <c r="E409" s="9" t="s">
+        <v>800</v>
+      </c>
       <c r="F409" s="8"/>
       <c r="G409" s="10"/>
       <c r="H409" s="8"/>
@@ -10050,36 +10077,28 @@
       <c r="H412" s="8"/>
     </row>
     <row r="413" spans="1:8">
-      <c r="A413" s="35">
-        <v>33</v>
-      </c>
-      <c r="B413" s="27" t="s">
-        <v>801</v>
-      </c>
+      <c r="A413" s="9"/>
+      <c r="B413" s="8"/>
       <c r="C413" s="8"/>
-      <c r="D413" s="35" t="s">
-        <v>800</v>
-      </c>
-      <c r="E413" s="9" t="s">
-        <v>808</v>
-      </c>
+      <c r="D413" s="9"/>
+      <c r="E413" s="9"/>
       <c r="F413" s="8"/>
       <c r="G413" s="10"/>
       <c r="H413" s="8"/>
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B414" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C414" s="8"/>
       <c r="D414" s="35" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E414" s="9" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F414" s="8"/>
       <c r="G414" s="10"/>
@@ -10087,60 +10106,63 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B415" s="27" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C415" s="8"/>
       <c r="D415" s="35" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E415" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F415" s="8"/>
       <c r="G415" s="10"/>
       <c r="H415" s="8"/>
     </row>
-    <row r="416" spans="1:8" s="13" customFormat="1">
-      <c r="A416" s="9"/>
-      <c r="B416" s="8"/>
+    <row r="416" spans="1:8">
+      <c r="A416" s="35">
+        <v>35</v>
+      </c>
+      <c r="B416" s="27" t="s">
+        <v>804</v>
+      </c>
       <c r="C416" s="8"/>
-      <c r="D416" s="9"/>
-      <c r="E416" s="9"/>
+      <c r="D416" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="E416" s="9" t="s">
+        <v>808</v>
+      </c>
       <c r="F416" s="8"/>
       <c r="G416" s="10"/>
       <c r="H416" s="8"/>
     </row>
-    <row r="417" spans="1:8">
-      <c r="A417" s="35">
-        <v>36</v>
-      </c>
-      <c r="B417" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="D417" s="35" t="s">
-        <v>812</v>
-      </c>
-      <c r="E417" s="9" t="s">
-        <v>815</v>
-      </c>
+    <row r="417" spans="1:8" s="13" customFormat="1">
+      <c r="A417" s="9"/>
+      <c r="B417" s="8"/>
+      <c r="C417" s="8"/>
+      <c r="D417" s="9"/>
+      <c r="E417" s="9"/>
       <c r="F417" s="8"/>
       <c r="G417" s="10"/>
       <c r="H417" s="8"/>
     </row>
     <row r="418" spans="1:8">
-      <c r="A418" s="9"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D418" s="9" t="s">
-        <v>170</v>
+      <c r="A418" s="35">
+        <v>36</v>
+      </c>
+      <c r="B418" s="27"/>
+      <c r="C418" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="D418" s="35" t="s">
+        <v>814</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="10"/>
@@ -10149,15 +10171,9 @@
     <row r="419" spans="1:8">
       <c r="A419" s="9"/>
       <c r="B419" s="8"/>
-      <c r="C419" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D419" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E419" s="9" t="s">
-        <v>821</v>
-      </c>
+      <c r="C419" s="8"/>
+      <c r="D419" s="9"/>
+      <c r="E419" s="9"/>
       <c r="F419" s="8"/>
       <c r="G419" s="10"/>
       <c r="H419" s="8"/>
@@ -10169,7 +10185,7 @@
         <v>169</v>
       </c>
       <c r="D420" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E420" s="9" t="s">
         <v>822</v>
@@ -10185,7 +10201,7 @@
         <v>169</v>
       </c>
       <c r="D421" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E421" s="9" t="s">
         <v>823</v>
@@ -10201,7 +10217,7 @@
         <v>169</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E422" s="9" t="s">
         <v>824</v>
@@ -10214,10 +10230,10 @@
       <c r="A423" s="9"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="D423" s="9" t="s">
-        <v>599</v>
+        <v>173</v>
       </c>
       <c r="E423" s="9" t="s">
         <v>825</v>
@@ -10229,35 +10245,45 @@
     <row r="424" spans="1:8">
       <c r="A424" s="9"/>
       <c r="B424" s="8"/>
+      <c r="C424" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E424" s="9" t="s">
+        <v>826</v>
+      </c>
       <c r="F424" s="8"/>
       <c r="G424" s="10"/>
       <c r="H424" s="8"/>
     </row>
     <row r="425" spans="1:8">
-      <c r="A425" s="35">
-        <v>37</v>
-      </c>
-      <c r="B425" s="27" t="s">
-        <v>811</v>
-      </c>
-      <c r="D425" s="35" t="s">
-        <v>813</v>
+      <c r="A425" s="9"/>
+      <c r="B425" s="8"/>
+      <c r="C425" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>599</v>
       </c>
       <c r="E425" s="9" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="F425" s="8"/>
       <c r="G425" s="10"/>
       <c r="H425" s="8"/>
     </row>
     <row r="426" spans="1:8">
-      <c r="A426" s="9"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D426" s="9" t="s">
-        <v>175</v>
+      <c r="A426" s="35">
+        <v>37</v>
+      </c>
+      <c r="B426" s="27"/>
+      <c r="C426" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="D426" s="35" t="s">
+        <v>815</v>
       </c>
       <c r="E426" s="9" t="s">
         <v>816</v>
@@ -10273,10 +10299,10 @@
         <v>169</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E427" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F427" s="8"/>
       <c r="G427" s="10"/>
@@ -10289,10 +10315,10 @@
         <v>169</v>
       </c>
       <c r="D428" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E428" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F428" s="8"/>
       <c r="G428" s="10"/>
@@ -10305,58 +10331,60 @@
         <v>169</v>
       </c>
       <c r="D429" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E429" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F429" s="8"/>
       <c r="G429" s="10"/>
       <c r="H429" s="8"/>
     </row>
-    <row r="430" spans="1:8" ht="15.75">
-      <c r="A430" s="7"/>
-      <c r="B430" s="33" t="s">
+    <row r="430" spans="1:8">
+      <c r="A430" s="9"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E430" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="F430" s="8"/>
+      <c r="G430" s="10"/>
+      <c r="H430" s="8"/>
+    </row>
+    <row r="431" spans="1:8" ht="15.75">
+      <c r="A431" s="7"/>
+      <c r="B431" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="C430" s="6"/>
-      <c r="D430" s="34" t="s">
+      <c r="C431" s="6"/>
+      <c r="D431" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E430" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="F430" s="6"/>
-      <c r="G430" s="6"/>
-      <c r="H430" s="6"/>
-    </row>
-    <row r="431" spans="1:8" s="13" customFormat="1">
-      <c r="A431" s="35">
+      <c r="E431" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+    </row>
+    <row r="432" spans="1:8" s="13" customFormat="1">
+      <c r="A432" s="35">
         <v>38</v>
       </c>
-      <c r="B431" s="27" t="s">
+      <c r="B432" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C431" s="8"/>
-      <c r="D431" s="35" t="s">
-        <v>826</v>
-      </c>
-      <c r="E431" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="F431" s="8"/>
-      <c r="G431" s="10"/>
-      <c r="H431" s="8"/>
-    </row>
-    <row r="432" spans="1:8" s="13" customFormat="1">
-      <c r="A432" s="9"/>
-      <c r="B432" s="8"/>
-      <c r="C432" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D432" s="9"/>
+      <c r="C432" s="8"/>
+      <c r="D432" s="35" t="s">
+        <v>828</v>
+      </c>
       <c r="E432" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F432" s="8"/>
       <c r="G432" s="10"/>
@@ -10366,11 +10394,11 @@
       <c r="A433" s="9"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8" t="s">
-        <v>493</v>
+        <v>336</v>
       </c>
       <c r="D433" s="9"/>
       <c r="E433" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F433" s="8"/>
       <c r="G433" s="10"/>
@@ -10380,27 +10408,27 @@
       <c r="A434" s="9"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="D434" s="9"/>
       <c r="E434" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F434" s="8"/>
       <c r="G434" s="10"/>
       <c r="H434" s="8"/>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" s="13" customFormat="1">
       <c r="A435" s="9"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D435" s="9"/>
       <c r="E435" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="F435" s="14"/>
+        <v>832</v>
+      </c>
+      <c r="F435" s="8"/>
       <c r="G435" s="10"/>
       <c r="H435" s="8"/>
     </row>
@@ -10408,13 +10436,13 @@
       <c r="A436" s="9"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D436" s="9"/>
       <c r="E436" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="F436" s="8"/>
+        <v>833</v>
+      </c>
+      <c r="F436" s="14"/>
       <c r="G436" s="10"/>
       <c r="H436" s="8"/>
     </row>
@@ -10422,41 +10450,37 @@
       <c r="A437" s="9"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8" t="s">
-        <v>723</v>
+        <v>442</v>
       </c>
       <c r="D437" s="9"/>
       <c r="E437" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F437" s="8"/>
       <c r="G437" s="10"/>
       <c r="H437" s="8"/>
     </row>
-    <row r="438" spans="1:8" s="13" customFormat="1">
+    <row r="438" spans="1:8">
       <c r="A438" s="9"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8" t="s">
-        <v>429</v>
+        <v>723</v>
       </c>
       <c r="D438" s="9"/>
       <c r="E438" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F438" s="8"/>
       <c r="G438" s="10"/>
       <c r="H438" s="8"/>
     </row>
     <row r="439" spans="1:8" s="13" customFormat="1">
-      <c r="A439" s="35">
-        <v>39</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C439" s="8"/>
-      <c r="D439" s="27" t="s">
-        <v>835</v>
-      </c>
+      <c r="A439" s="9"/>
+      <c r="B439" s="8"/>
+      <c r="C439" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D439" s="9"/>
       <c r="E439" s="9" t="s">
         <v>836</v>
       </c>
@@ -10466,13 +10490,13 @@
     </row>
     <row r="440" spans="1:8" s="13" customFormat="1">
       <c r="A440" s="35">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C440" s="8"/>
-      <c r="D440" s="35" t="s">
+      <c r="D440" s="27" t="s">
         <v>837</v>
       </c>
       <c r="E440" s="9" t="s">
@@ -10483,16 +10507,18 @@
       <c r="H440" s="8"/>
     </row>
     <row r="441" spans="1:8" s="13" customFormat="1">
-      <c r="A441" s="9"/>
-      <c r="B441" s="8"/>
-      <c r="C441" s="27" t="s">
-        <v>840</v>
-      </c>
+      <c r="A441" s="35">
+        <v>40</v>
+      </c>
+      <c r="B441" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C441" s="8"/>
       <c r="D441" s="35" t="s">
         <v>839</v>
       </c>
       <c r="E441" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F441" s="8"/>
       <c r="G441" s="10"/>
@@ -10501,12 +10527,14 @@
     <row r="442" spans="1:8" s="13" customFormat="1">
       <c r="A442" s="9"/>
       <c r="B442" s="8"/>
-      <c r="C442" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D442" s="9"/>
+      <c r="C442" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D442" s="35" t="s">
+        <v>841</v>
+      </c>
       <c r="E442" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F442" s="8"/>
       <c r="G442" s="10"/>
@@ -10516,11 +10544,11 @@
       <c r="A443" s="9"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8" t="s">
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="D443" s="9"/>
       <c r="E443" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F443" s="8"/>
       <c r="G443" s="10"/>
@@ -10534,7 +10562,7 @@
       </c>
       <c r="D444" s="9"/>
       <c r="E444" s="9" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F444" s="8"/>
       <c r="G444" s="10"/>
@@ -10544,11 +10572,11 @@
       <c r="A445" s="9"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8" t="s">
-        <v>493</v>
+        <v>336</v>
       </c>
       <c r="D445" s="9"/>
       <c r="E445" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F445" s="8"/>
       <c r="G445" s="10"/>
@@ -10558,11 +10586,11 @@
       <c r="A446" s="9"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="D446" s="9"/>
       <c r="E446" s="9" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F446" s="8"/>
       <c r="G446" s="10"/>
@@ -10572,7 +10600,7 @@
       <c r="A447" s="9"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8" t="s">
-        <v>847</v>
+        <v>429</v>
       </c>
       <c r="D447" s="9"/>
       <c r="E447" s="9" t="s">
@@ -10585,9 +10613,13 @@
     <row r="448" spans="1:8" s="13" customFormat="1">
       <c r="A448" s="9"/>
       <c r="B448" s="8"/>
-      <c r="C448" s="8"/>
+      <c r="C448" s="8" t="s">
+        <v>849</v>
+      </c>
       <c r="D448" s="9"/>
-      <c r="E448" s="9"/>
+      <c r="E448" s="9" t="s">
+        <v>850</v>
+      </c>
       <c r="F448" s="8"/>
       <c r="G448" s="10"/>
       <c r="H448" s="8"/>
@@ -10595,13 +10627,9 @@
     <row r="449" spans="1:8" s="13" customFormat="1">
       <c r="A449" s="9"/>
       <c r="B449" s="8"/>
-      <c r="C449" s="8" t="s">
-        <v>849</v>
-      </c>
+      <c r="C449" s="8"/>
       <c r="D449" s="9"/>
-      <c r="E449" s="9" t="s">
-        <v>850</v>
-      </c>
+      <c r="E449" s="9"/>
       <c r="F449" s="8"/>
       <c r="G449" s="10"/>
       <c r="H449" s="8"/>
@@ -10637,9 +10665,13 @@
     <row r="452" spans="1:8" s="13" customFormat="1">
       <c r="A452" s="9"/>
       <c r="B452" s="8"/>
-      <c r="C452" s="8"/>
+      <c r="C452" s="8" t="s">
+        <v>855</v>
+      </c>
       <c r="D452" s="9"/>
-      <c r="E452" s="9"/>
+      <c r="E452" s="9" t="s">
+        <v>856</v>
+      </c>
       <c r="F452" s="8"/>
       <c r="G452" s="10"/>
       <c r="H452" s="8"/>
@@ -10647,15 +10679,9 @@
     <row r="453" spans="1:8" s="13" customFormat="1">
       <c r="A453" s="9"/>
       <c r="B453" s="8"/>
-      <c r="C453" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D453" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E453" s="9" t="s">
-        <v>855</v>
-      </c>
+      <c r="C453" s="8"/>
+      <c r="D453" s="9"/>
+      <c r="E453" s="9"/>
       <c r="F453" s="8"/>
       <c r="G453" s="10"/>
       <c r="H453" s="8"/>
@@ -10663,9 +10689,15 @@
     <row r="454" spans="1:8" s="13" customFormat="1">
       <c r="A454" s="9"/>
       <c r="B454" s="8"/>
-      <c r="C454" s="8"/>
-      <c r="D454" s="9"/>
-      <c r="E454" s="9"/>
+      <c r="C454" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D454" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E454" s="9" t="s">
+        <v>857</v>
+      </c>
       <c r="F454" s="8"/>
       <c r="G454" s="10"/>
       <c r="H454" s="8"/>
@@ -10673,15 +10705,9 @@
     <row r="455" spans="1:8" s="13" customFormat="1">
       <c r="A455" s="9"/>
       <c r="B455" s="8"/>
-      <c r="C455" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D455" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E455" s="9" t="s">
-        <v>856</v>
-      </c>
+      <c r="C455" s="8"/>
+      <c r="D455" s="9"/>
+      <c r="E455" s="9"/>
       <c r="F455" s="8"/>
       <c r="G455" s="10"/>
       <c r="H455" s="8"/>
@@ -10690,13 +10716,13 @@
       <c r="A456" s="9"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D456" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E456" s="9" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F456" s="8"/>
       <c r="G456" s="10"/>
@@ -10706,13 +10732,13 @@
       <c r="A457" s="9"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D457" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E457" s="9" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F457" s="8"/>
       <c r="G457" s="10"/>
@@ -10721,38 +10747,40 @@
     <row r="458" spans="1:8" s="13" customFormat="1">
       <c r="A458" s="9"/>
       <c r="B458" s="8"/>
-      <c r="C458" s="8"/>
-      <c r="D458" s="9"/>
-      <c r="E458" s="9"/>
+      <c r="C458" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E458" s="9" t="s">
+        <v>860</v>
+      </c>
       <c r="F458" s="8"/>
       <c r="G458" s="10"/>
-      <c r="H458" s="9"/>
+      <c r="H458" s="8"/>
     </row>
     <row r="459" spans="1:8" s="13" customFormat="1">
-      <c r="A459" s="35">
+      <c r="A459" s="9"/>
+      <c r="B459" s="8"/>
+      <c r="C459" s="8"/>
+      <c r="D459" s="9"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="8"/>
+      <c r="G459" s="10"/>
+      <c r="H459" s="9"/>
+    </row>
+    <row r="460" spans="1:8" s="13" customFormat="1">
+      <c r="A460" s="35">
         <v>41</v>
       </c>
-      <c r="B459" s="27" t="s">
+      <c r="B460" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C459" s="8"/>
-      <c r="D459" s="35" t="s">
-        <v>859</v>
-      </c>
-      <c r="E459" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="F459" s="8"/>
-      <c r="G459" s="12"/>
-      <c r="H459" s="9"/>
-    </row>
-    <row r="460" spans="1:8" s="13" customFormat="1">
-      <c r="A460" s="9"/>
-      <c r="B460" s="8"/>
-      <c r="C460" s="8" t="s">
+      <c r="C460" s="8"/>
+      <c r="D460" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="D460" s="9"/>
       <c r="E460" s="9" t="s">
         <v>862</v>
       </c>
@@ -10764,11 +10792,11 @@
       <c r="A461" s="9"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8" t="s">
-        <v>336</v>
+        <v>863</v>
       </c>
       <c r="D461" s="9"/>
       <c r="E461" s="9" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F461" s="8"/>
       <c r="G461" s="12"/>
@@ -10777,12 +10805,16 @@
     <row r="462" spans="1:8" s="13" customFormat="1">
       <c r="A462" s="9"/>
       <c r="B462" s="8"/>
-      <c r="C462" s="8"/>
+      <c r="C462" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="D462" s="9"/>
-      <c r="E462" s="9"/>
+      <c r="E462" s="9" t="s">
+        <v>865</v>
+      </c>
       <c r="F462" s="8"/>
-      <c r="G462" s="10"/>
-      <c r="H462" s="8"/>
+      <c r="G462" s="12"/>
+      <c r="H462" s="9"/>
     </row>
     <row r="463" spans="1:8" s="13" customFormat="1">
       <c r="A463" s="9"/>
@@ -10791,7 +10823,7 @@
       <c r="D463" s="9"/>
       <c r="E463" s="9"/>
       <c r="F463" s="8"/>
-      <c r="G463" s="12"/>
+      <c r="G463" s="10"/>
       <c r="H463" s="8"/>
     </row>
     <row r="464" spans="1:8" s="13" customFormat="1">
@@ -10801,7 +10833,7 @@
       <c r="D464" s="9"/>
       <c r="E464" s="9"/>
       <c r="F464" s="8"/>
-      <c r="G464" s="10"/>
+      <c r="G464" s="12"/>
       <c r="H464" s="8"/>
     </row>
     <row r="465" spans="1:8" s="13" customFormat="1">
@@ -10814,81 +10846,73 @@
       <c r="G465" s="10"/>
       <c r="H465" s="8"/>
     </row>
-    <row r="466" spans="1:8" ht="30">
+    <row r="466" spans="1:8" s="13" customFormat="1">
       <c r="A466" s="9"/>
-      <c r="B466" s="36" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C466" s="38"/>
-      <c r="D466" s="39"/>
-      <c r="E466" s="39"/>
-      <c r="F466" s="6"/>
-      <c r="G466" s="6"/>
+      <c r="B466" s="8"/>
+      <c r="C466" s="8"/>
+      <c r="D466" s="9"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="8"/>
+      <c r="G466" s="10"/>
       <c r="H466" s="8"/>
     </row>
-    <row r="467" spans="1:8">
-      <c r="A467" s="35">
-        <v>42</v>
-      </c>
-      <c r="B467" s="27" t="s">
+    <row r="467" spans="1:8" ht="30">
+      <c r="A467" s="9"/>
+      <c r="B467" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C467" s="8"/>
-      <c r="D467" s="35" t="s">
-        <v>864</v>
-      </c>
-      <c r="E467" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="F467" s="8"/>
-      <c r="G467" s="10"/>
+      <c r="C467" s="38"/>
+      <c r="D467" s="39"/>
+      <c r="E467" s="39"/>
+      <c r="F467" s="6"/>
+      <c r="G467" s="6"/>
       <c r="H467" s="8"/>
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="35">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>866</v>
+        <v>193</v>
       </c>
       <c r="C468" s="8"/>
       <c r="D468" s="35" t="s">
+        <v>866</v>
+      </c>
+      <c r="E468" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="E468" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="F468" s="14"/>
+      <c r="F468" s="8"/>
       <c r="G468" s="10"/>
       <c r="H468" s="8"/>
     </row>
     <row r="469" spans="1:8">
-      <c r="A469" s="9"/>
-      <c r="B469" s="8"/>
-      <c r="C469" s="8" t="s">
+      <c r="A469" s="35">
+        <v>43</v>
+      </c>
+      <c r="B469" s="27" t="s">
+        <v>868</v>
+      </c>
+      <c r="C469" s="8"/>
+      <c r="D469" s="35" t="s">
         <v>869</v>
       </c>
-      <c r="D469" s="9"/>
       <c r="E469" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="F469" s="8"/>
+      <c r="F469" s="14"/>
       <c r="G469" s="10"/>
       <c r="H469" s="8"/>
     </row>
     <row r="470" spans="1:8">
-      <c r="A470" s="35">
-        <v>44</v>
-      </c>
-      <c r="B470" s="27" t="s">
+      <c r="A470" s="9"/>
+      <c r="B470" s="8"/>
+      <c r="C470" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="C470" s="8"/>
-      <c r="D470" s="35" t="s">
+      <c r="D470" s="9"/>
+      <c r="E470" s="9" t="s">
         <v>872</v>
-      </c>
-      <c r="E470" s="9" t="s">
-        <v>873</v>
       </c>
       <c r="F470" s="8"/>
       <c r="G470" s="10"/>
@@ -10896,10 +10920,10 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="35">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>193</v>
+        <v>873</v>
       </c>
       <c r="C471" s="8"/>
       <c r="D471" s="35" t="s">
@@ -10914,17 +10938,17 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="35">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B472" s="27" t="s">
-        <v>876</v>
+        <v>194</v>
       </c>
       <c r="C472" s="8"/>
       <c r="D472" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="E472" s="9" t="s">
         <v>877</v>
-      </c>
-      <c r="E472" s="9" t="s">
-        <v>878</v>
       </c>
       <c r="F472" s="8"/>
       <c r="G472" s="10"/>
@@ -10932,16 +10956,16 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="35">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B473" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C473" s="22"/>
-      <c r="D473" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="C473" s="8"/>
+      <c r="D473" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="E473" s="23" t="s">
+      <c r="E473" s="9" t="s">
         <v>880</v>
       </c>
       <c r="F473" s="8"/>
@@ -10950,89 +10974,89 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="35">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B474" s="27" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C474" s="8"/>
-      <c r="D474" s="35" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E474" s="9" t="s">
-        <v>1067</v>
+        <v>195</v>
+      </c>
+      <c r="C474" s="22"/>
+      <c r="D474" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="E474" s="23" t="s">
+        <v>882</v>
       </c>
       <c r="F474" s="8"/>
       <c r="G474" s="10"/>
       <c r="H474" s="8"/>
     </row>
-    <row r="475" spans="1:8" ht="14.25" customHeight="1">
+    <row r="475" spans="1:8">
       <c r="A475" s="35">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B475" s="27" t="s">
-        <v>881</v>
+        <v>196</v>
       </c>
       <c r="C475" s="8"/>
       <c r="D475" s="35" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E475" s="9" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F475" s="8"/>
       <c r="G475" s="10"/>
       <c r="H475" s="8"/>
     </row>
-    <row r="476" spans="1:8" ht="13.5" customHeight="1">
+    <row r="476" spans="1:8" ht="14.25" customHeight="1">
       <c r="A476" s="35">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B476" s="27" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C476" s="8"/>
       <c r="D476" s="35" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E476" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="F476" s="19"/>
+        <v>887</v>
+      </c>
+      <c r="F476" s="8"/>
       <c r="G476" s="10"/>
       <c r="H476" s="8"/>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" ht="13.5" customHeight="1">
       <c r="A477" s="35">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="C477" s="8"/>
       <c r="D477" s="35" t="s">
         <v>886</v>
       </c>
       <c r="E477" s="9" t="s">
-        <v>887</v>
-      </c>
-      <c r="F477" s="8"/>
+        <v>889</v>
+      </c>
+      <c r="F477" s="19"/>
       <c r="G477" s="10"/>
       <c r="H477" s="8"/>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="35">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="C478" s="27"/>
+        <v>878</v>
+      </c>
+      <c r="C478" s="8"/>
       <c r="D478" s="35" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E478" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F478" s="8"/>
       <c r="G478" s="10"/>
@@ -11040,17 +11064,17 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="35">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B479" s="27" t="s">
-        <v>195</v>
+        <v>892</v>
       </c>
       <c r="C479" s="27"/>
       <c r="D479" s="35" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E479" s="9" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="F479" s="8"/>
       <c r="G479" s="10"/>
@@ -11058,49 +11082,51 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="35">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B480" s="27" t="s">
-        <v>893</v>
+        <v>197</v>
       </c>
       <c r="C480" s="27"/>
       <c r="D480" s="35" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E480" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F480" s="8"/>
       <c r="G480" s="10"/>
       <c r="H480" s="8"/>
     </row>
     <row r="481" spans="1:8">
-      <c r="A481" s="35"/>
-      <c r="B481" s="27"/>
-      <c r="C481" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="D481" s="9" t="s">
-        <v>904</v>
+      <c r="A481" s="35">
+        <v>54</v>
+      </c>
+      <c r="B481" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="C481" s="27"/>
+      <c r="D481" s="35" t="s">
+        <v>898</v>
       </c>
       <c r="E481" s="9" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F481" s="8"/>
       <c r="G481" s="10"/>
       <c r="H481" s="8"/>
     </row>
     <row r="482" spans="1:8">
-      <c r="A482" s="9"/>
+      <c r="A482" s="35"/>
       <c r="B482" s="27"/>
       <c r="C482" s="8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D482" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E482" s="9" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F482" s="8"/>
       <c r="G482" s="10"/>
@@ -11110,13 +11136,13 @@
       <c r="A483" s="9"/>
       <c r="B483" s="27"/>
       <c r="C483" s="8" t="s">
-        <v>1068</v>
+        <v>910</v>
       </c>
       <c r="D483" s="9" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E483" s="9" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F483" s="8"/>
       <c r="G483" s="10"/>
@@ -11126,13 +11152,13 @@
       <c r="A484" s="9"/>
       <c r="B484" s="27"/>
       <c r="C484" s="8" t="s">
-        <v>911</v>
+        <v>1073</v>
       </c>
       <c r="D484" s="9" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E484" s="9" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F484" s="8"/>
       <c r="G484" s="10"/>
@@ -11142,13 +11168,13 @@
       <c r="A485" s="9"/>
       <c r="B485" s="27"/>
       <c r="C485" s="8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D485" s="9" t="s">
         <v>916</v>
       </c>
       <c r="E485" s="9" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F485" s="8"/>
       <c r="G485" s="10"/>
@@ -11158,11 +11184,13 @@
       <c r="A486" s="9"/>
       <c r="B486" s="27"/>
       <c r="C486" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="D486" s="9"/>
+        <v>918</v>
+      </c>
+      <c r="D486" s="9" t="s">
+        <v>920</v>
+      </c>
       <c r="E486" s="9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F486" s="8"/>
       <c r="G486" s="10"/>
@@ -11171,42 +11199,40 @@
     <row r="487" spans="1:8">
       <c r="A487" s="9"/>
       <c r="B487" s="27"/>
-      <c r="C487" s="8"/>
+      <c r="C487" s="8" t="s">
+        <v>921</v>
+      </c>
       <c r="D487" s="9"/>
-      <c r="E487" s="9"/>
+      <c r="E487" s="9" t="s">
+        <v>922</v>
+      </c>
       <c r="F487" s="8"/>
       <c r="G487" s="10"/>
       <c r="H487" s="8"/>
     </row>
     <row r="488" spans="1:8">
-      <c r="A488" s="35">
-        <v>55</v>
-      </c>
-      <c r="B488" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="C488" s="9"/>
-      <c r="D488" s="35" t="s">
-        <v>904</v>
-      </c>
-      <c r="E488" s="9" t="s">
-        <v>905</v>
-      </c>
+      <c r="A488" s="9"/>
+      <c r="B488" s="27"/>
+      <c r="C488" s="8"/>
+      <c r="D488" s="9"/>
+      <c r="E488" s="9"/>
       <c r="F488" s="8"/>
       <c r="G488" s="10"/>
       <c r="H488" s="8"/>
     </row>
     <row r="489" spans="1:8">
-      <c r="A489" s="9"/>
-      <c r="B489" s="27"/>
-      <c r="C489" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="D489" s="9" t="s">
-        <v>920</v>
+      <c r="A489" s="35">
+        <v>55</v>
+      </c>
+      <c r="B489" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="C489" s="9"/>
+      <c r="D489" s="35" t="s">
+        <v>908</v>
       </c>
       <c r="E489" s="9" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F489" s="8"/>
       <c r="G489" s="10"/>
@@ -11216,10 +11242,10 @@
       <c r="A490" s="9"/>
       <c r="B490" s="27"/>
       <c r="C490" s="8" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="D490" s="9" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E490" s="9" t="s">
         <v>925</v>
@@ -11235,10 +11261,10 @@
         <v>923</v>
       </c>
       <c r="D491" s="9" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E491" s="9" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F491" s="8"/>
       <c r="G491" s="10"/>
@@ -11248,13 +11274,13 @@
       <c r="A492" s="9"/>
       <c r="B492" s="27"/>
       <c r="C492" s="8" t="s">
-        <v>197</v>
+        <v>927</v>
       </c>
       <c r="D492" s="9" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E492" s="9" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F492" s="8"/>
       <c r="G492" s="10"/>
@@ -11264,11 +11290,13 @@
       <c r="A493" s="9"/>
       <c r="B493" s="27"/>
       <c r="C493" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="D493" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>931</v>
+      </c>
       <c r="E493" s="9" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F493" s="8"/>
       <c r="G493" s="10"/>
@@ -11278,11 +11306,11 @@
       <c r="A494" s="9"/>
       <c r="B494" s="27"/>
       <c r="C494" s="8" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D494" s="9"/>
       <c r="E494" s="9" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F494" s="8"/>
       <c r="G494" s="10"/>
@@ -11292,11 +11320,11 @@
       <c r="A495" s="9"/>
       <c r="B495" s="27"/>
       <c r="C495" s="8" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D495" s="9"/>
       <c r="E495" s="9" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="F495" s="8"/>
       <c r="G495" s="10"/>
@@ -11306,11 +11334,11 @@
       <c r="A496" s="9"/>
       <c r="B496" s="27"/>
       <c r="C496" s="8" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D496" s="9"/>
       <c r="E496" s="9" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="F496" s="8"/>
       <c r="G496" s="10"/>
@@ -11320,29 +11348,25 @@
       <c r="A497" s="9"/>
       <c r="B497" s="27"/>
       <c r="C497" s="8" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D497" s="9"/>
       <c r="E497" s="9" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F497" s="8"/>
       <c r="G497" s="10"/>
       <c r="H497" s="8"/>
     </row>
     <row r="498" spans="1:8">
-      <c r="A498" s="35">
-        <v>56</v>
-      </c>
-      <c r="B498" s="27" t="s">
-        <v>896</v>
-      </c>
-      <c r="C498" s="27"/>
-      <c r="D498" s="35" t="s">
-        <v>897</v>
-      </c>
+      <c r="A498" s="9"/>
+      <c r="B498" s="27"/>
+      <c r="C498" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="D498" s="9"/>
       <c r="E498" s="9" t="s">
-        <v>898</v>
+        <v>942</v>
       </c>
       <c r="F498" s="8"/>
       <c r="G498" s="10"/>
@@ -11350,52 +11374,62 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" s="35">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B499" s="27" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C499" s="27"/>
       <c r="D499" s="35" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E499" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F499" s="8"/>
       <c r="G499" s="10"/>
       <c r="H499" s="8"/>
     </row>
     <row r="500" spans="1:8">
-      <c r="A500" s="35"/>
+      <c r="A500" s="35">
+        <v>57</v>
+      </c>
       <c r="B500" s="27" t="s">
-        <v>1071</v>
+        <v>903</v>
       </c>
       <c r="C500" s="27"/>
-      <c r="D500" s="35"/>
+      <c r="D500" s="35" t="s">
+        <v>904</v>
+      </c>
       <c r="E500" s="9" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F500" s="8"/>
       <c r="G500" s="10"/>
       <c r="H500" s="8"/>
     </row>
     <row r="501" spans="1:8">
-      <c r="A501" s="35"/>
-      <c r="B501" s="8"/>
-      <c r="C501" s="8"/>
-      <c r="D501" s="9"/>
+      <c r="A501" s="35">
+        <v>58</v>
+      </c>
+      <c r="B501" s="27"/>
+      <c r="C501" s="27"/>
+      <c r="D501" s="35"/>
       <c r="E501" s="9"/>
       <c r="F501" s="8"/>
       <c r="G501" s="10"/>
       <c r="H501" s="8"/>
     </row>
     <row r="502" spans="1:8">
-      <c r="A502" s="9"/>
+      <c r="A502" s="35"/>
       <c r="B502" s="8"/>
-      <c r="C502" s="8"/>
+      <c r="C502" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="D502" s="9"/>
-      <c r="E502" s="9"/>
+      <c r="E502" s="9" t="s">
+        <v>906</v>
+      </c>
       <c r="F502" s="8"/>
       <c r="G502" s="10"/>
       <c r="H502" s="8"/>
@@ -11412,49 +11446,43 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" s="9"/>
-      <c r="B504" s="36" t="s">
-        <v>939</v>
-      </c>
-      <c r="C504" s="38"/>
-      <c r="D504" s="38" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E504" s="39" t="s">
-        <v>987</v>
-      </c>
-      <c r="F504" s="22"/>
-      <c r="G504" s="22"/>
+      <c r="B504" s="8"/>
+      <c r="C504" s="8"/>
+      <c r="D504" s="9"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="8"/>
+      <c r="G504" s="10"/>
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="1:8">
-      <c r="A505" s="35">
+    <row r="505" spans="1:8" ht="30">
+      <c r="A505" s="9"/>
+      <c r="B505" s="36" t="s">
+        <v>943</v>
+      </c>
+      <c r="C505" s="38"/>
+      <c r="D505" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="E505" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="F505" s="22"/>
+      <c r="G505" s="22"/>
+      <c r="H505" s="8"/>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506" s="35">
         <v>59</v>
       </c>
-      <c r="B505" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C505" s="8"/>
-      <c r="D505" s="35" t="s">
-        <v>940</v>
-      </c>
-      <c r="E505" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="F505" s="8"/>
-      <c r="G505" s="10"/>
-      <c r="H505" s="8"/>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" s="9"/>
-      <c r="B506" s="8"/>
-      <c r="C506" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D506" s="9" t="s">
-        <v>941</v>
+      <c r="B506" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C506" s="8"/>
+      <c r="D506" s="35" t="s">
+        <v>945</v>
       </c>
       <c r="E506" s="9" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="F506" s="8"/>
       <c r="G506" s="10"/>
@@ -11464,11 +11492,13 @@
       <c r="A507" s="9"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="D507" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="D507" s="9" t="s">
+        <v>946</v>
+      </c>
       <c r="E507" s="9" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F507" s="8"/>
       <c r="G507" s="10"/>
@@ -11478,11 +11508,11 @@
       <c r="A508" s="9"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D508" s="9"/>
       <c r="E508" s="9" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="F508" s="8"/>
       <c r="G508" s="10"/>
@@ -11491,42 +11521,40 @@
     <row r="509" spans="1:8">
       <c r="A509" s="9"/>
       <c r="B509" s="8"/>
-      <c r="C509" s="8"/>
+      <c r="C509" s="8" t="s">
+        <v>948</v>
+      </c>
       <c r="D509" s="9"/>
-      <c r="E509" s="9"/>
+      <c r="E509" s="9" t="s">
+        <v>999</v>
+      </c>
       <c r="F509" s="8"/>
       <c r="G509" s="10"/>
       <c r="H509" s="8"/>
     </row>
     <row r="510" spans="1:8">
-      <c r="A510" s="35">
+      <c r="A510" s="9"/>
+      <c r="B510" s="8"/>
+      <c r="C510" s="8"/>
+      <c r="D510" s="9"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="8"/>
+      <c r="G510" s="10"/>
+      <c r="H510" s="8"/>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="35">
         <v>60</v>
       </c>
-      <c r="B510" s="42" t="s">
-        <v>946</v>
-      </c>
-      <c r="C510" s="8"/>
-      <c r="D510" s="35" t="s">
-        <v>944</v>
-      </c>
-      <c r="E510" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="F510" s="22"/>
-      <c r="G510" s="22"/>
-      <c r="H510" s="8"/>
-    </row>
-    <row r="511" spans="1:8">
-      <c r="A511" s="9"/>
-      <c r="B511" s="42"/>
-      <c r="C511" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="D511" s="9" t="s">
-        <v>947</v>
+      <c r="B511" s="42" t="s">
+        <v>951</v>
+      </c>
+      <c r="C511" s="8"/>
+      <c r="D511" s="35" t="s">
+        <v>949</v>
       </c>
       <c r="E511" s="9" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="F511" s="22"/>
       <c r="G511" s="22"/>
@@ -11536,13 +11564,13 @@
       <c r="A512" s="9"/>
       <c r="B512" s="42"/>
       <c r="C512" s="8" t="s">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="D512" s="9" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="E512" s="9" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="F512" s="22"/>
       <c r="G512" s="22"/>
@@ -11552,13 +11580,13 @@
       <c r="A513" s="9"/>
       <c r="B513" s="42"/>
       <c r="C513" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D513" s="9" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E513" s="9" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="F513" s="22"/>
       <c r="G513" s="22"/>
@@ -11568,11 +11596,13 @@
       <c r="A514" s="9"/>
       <c r="B514" s="42"/>
       <c r="C514" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D514" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="D514" s="9" t="s">
+        <v>954</v>
+      </c>
       <c r="E514" s="9" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="F514" s="22"/>
       <c r="G514" s="22"/>
@@ -11582,11 +11612,11 @@
       <c r="A515" s="9"/>
       <c r="B515" s="42"/>
       <c r="C515" s="8" t="s">
-        <v>853</v>
+        <v>440</v>
       </c>
       <c r="D515" s="9"/>
       <c r="E515" s="9" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F515" s="22"/>
       <c r="G515" s="22"/>
@@ -11594,27 +11624,27 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" s="9"/>
-      <c r="B516" s="8"/>
+      <c r="B516" s="42"/>
       <c r="C516" s="8" t="s">
-        <v>950</v>
+        <v>855</v>
       </c>
       <c r="D516" s="9"/>
       <c r="E516" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F516" s="8"/>
-      <c r="G516" s="10"/>
+        <v>1005</v>
+      </c>
+      <c r="F516" s="22"/>
+      <c r="G516" s="22"/>
       <c r="H516" s="8"/>
     </row>
     <row r="517" spans="1:8">
       <c r="A517" s="9"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D517" s="9"/>
       <c r="E517" s="9" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="F517" s="8"/>
       <c r="G517" s="10"/>
@@ -11623,9 +11653,13 @@
     <row r="518" spans="1:8">
       <c r="A518" s="9"/>
       <c r="B518" s="8"/>
-      <c r="C518" s="8"/>
+      <c r="C518" s="8" t="s">
+        <v>956</v>
+      </c>
       <c r="D518" s="9"/>
-      <c r="E518" s="9"/>
+      <c r="E518" s="9" t="s">
+        <v>1007</v>
+      </c>
       <c r="F518" s="8"/>
       <c r="G518" s="10"/>
       <c r="H518" s="8"/>
@@ -11643,46 +11677,40 @@
     <row r="520" spans="1:8">
       <c r="A520" s="9"/>
       <c r="B520" s="8"/>
-      <c r="C520" s="8" t="s">
-        <v>952</v>
-      </c>
+      <c r="C520" s="8"/>
       <c r="D520" s="9"/>
-      <c r="E520" s="9" t="s">
-        <v>1003</v>
-      </c>
+      <c r="E520" s="9"/>
       <c r="F520" s="8"/>
       <c r="G520" s="10"/>
       <c r="H520" s="8"/>
     </row>
     <row r="521" spans="1:8">
-      <c r="A521" s="35">
-        <v>61</v>
-      </c>
-      <c r="B521" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C521" s="8"/>
-      <c r="D521" s="35" t="s">
-        <v>953</v>
-      </c>
+      <c r="A521" s="9"/>
+      <c r="B521" s="8"/>
+      <c r="C521" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="D521" s="9"/>
       <c r="E521" s="9" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="F521" s="8"/>
       <c r="G521" s="10"/>
       <c r="H521" s="8"/>
     </row>
     <row r="522" spans="1:8">
-      <c r="A522" s="9"/>
-      <c r="B522" s="8"/>
-      <c r="C522" s="22" t="s">
-        <v>954</v>
-      </c>
-      <c r="D522" s="23" t="s">
-        <v>955</v>
-      </c>
-      <c r="E522" s="23" t="s">
-        <v>1005</v>
+      <c r="A522" s="35">
+        <v>61</v>
+      </c>
+      <c r="B522" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C522" s="8"/>
+      <c r="D522" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="E522" s="9" t="s">
+        <v>1009</v>
       </c>
       <c r="F522" s="8"/>
       <c r="G522" s="10"/>
@@ -11691,14 +11719,14 @@
     <row r="523" spans="1:8">
       <c r="A523" s="9"/>
       <c r="B523" s="8"/>
-      <c r="C523" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D523" s="9" t="s">
-        <v>956</v>
-      </c>
-      <c r="E523" s="9" t="s">
-        <v>1006</v>
+      <c r="C523" s="22" t="s">
+        <v>959</v>
+      </c>
+      <c r="D523" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="E523" s="23" t="s">
+        <v>1010</v>
       </c>
       <c r="F523" s="8"/>
       <c r="G523" s="10"/>
@@ -11708,13 +11736,13 @@
       <c r="A524" s="9"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8" t="s">
-        <v>959</v>
+        <v>204</v>
       </c>
       <c r="D524" s="9" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="E524" s="9" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="F524" s="8"/>
       <c r="G524" s="10"/>
@@ -11724,13 +11752,13 @@
       <c r="A525" s="9"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D525" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E525" s="9" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F525" s="8"/>
       <c r="G525" s="10"/>
@@ -11740,13 +11768,13 @@
       <c r="A526" s="9"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="E526" s="9" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F526" s="8"/>
       <c r="G526" s="10"/>
@@ -11754,71 +11782,73 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" s="9"/>
-      <c r="B527" s="22"/>
-      <c r="C527" s="22" t="s">
-        <v>203</v>
+      <c r="B527" s="8"/>
+      <c r="C527" s="8" t="s">
+        <v>965</v>
       </c>
       <c r="D527" s="9" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E527" s="9" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F527" s="22"/>
-      <c r="G527" s="22"/>
+        <v>1014</v>
+      </c>
+      <c r="F527" s="8"/>
+      <c r="G527" s="10"/>
       <c r="H527" s="8"/>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" s="9"/>
-      <c r="B528" s="8"/>
-      <c r="C528" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D528" s="9"/>
+      <c r="B528" s="22"/>
+      <c r="C528" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D528" s="9" t="s">
+        <v>966</v>
+      </c>
       <c r="E528" s="9" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F528" s="8"/>
-      <c r="G528" s="10"/>
+        <v>1015</v>
+      </c>
+      <c r="F528" s="22"/>
+      <c r="G528" s="22"/>
       <c r="H528" s="8"/>
     </row>
     <row r="529" spans="1:8">
       <c r="A529" s="9"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D529" s="9"/>
       <c r="E529" s="9" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="F529" s="8"/>
       <c r="G529" s="10"/>
       <c r="H529" s="8"/>
     </row>
-    <row r="530" spans="1:8" s="13" customFormat="1">
+    <row r="530" spans="1:8">
       <c r="A530" s="9"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="D530" s="9"/>
       <c r="E530" s="9" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F530" s="8"/>
       <c r="G530" s="10"/>
       <c r="H530" s="8"/>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" s="13" customFormat="1">
       <c r="A531" s="9"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="D531" s="9"/>
       <c r="E531" s="9" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F531" s="8"/>
       <c r="G531" s="10"/>
@@ -11828,11 +11858,11 @@
       <c r="A532" s="9"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="D532" s="9"/>
       <c r="E532" s="9" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F532" s="8"/>
       <c r="G532" s="10"/>
@@ -11842,11 +11872,11 @@
       <c r="A533" s="9"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D533" s="9"/>
       <c r="E533" s="9" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F533" s="8"/>
       <c r="G533" s="10"/>
@@ -11855,9 +11885,13 @@
     <row r="534" spans="1:8">
       <c r="A534" s="9"/>
       <c r="B534" s="8"/>
-      <c r="C534" s="22"/>
-      <c r="D534" s="23"/>
-      <c r="E534" s="9"/>
+      <c r="C534" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="D534" s="9"/>
+      <c r="E534" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F534" s="8"/>
       <c r="G534" s="10"/>
       <c r="H534" s="8"/>
@@ -11865,12 +11899,12 @@
     <row r="535" spans="1:8">
       <c r="A535" s="9"/>
       <c r="B535" s="8"/>
-      <c r="C535" s="8" t="s">
-        <v>970</v>
-      </c>
-      <c r="D535" s="9"/>
+      <c r="C535" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="D535" s="23"/>
       <c r="E535" s="9" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="F535" s="8"/>
       <c r="G535" s="10"/>
@@ -11880,11 +11914,11 @@
       <c r="A536" s="9"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8" t="s">
-        <v>688</v>
+        <v>975</v>
       </c>
       <c r="D536" s="9"/>
       <c r="E536" s="9" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F536" s="8"/>
       <c r="G536" s="10"/>
@@ -11894,11 +11928,11 @@
       <c r="A537" s="9"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8" t="s">
-        <v>971</v>
+        <v>688</v>
       </c>
       <c r="D537" s="9"/>
       <c r="E537" s="9" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="F537" s="8"/>
       <c r="G537" s="10"/>
@@ -11908,11 +11942,11 @@
       <c r="A538" s="9"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="D538" s="9"/>
       <c r="E538" s="9" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="F538" s="8"/>
       <c r="G538" s="10"/>
@@ -11922,45 +11956,43 @@
       <c r="A539" s="9"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="D539" s="9"/>
       <c r="E539" s="9" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="F539" s="8"/>
       <c r="G539" s="10"/>
       <c r="H539" s="8"/>
     </row>
     <row r="540" spans="1:8">
-      <c r="A540" s="35">
-        <v>62</v>
-      </c>
-      <c r="B540" s="27" t="s">
-        <v>974</v>
-      </c>
-      <c r="C540" s="8"/>
-      <c r="D540" s="35" t="s">
-        <v>975</v>
-      </c>
+      <c r="A540" s="9"/>
+      <c r="B540" s="8"/>
+      <c r="C540" s="8" t="s">
+        <v>978</v>
+      </c>
+      <c r="D540" s="9"/>
       <c r="E540" s="9" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="F540" s="8"/>
       <c r="G540" s="10"/>
       <c r="H540" s="8"/>
     </row>
     <row r="541" spans="1:8">
-      <c r="A541" s="9"/>
-      <c r="B541" s="8"/>
-      <c r="C541" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="D541" s="9" t="s">
-        <v>977</v>
+      <c r="A541" s="35">
+        <v>62</v>
+      </c>
+      <c r="B541" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="C541" s="8"/>
+      <c r="D541" s="35" t="s">
+        <v>980</v>
       </c>
       <c r="E541" s="9" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="F541" s="8"/>
       <c r="G541" s="10"/>
@@ -11970,13 +12002,13 @@
       <c r="A542" s="9"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8" t="s">
-        <v>200</v>
+        <v>981</v>
       </c>
       <c r="D542" s="9" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E542" s="9" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="F542" s="8"/>
       <c r="G542" s="10"/>
@@ -11986,55 +12018,57 @@
       <c r="A543" s="9"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D543" s="9" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="E543" s="9" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="F543" s="8"/>
       <c r="G543" s="10"/>
-      <c r="H543" s="44"/>
+      <c r="H543" s="8"/>
     </row>
     <row r="544" spans="1:8">
-      <c r="A544" s="23"/>
+      <c r="A544" s="9"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D544" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="D544" s="9" t="s">
+        <v>984</v>
+      </c>
       <c r="E544" s="9" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="F544" s="8"/>
       <c r="G544" s="10"/>
-      <c r="H544" s="22"/>
+      <c r="H544" s="44"/>
     </row>
     <row r="545" spans="1:8">
-      <c r="A545" s="43"/>
+      <c r="A545" s="23"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D545" s="9"/>
       <c r="E545" s="9" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="F545" s="8"/>
       <c r="G545" s="10"/>
-      <c r="H545" s="44"/>
+      <c r="H545" s="22"/>
     </row>
     <row r="546" spans="1:8">
       <c r="A546" s="43"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8" t="s">
-        <v>963</v>
+        <v>440</v>
       </c>
       <c r="D546" s="9"/>
       <c r="E546" s="9" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="F546" s="8"/>
       <c r="G546" s="10"/>
@@ -12044,84 +12078,90 @@
       <c r="A547" s="43"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D547" s="9"/>
       <c r="E547" s="9" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="F547" s="8"/>
       <c r="G547" s="10"/>
       <c r="H547" s="44"/>
     </row>
     <row r="548" spans="1:8">
-      <c r="A548" s="23"/>
+      <c r="A548" s="43"/>
       <c r="B548" s="8"/>
-      <c r="C548" s="8"/>
+      <c r="C548" s="8" t="s">
+        <v>985</v>
+      </c>
       <c r="D548" s="9"/>
-      <c r="E548" s="9"/>
+      <c r="E548" s="9" t="s">
+        <v>1034</v>
+      </c>
       <c r="F548" s="8"/>
       <c r="G548" s="10"/>
-      <c r="H548" s="22"/>
+      <c r="H548" s="44"/>
     </row>
     <row r="549" spans="1:8">
-      <c r="A549" s="9"/>
+      <c r="A549" s="23"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
       <c r="D549" s="9"/>
       <c r="E549" s="9"/>
       <c r="F549" s="8"/>
       <c r="G549" s="10"/>
-      <c r="H549" s="8"/>
-    </row>
-    <row r="550" spans="1:8" ht="30">
-      <c r="A550" s="23"/>
-      <c r="B550" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C550" s="6"/>
-      <c r="D550" s="7"/>
-      <c r="E550" s="7"/>
-      <c r="F550" s="6"/>
-      <c r="G550" s="6"/>
-      <c r="H550" s="6"/>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" s="9"/>
-      <c r="B551" s="8"/>
-      <c r="C551" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="D551" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E551" s="9" t="s">
-        <v>990</v>
-      </c>
-      <c r="F551" s="8"/>
-      <c r="G551" s="10"/>
-      <c r="H551" s="8"/>
+      <c r="H549" s="22"/>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="9"/>
+      <c r="B550" s="8"/>
+      <c r="C550" s="8"/>
+      <c r="D550" s="9"/>
+      <c r="E550" s="9"/>
+      <c r="F550" s="8"/>
+      <c r="G550" s="10"/>
+      <c r="H550" s="8"/>
+    </row>
+    <row r="551" spans="1:8" ht="30">
+      <c r="A551" s="23"/>
+      <c r="B551" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C551" s="6"/>
+      <c r="D551" s="7"/>
+      <c r="E551" s="7"/>
+      <c r="F551" s="6"/>
+      <c r="G551" s="6"/>
+      <c r="H551" s="6"/>
     </row>
     <row r="552" spans="1:8">
-      <c r="A552" s="9"/>
-      <c r="B552" s="8"/>
-      <c r="C552" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D552" s="9"/>
-      <c r="E552" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F552" s="8"/>
-      <c r="G552" s="10"/>
-      <c r="H552" s="8"/>
+      <c r="A552" s="23"/>
+      <c r="B552" s="42"/>
+      <c r="C552" s="42" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D552" s="43" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E552" s="23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F552" s="22"/>
+      <c r="G552" s="22"/>
+      <c r="H552" s="22"/>
     </row>
     <row r="553" spans="1:8">
       <c r="A553" s="9"/>
       <c r="B553" s="8"/>
-      <c r="C553" s="8"/>
-      <c r="D553" s="9"/>
-      <c r="E553" s="9"/>
+      <c r="C553" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="D553" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E553" s="9" t="s">
+        <v>995</v>
+      </c>
       <c r="F553" s="8"/>
       <c r="G553" s="10"/>
       <c r="H553" s="8"/>
@@ -12129,9 +12169,13 @@
     <row r="554" spans="1:8">
       <c r="A554" s="9"/>
       <c r="B554" s="8"/>
-      <c r="C554" s="8"/>
+      <c r="C554" s="8" t="s">
+        <v>855</v>
+      </c>
       <c r="D554" s="9"/>
-      <c r="E554" s="9"/>
+      <c r="E554" s="9" t="s">
+        <v>1037</v>
+      </c>
       <c r="F554" s="8"/>
       <c r="G554" s="10"/>
       <c r="H554" s="8"/>
@@ -12149,15 +12193,9 @@
     <row r="556" spans="1:8">
       <c r="A556" s="9"/>
       <c r="B556" s="8"/>
-      <c r="C556" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D556" s="9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E556" s="9" t="s">
-        <v>1030</v>
-      </c>
+      <c r="C556" s="8"/>
+      <c r="D556" s="9"/>
+      <c r="E556" s="9"/>
       <c r="F556" s="8"/>
       <c r="G556" s="10"/>
       <c r="H556" s="8"/>
@@ -12165,13 +12203,9 @@
     <row r="557" spans="1:8">
       <c r="A557" s="9"/>
       <c r="B557" s="8"/>
-      <c r="C557" s="8" t="s">
-        <v>336</v>
-      </c>
+      <c r="C557" s="8"/>
       <c r="D557" s="9"/>
-      <c r="E557" s="9" t="s">
-        <v>1034</v>
-      </c>
+      <c r="E557" s="9"/>
       <c r="F557" s="8"/>
       <c r="G557" s="10"/>
       <c r="H557" s="8"/>
@@ -12179,10 +12213,12 @@
     <row r="558" spans="1:8">
       <c r="A558" s="9"/>
       <c r="B558" s="8"/>
-      <c r="C558" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D558" s="9"/>
+      <c r="C558" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D558" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="E558" s="9" t="s">
         <v>1035</v>
       </c>
@@ -12194,11 +12230,11 @@
       <c r="A559" s="9"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8" t="s">
-        <v>493</v>
+        <v>336</v>
       </c>
       <c r="D559" s="9"/>
       <c r="E559" s="9" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F559" s="8"/>
       <c r="G559" s="10"/>
@@ -12208,11 +12244,11 @@
       <c r="A560" s="9"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D560" s="9"/>
       <c r="E560" s="9" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="F560" s="8"/>
       <c r="G560" s="10"/>
@@ -12221,9 +12257,13 @@
     <row r="561" spans="1:8">
       <c r="A561" s="9"/>
       <c r="B561" s="8"/>
-      <c r="C561" s="22"/>
-      <c r="D561" s="23"/>
-      <c r="E561" s="23"/>
+      <c r="C561" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D561" s="9"/>
+      <c r="E561" s="9" t="s">
+        <v>1041</v>
+      </c>
       <c r="F561" s="8"/>
       <c r="G561" s="10"/>
       <c r="H561" s="8"/>
@@ -12232,11 +12272,11 @@
       <c r="A562" s="9"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8" t="s">
-        <v>1038</v>
+        <v>429</v>
       </c>
       <c r="D562" s="9"/>
       <c r="E562" s="9" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F562" s="8"/>
       <c r="G562" s="10"/>
@@ -12245,24 +12285,22 @@
     <row r="563" spans="1:8">
       <c r="A563" s="9"/>
       <c r="B563" s="8"/>
-      <c r="C563" s="8"/>
-      <c r="D563" s="9"/>
-      <c r="E563" s="9"/>
+      <c r="C563" s="22"/>
+      <c r="D563" s="23"/>
+      <c r="E563" s="23"/>
       <c r="F563" s="8"/>
       <c r="G563" s="10"/>
       <c r="H563" s="8"/>
     </row>
-    <row r="564" spans="1:8" ht="30">
+    <row r="564" spans="1:8">
       <c r="A564" s="9"/>
       <c r="B564" s="8"/>
-      <c r="C564" s="27" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D564" s="9" t="s">
-        <v>1041</v>
-      </c>
+      <c r="C564" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D564" s="9"/>
       <c r="E564" s="9" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="F564" s="8"/>
       <c r="G564" s="10"/>
@@ -12270,27 +12308,25 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" s="9"/>
-      <c r="B565" s="22"/>
-      <c r="C565" s="8" t="s">
-        <v>1043</v>
-      </c>
+      <c r="B565" s="8"/>
+      <c r="C565" s="8"/>
       <c r="D565" s="9"/>
-      <c r="E565" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F565" s="22"/>
-      <c r="G565" s="22"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="8"/>
+      <c r="G565" s="10"/>
       <c r="H565" s="8"/>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" ht="30">
       <c r="A566" s="9"/>
       <c r="B566" s="8"/>
-      <c r="C566" s="8" t="s">
+      <c r="C566" s="27" t="s">
         <v>1045</v>
       </c>
-      <c r="D566" s="9"/>
+      <c r="D566" s="9" t="s">
+        <v>1046</v>
+      </c>
       <c r="E566" s="9" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F566" s="8"/>
       <c r="G566" s="10"/>
@@ -12298,24 +12334,28 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" s="9"/>
-      <c r="B567" s="8"/>
+      <c r="B567" s="22"/>
       <c r="C567" s="8" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D567" s="9"/>
       <c r="E567" s="9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F567" s="8"/>
-      <c r="G567" s="10"/>
+        <v>1049</v>
+      </c>
+      <c r="F567" s="22"/>
+      <c r="G567" s="22"/>
       <c r="H567" s="8"/>
     </row>
     <row r="568" spans="1:8">
       <c r="A568" s="9"/>
       <c r="B568" s="8"/>
-      <c r="C568" s="8"/>
+      <c r="C568" s="8" t="s">
+        <v>1050</v>
+      </c>
       <c r="D568" s="9"/>
-      <c r="E568" s="9"/>
+      <c r="E568" s="9" t="s">
+        <v>1051</v>
+      </c>
       <c r="F568" s="8"/>
       <c r="G568" s="10"/>
       <c r="H568" s="8"/>
@@ -12323,14 +12363,12 @@
     <row r="569" spans="1:8">
       <c r="A569" s="9"/>
       <c r="B569" s="8"/>
-      <c r="C569" s="27" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D569" s="9" t="s">
-        <v>1050</v>
-      </c>
+      <c r="C569" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D569" s="9"/>
       <c r="E569" s="9" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="F569" s="8"/>
       <c r="G569" s="10"/>
@@ -12349,24 +12387,34 @@
     <row r="571" spans="1:8">
       <c r="A571" s="9"/>
       <c r="B571" s="8"/>
-      <c r="C571" s="8"/>
-      <c r="D571" s="9"/>
-      <c r="E571" s="9"/>
+      <c r="C571" s="27" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D571" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E571" s="9" t="s">
+        <v>1056</v>
+      </c>
       <c r="F571" s="8"/>
       <c r="G571" s="10"/>
       <c r="H571" s="8"/>
     </row>
-    <row r="572" spans="1:8" s="13" customFormat="1">
+    <row r="572" spans="1:8">
       <c r="A572" s="9"/>
       <c r="B572" s="8"/>
-      <c r="C572" s="22"/>
-      <c r="D572" s="23"/>
-      <c r="E572" s="23"/>
+      <c r="C572" s="27" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D572" s="9"/>
+      <c r="E572" s="9" t="s">
+        <v>1078</v>
+      </c>
       <c r="F572" s="8"/>
       <c r="G572" s="10"/>
       <c r="H572" s="8"/>
     </row>
-    <row r="573" spans="1:8" s="13" customFormat="1">
+    <row r="573" spans="1:8">
       <c r="A573" s="9"/>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -12379,24 +12427,24 @@
     <row r="574" spans="1:8" s="13" customFormat="1">
       <c r="A574" s="9"/>
       <c r="B574" s="8"/>
-      <c r="C574" s="8"/>
-      <c r="D574" s="9"/>
-      <c r="E574" s="9"/>
+      <c r="C574" s="22"/>
+      <c r="D574" s="23"/>
+      <c r="E574" s="23"/>
       <c r="F574" s="8"/>
       <c r="G574" s="10"/>
       <c r="H574" s="8"/>
     </row>
-    <row r="575" spans="1:8">
-      <c r="A575" s="23"/>
+    <row r="575" spans="1:8" s="13" customFormat="1">
+      <c r="A575" s="9"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
       <c r="D575" s="9"/>
       <c r="E575" s="9"/>
       <c r="F575" s="8"/>
       <c r="G575" s="10"/>
-      <c r="H575" s="22"/>
-    </row>
-    <row r="576" spans="1:8">
+      <c r="H575" s="8"/>
+    </row>
+    <row r="576" spans="1:8" s="13" customFormat="1">
       <c r="A576" s="9"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -12407,14 +12455,14 @@
       <c r="H576" s="8"/>
     </row>
     <row r="577" spans="1:8">
-      <c r="A577" s="9"/>
+      <c r="A577" s="23"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
       <c r="D577" s="9"/>
       <c r="E577" s="9"/>
       <c r="F577" s="8"/>
       <c r="G577" s="10"/>
-      <c r="H577" s="8"/>
+      <c r="H577" s="22"/>
     </row>
     <row r="578" spans="1:8">
       <c r="A578" s="9"/>
@@ -12457,14 +12505,14 @@
       <c r="H581" s="8"/>
     </row>
     <row r="582" spans="1:8">
-      <c r="A582" s="23"/>
+      <c r="A582" s="9"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
       <c r="D582" s="9"/>
       <c r="E582" s="9"/>
       <c r="F582" s="8"/>
       <c r="G582" s="10"/>
-      <c r="H582" s="22"/>
+      <c r="H582" s="8"/>
     </row>
     <row r="583" spans="1:8">
       <c r="A583" s="9"/>
@@ -12477,14 +12525,14 @@
       <c r="H583" s="8"/>
     </row>
     <row r="584" spans="1:8">
-      <c r="A584" s="9"/>
+      <c r="A584" s="23"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
       <c r="D584" s="9"/>
       <c r="E584" s="9"/>
       <c r="F584" s="8"/>
       <c r="G584" s="10"/>
-      <c r="H584" s="8"/>
+      <c r="H584" s="22"/>
     </row>
     <row r="585" spans="1:8">
       <c r="A585" s="9"/>
@@ -12567,14 +12615,14 @@
       <c r="H592" s="8"/>
     </row>
     <row r="593" spans="1:8">
-      <c r="A593" s="23"/>
+      <c r="A593" s="9"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
       <c r="D593" s="9"/>
       <c r="E593" s="9"/>
       <c r="F593" s="8"/>
       <c r="G593" s="10"/>
-      <c r="H593" s="22"/>
+      <c r="H593" s="8"/>
     </row>
     <row r="594" spans="1:8">
       <c r="A594" s="9"/>
@@ -12583,20 +12631,20 @@
       <c r="D594" s="9"/>
       <c r="E594" s="9"/>
       <c r="F594" s="8"/>
-      <c r="G594" s="12"/>
+      <c r="G594" s="10"/>
       <c r="H594" s="8"/>
     </row>
     <row r="595" spans="1:8">
-      <c r="A595" s="9"/>
+      <c r="A595" s="23"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
       <c r="D595" s="9"/>
       <c r="E595" s="9"/>
       <c r="F595" s="8"/>
-      <c r="G595" s="12"/>
-      <c r="H595" s="8"/>
-    </row>
-    <row r="596" spans="1:8" s="13" customFormat="1">
+      <c r="G595" s="10"/>
+      <c r="H595" s="22"/>
+    </row>
+    <row r="596" spans="1:8">
       <c r="A596" s="9"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -12616,7 +12664,7 @@
       <c r="G597" s="12"/>
       <c r="H597" s="8"/>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" s="13" customFormat="1">
       <c r="A598" s="9"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -12634,7 +12682,7 @@
       <c r="E599" s="9"/>
       <c r="F599" s="8"/>
       <c r="G599" s="12"/>
-      <c r="H599" s="10"/>
+      <c r="H599" s="8"/>
     </row>
     <row r="600" spans="1:8">
       <c r="A600" s="9"/>
@@ -12646,7 +12694,7 @@
       <c r="G600" s="12"/>
       <c r="H600" s="8"/>
     </row>
-    <row r="601" spans="1:8" s="13" customFormat="1">
+    <row r="601" spans="1:8">
       <c r="A601" s="9"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -12654,9 +12702,9 @@
       <c r="E601" s="9"/>
       <c r="F601" s="8"/>
       <c r="G601" s="12"/>
-      <c r="H601" s="8"/>
-    </row>
-    <row r="602" spans="1:8" s="13" customFormat="1">
+      <c r="H601" s="10"/>
+    </row>
+    <row r="602" spans="1:8">
       <c r="A602" s="9"/>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -12673,7 +12721,7 @@
       <c r="D603" s="9"/>
       <c r="E603" s="9"/>
       <c r="F603" s="8"/>
-      <c r="G603" s="10"/>
+      <c r="G603" s="12"/>
       <c r="H603" s="8"/>
     </row>
     <row r="604" spans="1:8" s="13" customFormat="1">
@@ -12683,7 +12731,7 @@
       <c r="D604" s="9"/>
       <c r="E604" s="9"/>
       <c r="F604" s="8"/>
-      <c r="G604" s="10"/>
+      <c r="G604" s="12"/>
       <c r="H604" s="8"/>
     </row>
     <row r="605" spans="1:8" s="13" customFormat="1">
@@ -12696,14 +12744,14 @@
       <c r="G605" s="10"/>
       <c r="H605" s="8"/>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" s="13" customFormat="1">
       <c r="A606" s="9"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
       <c r="D606" s="9"/>
       <c r="E606" s="9"/>
       <c r="F606" s="8"/>
-      <c r="G606" s="12"/>
+      <c r="G606" s="10"/>
       <c r="H606" s="8"/>
     </row>
     <row r="607" spans="1:8" s="13" customFormat="1">
@@ -12716,14 +12764,14 @@
       <c r="G607" s="10"/>
       <c r="H607" s="8"/>
     </row>
-    <row r="608" spans="1:8" s="13" customFormat="1">
+    <row r="608" spans="1:8">
       <c r="A608" s="9"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
       <c r="D608" s="9"/>
       <c r="E608" s="9"/>
       <c r="F608" s="8"/>
-      <c r="G608" s="10"/>
+      <c r="G608" s="12"/>
       <c r="H608" s="8"/>
     </row>
     <row r="609" spans="1:8" s="13" customFormat="1">
@@ -12854,7 +12902,7 @@
       <c r="E621" s="9"/>
       <c r="F621" s="8"/>
       <c r="G621" s="10"/>
-      <c r="H621" s="9"/>
+      <c r="H621" s="8"/>
     </row>
     <row r="622" spans="1:8" s="13" customFormat="1">
       <c r="A622" s="9"/>
@@ -12864,7 +12912,7 @@
       <c r="E622" s="9"/>
       <c r="F622" s="8"/>
       <c r="G622" s="10"/>
-      <c r="H622" s="9"/>
+      <c r="H622" s="8"/>
     </row>
     <row r="623" spans="1:8" s="13" customFormat="1">
       <c r="A623" s="9"/>
@@ -12873,7 +12921,7 @@
       <c r="D623" s="9"/>
       <c r="E623" s="9"/>
       <c r="F623" s="8"/>
-      <c r="G623" s="8"/>
+      <c r="G623" s="10"/>
       <c r="H623" s="9"/>
     </row>
     <row r="624" spans="1:8" s="13" customFormat="1">
@@ -12883,7 +12931,7 @@
       <c r="D624" s="9"/>
       <c r="E624" s="9"/>
       <c r="F624" s="8"/>
-      <c r="G624" s="8"/>
+      <c r="G624" s="10"/>
       <c r="H624" s="9"/>
     </row>
     <row r="625" spans="1:8" s="13" customFormat="1">
@@ -12954,7 +13002,7 @@
       <c r="E631" s="9"/>
       <c r="F631" s="8"/>
       <c r="G631" s="8"/>
-      <c r="H631" s="8"/>
+      <c r="H631" s="9"/>
     </row>
     <row r="632" spans="1:8" s="13" customFormat="1">
       <c r="A632" s="9"/>
@@ -12964,7 +13012,7 @@
       <c r="E632" s="9"/>
       <c r="F632" s="8"/>
       <c r="G632" s="8"/>
-      <c r="H632" s="8"/>
+      <c r="H632" s="9"/>
     </row>
     <row r="633" spans="1:8" s="13" customFormat="1">
       <c r="A633" s="9"/>
@@ -13026,7 +13074,7 @@
       <c r="G638" s="8"/>
       <c r="H638" s="8"/>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" s="13" customFormat="1">
       <c r="A639" s="9"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -13034,9 +13082,9 @@
       <c r="E639" s="9"/>
       <c r="F639" s="8"/>
       <c r="G639" s="8"/>
-      <c r="H639" s="9"/>
-    </row>
-    <row r="640" spans="1:8">
+      <c r="H639" s="8"/>
+    </row>
+    <row r="640" spans="1:8" s="13" customFormat="1">
       <c r="A640" s="9"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -13054,9 +13102,9 @@
       <c r="E641" s="9"/>
       <c r="F641" s="8"/>
       <c r="G641" s="8"/>
-      <c r="H641" s="8"/>
-    </row>
-    <row r="642" spans="1:9" s="13" customFormat="1">
+      <c r="H641" s="9"/>
+    </row>
+    <row r="642" spans="1:9">
       <c r="A642" s="9"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -13075,9 +13123,8 @@
       <c r="F643" s="8"/>
       <c r="G643" s="8"/>
       <c r="H643" s="8"/>
-      <c r="I643" s="20"/>
-    </row>
-    <row r="644" spans="1:9">
+    </row>
+    <row r="644" spans="1:9" s="13" customFormat="1">
       <c r="A644" s="9"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -13096,6 +13143,7 @@
       <c r="F645" s="8"/>
       <c r="G645" s="8"/>
       <c r="H645" s="8"/>
+      <c r="I645" s="20"/>
     </row>
     <row r="646" spans="1:9">
       <c r="A646" s="9"/>
@@ -13599,16 +13647,22 @@
     </row>
     <row r="696" spans="1:8">
       <c r="A696" s="9"/>
+      <c r="B696" s="8"/>
       <c r="C696" s="8"/>
       <c r="D696" s="9"/>
       <c r="E696" s="9"/>
+      <c r="F696" s="8"/>
+      <c r="G696" s="8"/>
       <c r="H696" s="8"/>
     </row>
     <row r="697" spans="1:8">
       <c r="A697" s="9"/>
+      <c r="B697" s="8"/>
       <c r="C697" s="8"/>
       <c r="D697" s="9"/>
       <c r="E697" s="9"/>
+      <c r="F697" s="8"/>
+      <c r="G697" s="8"/>
       <c r="H697" s="8"/>
     </row>
     <row r="698" spans="1:8">
@@ -13648,10 +13702,16 @@
     </row>
     <row r="703" spans="1:8">
       <c r="A703" s="9"/>
+      <c r="C703" s="8"/>
+      <c r="D703" s="9"/>
+      <c r="E703" s="9"/>
       <c r="H703" s="8"/>
     </row>
     <row r="704" spans="1:8">
       <c r="A704" s="9"/>
+      <c r="C704" s="8"/>
+      <c r="D704" s="9"/>
+      <c r="E704" s="9"/>
       <c r="H704" s="8"/>
     </row>
     <row r="705" spans="1:8">
@@ -13729,6 +13789,14 @@
     <row r="723" spans="1:8">
       <c r="A723" s="9"/>
       <c r="H723" s="8"/>
+    </row>
+    <row r="724" spans="1:8">
+      <c r="A724" s="9"/>
+      <c r="H724" s="8"/>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="A725" s="9"/>
+      <c r="H725" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
